--- a/Japan J3League/Japan J3League.xlsx
+++ b/Japan J3League/Japan J3League.xlsx
@@ -34958,7 +34958,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7635882</v>
+        <v>7635879</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34970,46 +34970,46 @@
         <v>45347.08333333334</v>
       </c>
       <c r="F388" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G388" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K388">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L388">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M388">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N388">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O388">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P388">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q388">
         <v>0.25</v>
       </c>
       <c r="R388">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S388">
+        <v>2.075</v>
+      </c>
+      <c r="T388">
+        <v>2</v>
+      </c>
+      <c r="U388">
         <v>1.8</v>
       </c>
-      <c r="T388">
-        <v>2.25</v>
-      </c>
-      <c r="U388">
-        <v>1.95</v>
-      </c>
       <c r="V388">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W388">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7635879</v>
+        <v>7635882</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35044,46 +35044,46 @@
         <v>45347.08333333334</v>
       </c>
       <c r="F389" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G389" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K389">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L389">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M389">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N389">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O389">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P389">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q389">
         <v>0.25</v>
       </c>
       <c r="R389">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S389">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T389">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U389">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V389">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W389">
         <v>0</v>

--- a/Japan J3League/Japan J3League.xlsx
+++ b/Japan J3League/Japan J3League.xlsx
@@ -23151,7 +23151,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6194447</v>
+        <v>6194449</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23163,55 +23163,55 @@
         <v>45256.04166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J255" t="s">
         <v>51</v>
       </c>
       <c r="K255">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M255">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N255">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O255">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P255">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q255">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R255">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S255">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -23220,16 +23220,16 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
+        <v>1</v>
+      </c>
+      <c r="AB255">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB255">
-        <v>0.875</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -23240,7 +23240,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6194449</v>
+        <v>6194450</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23252,40 +23252,40 @@
         <v>45256.04166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K256">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L256">
         <v>3.1</v>
       </c>
       <c r="M256">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N256">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O256">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P256">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q256">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R256">
         <v>1.8</v>
@@ -23294,34 +23294,34 @@
         <v>2</v>
       </c>
       <c r="T256">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U256">
+        <v>1.95</v>
+      </c>
+      <c r="V256">
         <v>1.85</v>
       </c>
-      <c r="V256">
-        <v>1.95</v>
-      </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y256">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA256">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB256">
+        <v>-1</v>
+      </c>
+      <c r="AC256">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC256">
-        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23329,7 +23329,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6194450</v>
+        <v>6194447</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23341,76 +23341,76 @@
         <v>45256.04166666666</v>
       </c>
       <c r="F257" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K257">
+        <v>2.2</v>
+      </c>
+      <c r="L257">
+        <v>3</v>
+      </c>
+      <c r="M257">
+        <v>3.1</v>
+      </c>
+      <c r="N257">
+        <v>2.25</v>
+      </c>
+      <c r="O257">
+        <v>3.1</v>
+      </c>
+      <c r="P257">
+        <v>3.1</v>
+      </c>
+      <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>1.95</v>
+      </c>
+      <c r="S257">
+        <v>1.85</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>1.875</v>
+      </c>
+      <c r="V257">
+        <v>1.925</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
         <v>2.1</v>
       </c>
-      <c r="L257">
-        <v>3.1</v>
-      </c>
-      <c r="M257">
-        <v>3.2</v>
-      </c>
-      <c r="N257">
-        <v>2.45</v>
-      </c>
-      <c r="O257">
-        <v>3.2</v>
-      </c>
-      <c r="P257">
-        <v>2.7</v>
-      </c>
-      <c r="Q257">
-        <v>0</v>
-      </c>
-      <c r="R257">
-        <v>1.8</v>
-      </c>
-      <c r="S257">
-        <v>2</v>
-      </c>
-      <c r="T257">
-        <v>2.75</v>
-      </c>
-      <c r="U257">
-        <v>1.95</v>
-      </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
-      <c r="X257">
-        <v>2.2</v>
-      </c>
-      <c r="Y257">
-        <v>-1</v>
-      </c>
       <c r="Z257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC257">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23507,7 +23507,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6194448</v>
+        <v>6194471</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23519,76 +23519,76 @@
         <v>45256.08333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K259">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="L259">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M259">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N259">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O259">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P259">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q259">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R259">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T259">
         <v>2.5</v>
       </c>
       <c r="U259">
+        <v>1.925</v>
+      </c>
+      <c r="V259">
         <v>1.875</v>
       </c>
-      <c r="V259">
-        <v>1.925</v>
-      </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z259">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC259">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23596,7 +23596,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6194446</v>
+        <v>6194448</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23608,10 +23608,10 @@
         <v>45256.08333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G260" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23623,61 +23623,61 @@
         <v>53</v>
       </c>
       <c r="K260">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L260">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M260">
+        <v>2</v>
+      </c>
+      <c r="N260">
+        <v>2.9</v>
+      </c>
+      <c r="O260">
         <v>3</v>
       </c>
-      <c r="N260">
-        <v>2.25</v>
-      </c>
-      <c r="O260">
-        <v>3.2</v>
-      </c>
       <c r="P260">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R260">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S260">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V260">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W260">
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
+        <v>0.4</v>
+      </c>
+      <c r="AA260">
         <v>-0.5</v>
       </c>
-      <c r="AA260">
-        <v>0.4</v>
-      </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23685,7 +23685,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6194471</v>
+        <v>6194446</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23697,76 +23697,76 @@
         <v>45256.08333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K261">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L261">
         <v>2.8</v>
       </c>
       <c r="M261">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N261">
+        <v>2.25</v>
+      </c>
+      <c r="O261">
+        <v>3.2</v>
+      </c>
+      <c r="P261">
         <v>3</v>
       </c>
-      <c r="O261">
+      <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>1.8</v>
+      </c>
+      <c r="T261">
         <v>2.75</v>
       </c>
-      <c r="P261">
-        <v>2.55</v>
-      </c>
-      <c r="Q261">
-        <v>0</v>
-      </c>
-      <c r="R261">
-        <v>2.05</v>
-      </c>
-      <c r="S261">
-        <v>1.75</v>
-      </c>
-      <c r="T261">
-        <v>2.5</v>
-      </c>
       <c r="U261">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V261">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y261">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA261">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AB261">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6195254</v>
+        <v>6195253</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,76 +23786,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G262" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262">
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K262">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L262">
         <v>3.25</v>
       </c>
       <c r="M262">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="N262">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O262">
+        <v>3.3</v>
+      </c>
+      <c r="P262">
         <v>3.5</v>
-      </c>
-      <c r="P262">
-        <v>3.1</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
+        <v>1.775</v>
+      </c>
+      <c r="S262">
+        <v>2.025</v>
+      </c>
+      <c r="T262">
+        <v>2.5</v>
+      </c>
+      <c r="U262">
         <v>1.825</v>
       </c>
-      <c r="S262">
+      <c r="V262">
         <v>1.975</v>
       </c>
-      <c r="T262">
-        <v>2.75</v>
-      </c>
-      <c r="U262">
-        <v>1.875</v>
-      </c>
-      <c r="V262">
-        <v>1.925</v>
-      </c>
       <c r="W262">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X262">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA262">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
         <v>-1</v>
       </c>
       <c r="AC262">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6195255</v>
+        <v>6195256</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,76 +23875,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K263">
         <v>2</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M263">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N263">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O263">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P263">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q263">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S263">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
+        <v>1.875</v>
+      </c>
+      <c r="V263">
+        <v>1.925</v>
+      </c>
+      <c r="W263">
+        <v>-1</v>
+      </c>
+      <c r="X263">
         <v>2.5</v>
       </c>
-      <c r="U263">
-        <v>1.9</v>
-      </c>
-      <c r="V263">
-        <v>1.9</v>
-      </c>
-      <c r="W263">
-        <v>-1</v>
-      </c>
-      <c r="X263">
-        <v>-1</v>
-      </c>
       <c r="Y263">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC263">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6195253</v>
+        <v>6195254</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,76 +23964,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G264" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264">
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K264">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L264">
         <v>3.25</v>
       </c>
       <c r="M264">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N264">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O264">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q264">
         <v>-0.25</v>
       </c>
       <c r="R264">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S264">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T264">
+        <v>2.75</v>
+      </c>
+      <c r="U264">
+        <v>1.875</v>
+      </c>
+      <c r="V264">
+        <v>1.925</v>
+      </c>
+      <c r="W264">
+        <v>-1</v>
+      </c>
+      <c r="X264">
         <v>2.5</v>
       </c>
-      <c r="U264">
-        <v>1.825</v>
-      </c>
-      <c r="V264">
-        <v>1.975</v>
-      </c>
-      <c r="W264">
-        <v>1</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB264">
         <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6195252</v>
+        <v>6195255</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24053,76 +24053,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G265" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H265">
         <v>0</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K265">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L265">
         <v>3.3</v>
       </c>
       <c r="M265">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N265">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O265">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P265">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q265">
         <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T265">
         <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AB265">
         <v>-1</v>
       </c>
       <c r="AC265">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24130,7 +24130,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6195258</v>
+        <v>6195260</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24142,46 +24142,46 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
         <v>51</v>
       </c>
       <c r="K266">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L266">
         <v>3.3</v>
       </c>
       <c r="M266">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N266">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O266">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P266">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q266">
         <v>0.25</v>
       </c>
       <c r="R266">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S266">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T266">
         <v>2.75</v>
@@ -24199,19 +24199,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB266">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24219,7 +24219,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6195259</v>
+        <v>6195258</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24231,56 +24231,56 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G267" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
         <v>51</v>
       </c>
       <c r="K267">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L267">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M267">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N267">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="O267">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P267">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q267">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R267">
+        <v>1.775</v>
+      </c>
+      <c r="S267">
+        <v>2.025</v>
+      </c>
+      <c r="T267">
+        <v>2.75</v>
+      </c>
+      <c r="U267">
+        <v>1.975</v>
+      </c>
+      <c r="V267">
         <v>1.825</v>
       </c>
-      <c r="S267">
-        <v>1.975</v>
-      </c>
-      <c r="T267">
-        <v>2.5</v>
-      </c>
-      <c r="U267">
-        <v>1.85</v>
-      </c>
-      <c r="V267">
-        <v>1.95</v>
-      </c>
       <c r="W267">
         <v>-1</v>
       </c>
@@ -24288,19 +24288,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
+        <v>1.025</v>
+      </c>
+      <c r="AB267">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB267">
-        <v>-1</v>
-      </c>
       <c r="AC267">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24308,7 +24308,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6195256</v>
+        <v>6195259</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24320,76 +24320,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G268" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K268">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L268">
         <v>3.4</v>
       </c>
       <c r="M268">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N268">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="O268">
+        <v>3.75</v>
+      </c>
+      <c r="P268">
+        <v>4.5</v>
+      </c>
+      <c r="Q268">
+        <v>-0.75</v>
+      </c>
+      <c r="R268">
+        <v>1.825</v>
+      </c>
+      <c r="S268">
+        <v>1.975</v>
+      </c>
+      <c r="T268">
+        <v>2.5</v>
+      </c>
+      <c r="U268">
+        <v>1.85</v>
+      </c>
+      <c r="V268">
+        <v>1.95</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
         <v>3.5</v>
       </c>
-      <c r="P268">
-        <v>3.6</v>
-      </c>
-      <c r="Q268">
-        <v>-0.5</v>
-      </c>
-      <c r="R268">
-        <v>1.925</v>
-      </c>
-      <c r="S268">
-        <v>1.875</v>
-      </c>
-      <c r="T268">
-        <v>2.75</v>
-      </c>
-      <c r="U268">
-        <v>1.875</v>
-      </c>
-      <c r="V268">
-        <v>1.925</v>
-      </c>
-      <c r="W268">
-        <v>-1</v>
-      </c>
-      <c r="X268">
-        <v>2.5</v>
-      </c>
-      <c r="Y268">
-        <v>-1</v>
-      </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB268">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24397,7 +24397,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6195260</v>
+        <v>6195252</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24409,76 +24409,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G269" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K269">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L269">
         <v>3.3</v>
       </c>
       <c r="M269">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N269">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q269">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S269">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T269">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
+        <v>1.825</v>
+      </c>
+      <c r="V269">
         <v>1.975</v>
       </c>
-      <c r="V269">
-        <v>1.825</v>
-      </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y269">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA269">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB269">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24664,7 +24664,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7635644</v>
+        <v>7635878</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24676,73 +24676,73 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272" t="s">
+        <v>51</v>
+      </c>
+      <c r="K272">
+        <v>1.85</v>
+      </c>
+      <c r="L272">
+        <v>3.1</v>
+      </c>
+      <c r="M272">
         <v>4</v>
       </c>
-      <c r="I272">
-        <v>1</v>
-      </c>
-      <c r="J272" t="s">
-        <v>52</v>
-      </c>
-      <c r="K272">
-        <v>1.6</v>
-      </c>
-      <c r="L272">
-        <v>3.75</v>
-      </c>
-      <c r="M272">
-        <v>4.75</v>
-      </c>
       <c r="N272">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O272">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P272">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q272">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R272">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S272">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U272">
+        <v>1.85</v>
+      </c>
+      <c r="V272">
         <v>1.95</v>
       </c>
-      <c r="V272">
-        <v>1.85</v>
-      </c>
       <c r="W272">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z272">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -24753,7 +24753,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7635881</v>
+        <v>7635644</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24765,76 +24765,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G273" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I273">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K273">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L273">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M273">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N273">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O273">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P273">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q273">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R273">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S273">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T273">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U273">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V273">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA273">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC273">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24842,7 +24842,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7635878</v>
+        <v>7635881</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24854,55 +24854,55 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G274" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
         <v>1</v>
-      </c>
-      <c r="I274">
-        <v>2</v>
       </c>
       <c r="J274" t="s">
         <v>51</v>
       </c>
       <c r="K274">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L274">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N274">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O274">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P274">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q274">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S274">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T274">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U274">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W274">
         <v>-1</v>
@@ -24911,19 +24911,19 @@
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z274">
         <v>-1</v>
       </c>
       <c r="AA274">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB274">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25287,7 +25287,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7635879</v>
+        <v>7635875</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25299,10 +25299,10 @@
         <v>45347.08333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G279" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -25314,61 +25314,61 @@
         <v>53</v>
       </c>
       <c r="K279">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L279">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M279">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N279">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O279">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R279">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S279">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V279">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA279">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25376,7 +25376,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7635875</v>
+        <v>7635879</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25388,10 +25388,10 @@
         <v>45347.08333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G280" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -25403,61 +25403,61 @@
         <v>53</v>
       </c>
       <c r="K280">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M280">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N280">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O280">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P280">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q280">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R280">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S280">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T280">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U280">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V280">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W280">
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC280">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25732,7 +25732,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7751890</v>
+        <v>7752019</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25744,76 +25744,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="L284">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M284">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N284">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O284">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P284">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R284">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T284">
         <v>2.25</v>
       </c>
       <c r="U284">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V284">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X284">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA284">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7751891</v>
+        <v>7751890</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,76 +25833,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G285" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K285">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L285">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M285">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N285">
+        <v>2.45</v>
+      </c>
+      <c r="O285">
+        <v>3.1</v>
+      </c>
+      <c r="P285">
         <v>2.7</v>
       </c>
-      <c r="O285">
-        <v>3.2</v>
-      </c>
-      <c r="P285">
-        <v>2.375</v>
-      </c>
       <c r="Q285">
         <v>0</v>
       </c>
       <c r="R285">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S285">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T285">
         <v>2.25</v>
       </c>
       <c r="U285">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V285">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y285">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA285">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB285">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7752019</v>
+        <v>7751891</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,76 +25922,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G286" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K286">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L286">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M286">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N286">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O286">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P286">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q286">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S286">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T286">
         <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V286">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W286">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X286">
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z286">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC286">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26800,7 +26800,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7751898</v>
+        <v>7751897</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26812,76 +26812,76 @@
         <v>45361.04166666666</v>
       </c>
       <c r="F296" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G296" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H296">
         <v>1</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K296">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L296">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M296">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N296">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O296">
+        <v>3.4</v>
+      </c>
+      <c r="P296">
         <v>3.3</v>
       </c>
-      <c r="P296">
-        <v>3.4</v>
-      </c>
       <c r="Q296">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R296">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S296">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T296">
         <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W296">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26889,7 +26889,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7751897</v>
+        <v>7751898</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26901,76 +26901,76 @@
         <v>45361.04166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G297" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H297">
         <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K297">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L297">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M297">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N297">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O297">
+        <v>3.3</v>
+      </c>
+      <c r="P297">
         <v>3.4</v>
       </c>
-      <c r="P297">
-        <v>3.3</v>
-      </c>
       <c r="Q297">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R297">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S297">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T297">
         <v>2.5</v>
       </c>
       <c r="U297">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X297">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA297">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
         <v>-1</v>
       </c>
       <c r="AC297">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27156,7 +27156,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7751903</v>
+        <v>7752029</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27168,76 +27168,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G300" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H300">
         <v>1</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K300">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L300">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M300">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N300">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O300">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P300">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S300">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T300">
         <v>2.25</v>
       </c>
       <c r="U300">
+        <v>1.95</v>
+      </c>
+      <c r="V300">
         <v>1.85</v>
       </c>
-      <c r="V300">
-        <v>1.95</v>
-      </c>
       <c r="W300">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC300">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27245,7 +27245,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7751902</v>
+        <v>7751903</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27257,76 +27257,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G301" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K301">
+        <v>1.666</v>
+      </c>
+      <c r="L301">
+        <v>3.6</v>
+      </c>
+      <c r="M301">
+        <v>4.2</v>
+      </c>
+      <c r="N301">
+        <v>1.85</v>
+      </c>
+      <c r="O301">
         <v>3.4</v>
       </c>
-      <c r="L301">
+      <c r="P301">
         <v>3.4</v>
       </c>
-      <c r="M301">
-        <v>1.909</v>
-      </c>
-      <c r="N301">
-        <v>4.75</v>
-      </c>
-      <c r="O301">
-        <v>3.8</v>
-      </c>
-      <c r="P301">
-        <v>1.55</v>
-      </c>
       <c r="Q301">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R301">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S301">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T301">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U301">
+        <v>1.85</v>
+      </c>
+      <c r="V301">
         <v>1.95</v>
       </c>
-      <c r="V301">
-        <v>1.75</v>
-      </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA301">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
         <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27334,7 +27334,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7752029</v>
+        <v>7751902</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27346,76 +27346,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G302" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>2</v>
+      </c>
+      <c r="J302" t="s">
+        <v>51</v>
+      </c>
+      <c r="K302">
+        <v>3.4</v>
+      </c>
+      <c r="L302">
+        <v>3.4</v>
+      </c>
+      <c r="M302">
+        <v>1.909</v>
+      </c>
+      <c r="N302">
+        <v>4.75</v>
+      </c>
+      <c r="O302">
+        <v>3.8</v>
+      </c>
+      <c r="P302">
+        <v>1.55</v>
+      </c>
+      <c r="Q302">
         <v>1</v>
       </c>
-      <c r="I302">
-        <v>1</v>
-      </c>
-      <c r="J302" t="s">
-        <v>53</v>
-      </c>
-      <c r="K302">
-        <v>2.3</v>
-      </c>
-      <c r="L302">
-        <v>3.2</v>
-      </c>
-      <c r="M302">
-        <v>2.75</v>
-      </c>
-      <c r="N302">
-        <v>2.3</v>
-      </c>
-      <c r="O302">
-        <v>3.2</v>
-      </c>
-      <c r="P302">
-        <v>2.7</v>
-      </c>
-      <c r="Q302">
-        <v>0</v>
-      </c>
       <c r="R302">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S302">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T302">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U302">
         <v>1.95</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7752033</v>
+        <v>7752031</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,76 +27702,76 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G306" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J306" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K306">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L306">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M306">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N306">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O306">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P306">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q306">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R306">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S306">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T306">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U306">
         <v>1.95</v>
       </c>
       <c r="V306">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC306">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27779,7 +27779,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7752031</v>
+        <v>7752033</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27791,76 +27791,76 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307" t="s">
+        <v>53</v>
+      </c>
+      <c r="K307">
+        <v>2.2</v>
+      </c>
+      <c r="L307">
+        <v>3.1</v>
+      </c>
+      <c r="M307">
         <v>3</v>
       </c>
-      <c r="J307" t="s">
-        <v>51</v>
-      </c>
-      <c r="K307">
-        <v>1.95</v>
-      </c>
-      <c r="L307">
-        <v>3.3</v>
-      </c>
-      <c r="M307">
-        <v>3.3</v>
-      </c>
       <c r="N307">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O307">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P307">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
         <v>1.95</v>
       </c>
       <c r="V307">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y307">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA307">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB307">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27957,7 +27957,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7752034</v>
+        <v>7751905</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27969,46 +27969,46 @@
         <v>45371.04166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G309" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K309">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L309">
+        <v>3.25</v>
+      </c>
+      <c r="M309">
+        <v>3.5</v>
+      </c>
+      <c r="N309">
+        <v>1.909</v>
+      </c>
+      <c r="O309">
         <v>3.2</v>
       </c>
-      <c r="M309">
-        <v>3.1</v>
-      </c>
-      <c r="N309">
-        <v>2.3</v>
-      </c>
-      <c r="O309">
-        <v>3</v>
-      </c>
       <c r="P309">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q309">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R309">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S309">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T309">
         <v>2.25</v>
@@ -28023,16 +28023,16 @@
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z309">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB309">
         <v>-0.5</v>
@@ -28046,7 +28046,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7751905</v>
+        <v>7752034</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28058,46 +28058,46 @@
         <v>45371.04166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G310" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K310">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L310">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M310">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N310">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O310">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P310">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q310">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R310">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S310">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T310">
         <v>2.25</v>
@@ -28112,16 +28112,16 @@
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y310">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA310">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB310">
         <v>-0.5</v>
@@ -29025,7 +29025,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7752040</v>
+        <v>7751911</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29037,76 +29037,76 @@
         <v>45375.04166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G321" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K321">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L321">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M321">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N321">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O321">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P321">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q321">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S321">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T321">
         <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB321">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29114,7 +29114,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7751911</v>
+        <v>7752040</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29126,76 +29126,76 @@
         <v>45375.04166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G322" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I322">
         <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K322">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L322">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N322">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O322">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P322">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q322">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R322">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S322">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T322">
         <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y322">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA322">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC322">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7752043</v>
+        <v>7751912</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,76 +29304,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F324" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G324" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K324">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L324">
         <v>3</v>
       </c>
       <c r="M324">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N324">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O324">
         <v>3</v>
       </c>
       <c r="P324">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q324">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R324">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S324">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T324">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U324">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V324">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W324">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X324">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y324">
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC324">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7752042</v>
+        <v>7752041</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,16 +29393,16 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F325" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G325" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
         <v>53</v>
@@ -29417,31 +29417,31 @@
         <v>2.2</v>
       </c>
       <c r="N325">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O325">
         <v>3.2</v>
       </c>
       <c r="P325">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q325">
         <v>0.25</v>
       </c>
       <c r="R325">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S325">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V325">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W325">
         <v>-1</v>
@@ -29453,16 +29453,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA325">
         <v>-0.5</v>
       </c>
       <c r="AB325">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7752041</v>
+        <v>7752042</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,16 +29482,16 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F326" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G326" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J326" t="s">
         <v>53</v>
@@ -29506,31 +29506,31 @@
         <v>2.2</v>
       </c>
       <c r="N326">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O326">
         <v>3.2</v>
       </c>
       <c r="P326">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q326">
         <v>0.25</v>
       </c>
       <c r="R326">
+        <v>2</v>
+      </c>
+      <c r="S326">
         <v>1.8</v>
-      </c>
-      <c r="S326">
-        <v>2</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V326">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W326">
         <v>-1</v>
@@ -29542,16 +29542,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AA326">
         <v>-0.5</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC326">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29559,7 +29559,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7751912</v>
+        <v>7752043</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29571,76 +29571,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G327" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H327">
         <v>1</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K327">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L327">
         <v>3</v>
       </c>
       <c r="M327">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N327">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O327">
         <v>3</v>
       </c>
       <c r="P327">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q327">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R327">
+        <v>1.925</v>
+      </c>
+      <c r="S327">
+        <v>1.875</v>
+      </c>
+      <c r="T327">
+        <v>2.25</v>
+      </c>
+      <c r="U327">
+        <v>1.975</v>
+      </c>
+      <c r="V327">
         <v>1.825</v>
       </c>
-      <c r="S327">
-        <v>1.975</v>
-      </c>
-      <c r="T327">
-        <v>2</v>
-      </c>
-      <c r="U327">
-        <v>2.025</v>
-      </c>
-      <c r="V327">
-        <v>1.775</v>
-      </c>
       <c r="W327">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X327">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA327">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC327">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7751915</v>
+        <v>7752051</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,73 +30194,73 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G334" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I334">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L334">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M334">
         <v>3.2</v>
       </c>
       <c r="N334">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O334">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P334">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q334">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R334">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S334">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T334">
         <v>2.25</v>
       </c>
       <c r="U334">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB334">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC334">
         <v>-1</v>
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7752051</v>
+        <v>7751915</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,73 +30283,73 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G335" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J335" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K335">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L335">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M335">
         <v>3.2</v>
       </c>
       <c r="N335">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O335">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P335">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q335">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R335">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S335">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T335">
         <v>2.25</v>
       </c>
       <c r="U335">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V335">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y335">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA335">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB335">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC335">
         <v>-1</v>
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7752050</v>
+        <v>7751914</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,19 +30461,19 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G337" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K337">
         <v>1.909</v>
@@ -30485,52 +30485,52 @@
         <v>3.6</v>
       </c>
       <c r="N337">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O337">
         <v>3.2</v>
       </c>
       <c r="P337">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q337">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R337">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S337">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T337">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U337">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V337">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W337">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA337">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
         <v>-1</v>
       </c>
       <c r="AC337">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7751914</v>
+        <v>7752050</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,19 +30550,19 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G338" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
         <v>1</v>
       </c>
-      <c r="I338">
-        <v>0</v>
-      </c>
       <c r="J338" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K338">
         <v>1.909</v>
@@ -30574,52 +30574,52 @@
         <v>3.6</v>
       </c>
       <c r="N338">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O338">
         <v>3.2</v>
       </c>
       <c r="P338">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q338">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S338">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T338">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U338">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V338">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W338">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X338">
         <v>-1</v>
       </c>
       <c r="Y338">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z338">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB338">
         <v>-1</v>
       </c>
       <c r="AC338">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Japan J3League/Japan J3League.xlsx
+++ b/Japan J3League/Japan J3League.xlsx
@@ -23151,7 +23151,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6194449</v>
+        <v>6194447</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23163,55 +23163,55 @@
         <v>45256.04166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
         <v>51</v>
       </c>
       <c r="K255">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L255">
+        <v>3</v>
+      </c>
+      <c r="M255">
         <v>3.1</v>
       </c>
-      <c r="M255">
-        <v>2</v>
-      </c>
       <c r="N255">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O255">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P255">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q255">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S255">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V255">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -23220,16 +23220,16 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB255">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -23240,7 +23240,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6194450</v>
+        <v>6194449</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23252,40 +23252,40 @@
         <v>45256.04166666666</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G256" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K256">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L256">
         <v>3.1</v>
       </c>
       <c r="M256">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N256">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="O256">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P256">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R256">
         <v>1.8</v>
@@ -23294,34 +23294,34 @@
         <v>2</v>
       </c>
       <c r="T256">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
+        <v>1.85</v>
+      </c>
+      <c r="V256">
         <v>1.95</v>
       </c>
-      <c r="V256">
-        <v>1.85</v>
-      </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC256">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23329,7 +23329,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6194447</v>
+        <v>6194450</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23341,76 +23341,76 @@
         <v>45256.04166666666</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K257">
+        <v>2.1</v>
+      </c>
+      <c r="L257">
+        <v>3.1</v>
+      </c>
+      <c r="M257">
+        <v>3.2</v>
+      </c>
+      <c r="N257">
+        <v>2.45</v>
+      </c>
+      <c r="O257">
+        <v>3.2</v>
+      </c>
+      <c r="P257">
+        <v>2.7</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>1.8</v>
+      </c>
+      <c r="S257">
+        <v>2</v>
+      </c>
+      <c r="T257">
+        <v>2.75</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
         <v>2.2</v>
       </c>
-      <c r="L257">
-        <v>3</v>
-      </c>
-      <c r="M257">
-        <v>3.1</v>
-      </c>
-      <c r="N257">
-        <v>2.25</v>
-      </c>
-      <c r="O257">
-        <v>3.1</v>
-      </c>
-      <c r="P257">
-        <v>3.1</v>
-      </c>
-      <c r="Q257">
-        <v>-0.25</v>
-      </c>
-      <c r="R257">
-        <v>1.95</v>
-      </c>
-      <c r="S257">
-        <v>1.85</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.875</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA257">
+        <v>-0</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB257">
-        <v>0.875</v>
-      </c>
-      <c r="AC257">
-        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23507,7 +23507,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6194471</v>
+        <v>6194448</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23519,76 +23519,76 @@
         <v>45256.08333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G259" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K259">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L259">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M259">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N259">
+        <v>2.9</v>
+      </c>
+      <c r="O259">
         <v>3</v>
       </c>
-      <c r="O259">
-        <v>2.75</v>
-      </c>
       <c r="P259">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R259">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S259">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T259">
         <v>2.5</v>
       </c>
       <c r="U259">
+        <v>1.875</v>
+      </c>
+      <c r="V259">
         <v>1.925</v>
       </c>
-      <c r="V259">
-        <v>1.875</v>
-      </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y259">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA259">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB259">
+        <v>-1</v>
+      </c>
+      <c r="AC259">
         <v>0.925</v>
-      </c>
-      <c r="AC259">
-        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23596,7 +23596,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6194448</v>
+        <v>6194446</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23608,10 +23608,10 @@
         <v>45256.08333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G260" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23623,61 +23623,61 @@
         <v>53</v>
       </c>
       <c r="K260">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="L260">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N260">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O260">
+        <v>3.2</v>
+      </c>
+      <c r="P260">
         <v>3</v>
       </c>
-      <c r="P260">
-        <v>2.4</v>
-      </c>
       <c r="Q260">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
+        <v>2</v>
+      </c>
+      <c r="S260">
         <v>1.8</v>
       </c>
-      <c r="S260">
-        <v>2</v>
-      </c>
       <c r="T260">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W260">
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
+        <v>-0.5</v>
+      </c>
+      <c r="AA260">
         <v>0.4</v>
       </c>
-      <c r="AA260">
-        <v>-0.5</v>
-      </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23685,7 +23685,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6194446</v>
+        <v>6194471</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23697,76 +23697,76 @@
         <v>45256.08333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K261">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L261">
         <v>2.8</v>
       </c>
       <c r="M261">
+        <v>2.5</v>
+      </c>
+      <c r="N261">
         <v>3</v>
       </c>
-      <c r="N261">
-        <v>2.25</v>
-      </c>
       <c r="O261">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P261">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q261">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S261">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T261">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U261">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V261">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC261">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6195253</v>
+        <v>6195254</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,76 +23786,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G262" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K262">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L262">
         <v>3.25</v>
       </c>
       <c r="M262">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N262">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O262">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P262">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T262">
+        <v>2.75</v>
+      </c>
+      <c r="U262">
+        <v>1.875</v>
+      </c>
+      <c r="V262">
+        <v>1.925</v>
+      </c>
+      <c r="W262">
+        <v>-1</v>
+      </c>
+      <c r="X262">
         <v>2.5</v>
       </c>
-      <c r="U262">
-        <v>1.825</v>
-      </c>
-      <c r="V262">
-        <v>1.975</v>
-      </c>
-      <c r="W262">
-        <v>1</v>
-      </c>
-      <c r="X262">
-        <v>-1</v>
-      </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB262">
         <v>-1</v>
       </c>
       <c r="AC262">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6195256</v>
+        <v>6195255</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,76 +23875,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K263">
         <v>2</v>
       </c>
       <c r="L263">
+        <v>3.3</v>
+      </c>
+      <c r="M263">
+        <v>3.25</v>
+      </c>
+      <c r="N263">
+        <v>2.1</v>
+      </c>
+      <c r="O263">
         <v>3.4</v>
       </c>
-      <c r="M263">
+      <c r="P263">
         <v>3.1</v>
       </c>
-      <c r="N263">
-        <v>1.909</v>
-      </c>
-      <c r="O263">
-        <v>3.5</v>
-      </c>
-      <c r="P263">
-        <v>3.6</v>
-      </c>
       <c r="Q263">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6195254</v>
+        <v>6195253</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,76 +23964,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K264">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L264">
         <v>3.25</v>
       </c>
       <c r="M264">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="N264">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O264">
+        <v>3.3</v>
+      </c>
+      <c r="P264">
         <v>3.5</v>
-      </c>
-      <c r="P264">
-        <v>3.1</v>
       </c>
       <c r="Q264">
         <v>-0.25</v>
       </c>
       <c r="R264">
+        <v>1.775</v>
+      </c>
+      <c r="S264">
+        <v>2.025</v>
+      </c>
+      <c r="T264">
+        <v>2.5</v>
+      </c>
+      <c r="U264">
         <v>1.825</v>
       </c>
-      <c r="S264">
+      <c r="V264">
         <v>1.975</v>
       </c>
-      <c r="T264">
-        <v>2.75</v>
-      </c>
-      <c r="U264">
-        <v>1.875</v>
-      </c>
-      <c r="V264">
-        <v>1.925</v>
-      </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X264">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA264">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
         <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6195255</v>
+        <v>6195252</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24053,76 +24053,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H265">
         <v>0</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K265">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L265">
         <v>3.3</v>
       </c>
       <c r="M265">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N265">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O265">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P265">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q265">
         <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
         <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y265">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA265">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB265">
         <v>-1</v>
       </c>
       <c r="AC265">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24130,7 +24130,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6195260</v>
+        <v>6195258</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24142,46 +24142,46 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G266" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J266" t="s">
         <v>51</v>
       </c>
       <c r="K266">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L266">
         <v>3.3</v>
       </c>
       <c r="M266">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N266">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O266">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P266">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q266">
         <v>0.25</v>
       </c>
       <c r="R266">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S266">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T266">
         <v>2.75</v>
@@ -24199,19 +24199,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB266">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC266">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24219,7 +24219,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6195258</v>
+        <v>6195259</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24231,55 +24231,55 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
         <v>51</v>
       </c>
       <c r="K267">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L267">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M267">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N267">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="O267">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P267">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R267">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S267">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T267">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24288,19 +24288,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB267">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24308,7 +24308,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6195259</v>
+        <v>6195256</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24320,76 +24320,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G268" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K268">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L268">
         <v>3.4</v>
       </c>
       <c r="M268">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N268">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O268">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P268">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R268">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S268">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T268">
+        <v>2.75</v>
+      </c>
+      <c r="U268">
+        <v>1.875</v>
+      </c>
+      <c r="V268">
+        <v>1.925</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
         <v>2.5</v>
       </c>
-      <c r="U268">
-        <v>1.85</v>
-      </c>
-      <c r="V268">
-        <v>1.95</v>
-      </c>
-      <c r="W268">
-        <v>-1</v>
-      </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
       <c r="Y268">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC268">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24397,7 +24397,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6195252</v>
+        <v>6195260</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24409,76 +24409,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G269" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K269">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L269">
         <v>3.3</v>
       </c>
       <c r="M269">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N269">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P269">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
+        <v>1.925</v>
+      </c>
+      <c r="S269">
+        <v>1.875</v>
+      </c>
+      <c r="T269">
+        <v>2.75</v>
+      </c>
+      <c r="U269">
         <v>1.975</v>
       </c>
-      <c r="S269">
+      <c r="V269">
         <v>1.825</v>
       </c>
-      <c r="T269">
-        <v>2.5</v>
-      </c>
-      <c r="U269">
-        <v>1.825</v>
-      </c>
-      <c r="V269">
-        <v>1.975</v>
-      </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
+        <v>0.875</v>
+      </c>
+      <c r="AB269">
+        <v>0.4875</v>
+      </c>
+      <c r="AC269">
         <v>-0.5</v>
-      </c>
-      <c r="AA269">
-        <v>0.4125</v>
-      </c>
-      <c r="AB269">
-        <v>-1</v>
-      </c>
-      <c r="AC269">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24664,7 +24664,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7635878</v>
+        <v>7635644</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24676,73 +24676,73 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G272" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H272">
+        <v>4</v>
+      </c>
+      <c r="I272">
         <v>1</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
       <c r="J272" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K272">
+        <v>1.6</v>
+      </c>
+      <c r="L272">
+        <v>3.75</v>
+      </c>
+      <c r="M272">
+        <v>4.75</v>
+      </c>
+      <c r="N272">
+        <v>1.6</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>4.75</v>
+      </c>
+      <c r="Q272">
+        <v>-0.75</v>
+      </c>
+      <c r="R272">
+        <v>1.825</v>
+      </c>
+      <c r="S272">
+        <v>1.975</v>
+      </c>
+      <c r="T272">
+        <v>2.5</v>
+      </c>
+      <c r="U272">
+        <v>1.95</v>
+      </c>
+      <c r="V272">
         <v>1.85</v>
       </c>
-      <c r="L272">
-        <v>3.1</v>
-      </c>
-      <c r="M272">
-        <v>4</v>
-      </c>
-      <c r="N272">
-        <v>1.909</v>
-      </c>
-      <c r="O272">
-        <v>3</v>
-      </c>
-      <c r="P272">
-        <v>3.8</v>
-      </c>
-      <c r="Q272">
-        <v>-0.5</v>
-      </c>
-      <c r="R272">
-        <v>2.025</v>
-      </c>
-      <c r="S272">
-        <v>1.775</v>
-      </c>
-      <c r="T272">
-        <v>2</v>
-      </c>
-      <c r="U272">
-        <v>1.85</v>
-      </c>
-      <c r="V272">
-        <v>1.95</v>
-      </c>
       <c r="W272">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA272">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -24753,7 +24753,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7635644</v>
+        <v>7635881</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24765,76 +24765,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G273" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H273">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I273">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K273">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L273">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M273">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N273">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O273">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P273">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q273">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R273">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S273">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U273">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V273">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W273">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z273">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB273">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24842,7 +24842,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7635881</v>
+        <v>7635878</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24854,76 +24854,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G274" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J274" t="s">
         <v>51</v>
       </c>
       <c r="K274">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L274">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M274">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N274">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O274">
+        <v>3</v>
+      </c>
+      <c r="P274">
+        <v>3.8</v>
+      </c>
+      <c r="Q274">
+        <v>-0.5</v>
+      </c>
+      <c r="R274">
+        <v>2.025</v>
+      </c>
+      <c r="S274">
+        <v>1.775</v>
+      </c>
+      <c r="T274">
+        <v>2</v>
+      </c>
+      <c r="U274">
+        <v>1.85</v>
+      </c>
+      <c r="V274">
+        <v>1.95</v>
+      </c>
+      <c r="W274">
+        <v>-1</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
         <v>2.8</v>
       </c>
-      <c r="P274">
-        <v>2.9</v>
-      </c>
-      <c r="Q274">
-        <v>-0.25</v>
-      </c>
-      <c r="R274">
-        <v>2.05</v>
-      </c>
-      <c r="S274">
-        <v>1.75</v>
-      </c>
-      <c r="T274">
-        <v>2.25</v>
-      </c>
-      <c r="U274">
-        <v>2</v>
-      </c>
-      <c r="V274">
-        <v>1.8</v>
-      </c>
-      <c r="W274">
-        <v>-1</v>
-      </c>
-      <c r="X274">
-        <v>-1</v>
-      </c>
-      <c r="Y274">
-        <v>1.9</v>
-      </c>
       <c r="Z274">
         <v>-1</v>
       </c>
       <c r="AA274">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC274">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25287,7 +25287,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7635875</v>
+        <v>7635879</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25299,10 +25299,10 @@
         <v>45347.08333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G279" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -25314,61 +25314,61 @@
         <v>53</v>
       </c>
       <c r="K279">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L279">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M279">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N279">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O279">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P279">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q279">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S279">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U279">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V279">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC279">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25376,7 +25376,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7635879</v>
+        <v>7635875</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25388,10 +25388,10 @@
         <v>45347.08333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G280" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H280">
         <v>1</v>
@@ -25403,61 +25403,61 @@
         <v>53</v>
       </c>
       <c r="K280">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L280">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N280">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O280">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P280">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q280">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R280">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S280">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V280">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA280">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25732,7 +25732,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7752019</v>
+        <v>7751890</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25744,76 +25744,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G284" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K284">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L284">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M284">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N284">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O284">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P284">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R284">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S284">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T284">
         <v>2.25</v>
       </c>
       <c r="U284">
+        <v>2</v>
+      </c>
+      <c r="V284">
         <v>1.8</v>
       </c>
-      <c r="V284">
-        <v>2</v>
-      </c>
       <c r="W284">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC284">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7751890</v>
+        <v>7751891</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,76 +25833,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G285" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K285">
+        <v>2.75</v>
+      </c>
+      <c r="L285">
+        <v>3.2</v>
+      </c>
+      <c r="M285">
+        <v>2.3</v>
+      </c>
+      <c r="N285">
         <v>2.7</v>
       </c>
-      <c r="L285">
-        <v>3.1</v>
-      </c>
-      <c r="M285">
-        <v>2.4</v>
-      </c>
-      <c r="N285">
-        <v>2.45</v>
-      </c>
       <c r="O285">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P285">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q285">
         <v>0</v>
       </c>
       <c r="R285">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S285">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T285">
         <v>2.25</v>
       </c>
       <c r="U285">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB285">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC285">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7751891</v>
+        <v>7752019</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,76 +25922,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G286" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K286">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="L286">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M286">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N286">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O286">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P286">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S286">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T286">
         <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V286">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X286">
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA286">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26800,7 +26800,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7751897</v>
+        <v>7751898</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26812,76 +26812,76 @@
         <v>45361.04166666666</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G296" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H296">
         <v>1</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K296">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L296">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M296">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N296">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O296">
+        <v>3.3</v>
+      </c>
+      <c r="P296">
         <v>3.4</v>
       </c>
-      <c r="P296">
-        <v>3.3</v>
-      </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R296">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S296">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T296">
         <v>2.5</v>
       </c>
       <c r="U296">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X296">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA296">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26889,7 +26889,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7751898</v>
+        <v>7751897</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26901,76 +26901,76 @@
         <v>45361.04166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G297" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H297">
         <v>1</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K297">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L297">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M297">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N297">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O297">
+        <v>3.4</v>
+      </c>
+      <c r="P297">
         <v>3.3</v>
       </c>
-      <c r="P297">
-        <v>3.4</v>
-      </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S297">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T297">
         <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB297">
         <v>-1</v>
       </c>
       <c r="AC297">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27156,7 +27156,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7752029</v>
+        <v>7751903</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27168,76 +27168,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G300" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H300">
         <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K300">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L300">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M300">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N300">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P300">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S300">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T300">
         <v>2.25</v>
       </c>
       <c r="U300">
+        <v>1.85</v>
+      </c>
+      <c r="V300">
         <v>1.95</v>
       </c>
-      <c r="V300">
-        <v>1.85</v>
-      </c>
       <c r="W300">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X300">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA300">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27245,7 +27245,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7751903</v>
+        <v>7751902</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27257,76 +27257,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>2</v>
+      </c>
+      <c r="J301" t="s">
+        <v>51</v>
+      </c>
+      <c r="K301">
+        <v>3.4</v>
+      </c>
+      <c r="L301">
+        <v>3.4</v>
+      </c>
+      <c r="M301">
+        <v>1.909</v>
+      </c>
+      <c r="N301">
+        <v>4.75</v>
+      </c>
+      <c r="O301">
+        <v>3.8</v>
+      </c>
+      <c r="P301">
+        <v>1.55</v>
+      </c>
+      <c r="Q301">
         <v>1</v>
       </c>
-      <c r="I301">
-        <v>0</v>
-      </c>
-      <c r="J301" t="s">
-        <v>52</v>
-      </c>
-      <c r="K301">
-        <v>1.666</v>
-      </c>
-      <c r="L301">
-        <v>3.6</v>
-      </c>
-      <c r="M301">
-        <v>4.2</v>
-      </c>
-      <c r="N301">
-        <v>1.85</v>
-      </c>
-      <c r="O301">
-        <v>3.4</v>
-      </c>
-      <c r="P301">
-        <v>3.4</v>
-      </c>
-      <c r="Q301">
-        <v>-0.5</v>
-      </c>
       <c r="R301">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S301">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U301">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V301">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W301">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z301">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB301">
         <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27334,7 +27334,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7751902</v>
+        <v>7752029</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27346,76 +27346,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K302">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L302">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M302">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N302">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="O302">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P302">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R302">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S302">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
         <v>1.95</v>
       </c>
       <c r="V302">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y302">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA302">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27690,7 +27690,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7752031</v>
+        <v>7752033</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27702,76 +27702,76 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G306" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306" t="s">
+        <v>53</v>
+      </c>
+      <c r="K306">
+        <v>2.2</v>
+      </c>
+      <c r="L306">
+        <v>3.1</v>
+      </c>
+      <c r="M306">
         <v>3</v>
       </c>
-      <c r="J306" t="s">
-        <v>51</v>
-      </c>
-      <c r="K306">
-        <v>1.95</v>
-      </c>
-      <c r="L306">
-        <v>3.3</v>
-      </c>
-      <c r="M306">
-        <v>3.3</v>
-      </c>
       <c r="N306">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O306">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P306">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q306">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S306">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T306">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U306">
         <v>1.95</v>
       </c>
       <c r="V306">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y306">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA306">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB306">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27779,7 +27779,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7752033</v>
+        <v>7752031</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27791,76 +27791,76 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G307" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J307" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K307">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L307">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M307">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N307">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O307">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P307">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S307">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U307">
         <v>1.95</v>
       </c>
       <c r="V307">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z307">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC307">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27957,7 +27957,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7751905</v>
+        <v>7752034</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27969,46 +27969,46 @@
         <v>45371.04166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K309">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L309">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M309">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N309">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O309">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P309">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q309">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R309">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S309">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T309">
         <v>2.25</v>
@@ -28023,16 +28023,16 @@
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y309">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA309">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB309">
         <v>-0.5</v>
@@ -28046,7 +28046,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7752034</v>
+        <v>7751905</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28058,46 +28058,46 @@
         <v>45371.04166666666</v>
       </c>
       <c r="F310" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K310">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L310">
+        <v>3.25</v>
+      </c>
+      <c r="M310">
+        <v>3.5</v>
+      </c>
+      <c r="N310">
+        <v>1.909</v>
+      </c>
+      <c r="O310">
         <v>3.2</v>
       </c>
-      <c r="M310">
-        <v>3.1</v>
-      </c>
-      <c r="N310">
-        <v>2.3</v>
-      </c>
-      <c r="O310">
-        <v>3</v>
-      </c>
       <c r="P310">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S310">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T310">
         <v>2.25</v>
@@ -28112,16 +28112,16 @@
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB310">
         <v>-0.5</v>
@@ -29025,7 +29025,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7751911</v>
+        <v>7752040</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29037,76 +29037,76 @@
         <v>45375.04166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G321" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K321">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L321">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M321">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N321">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O321">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P321">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R321">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S321">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T321">
         <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y321">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA321">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC321">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29114,7 +29114,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7752040</v>
+        <v>7751911</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29126,76 +29126,76 @@
         <v>45375.04166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322">
         <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K322">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L322">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M322">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N322">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O322">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P322">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q322">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R322">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T322">
         <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V322">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z322">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB322">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC322">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29292,7 +29292,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7751912</v>
+        <v>7752043</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29304,76 +29304,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F324" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G324" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K324">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L324">
         <v>3</v>
       </c>
       <c r="M324">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N324">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O324">
         <v>3</v>
       </c>
       <c r="P324">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q324">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
+        <v>1.925</v>
+      </c>
+      <c r="S324">
+        <v>1.875</v>
+      </c>
+      <c r="T324">
+        <v>2.25</v>
+      </c>
+      <c r="U324">
+        <v>1.975</v>
+      </c>
+      <c r="V324">
         <v>1.825</v>
       </c>
-      <c r="S324">
-        <v>1.975</v>
-      </c>
-      <c r="T324">
-        <v>2</v>
-      </c>
-      <c r="U324">
-        <v>2.025</v>
-      </c>
-      <c r="V324">
-        <v>1.775</v>
-      </c>
       <c r="W324">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X324">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA324">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC324">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29381,7 +29381,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7752041</v>
+        <v>7752042</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29393,16 +29393,16 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F325" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G325" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="s">
         <v>53</v>
@@ -29417,31 +29417,31 @@
         <v>2.2</v>
       </c>
       <c r="N325">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O325">
         <v>3.2</v>
       </c>
       <c r="P325">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q325">
         <v>0.25</v>
       </c>
       <c r="R325">
+        <v>2</v>
+      </c>
+      <c r="S325">
         <v>1.8</v>
-      </c>
-      <c r="S325">
-        <v>2</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V325">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W325">
         <v>-1</v>
@@ -29453,16 +29453,16 @@
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AA325">
         <v>-0.5</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC325">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7752042</v>
+        <v>7752041</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29482,16 +29482,16 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F326" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G326" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" t="s">
         <v>53</v>
@@ -29506,31 +29506,31 @@
         <v>2.2</v>
       </c>
       <c r="N326">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O326">
         <v>3.2</v>
       </c>
       <c r="P326">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q326">
         <v>0.25</v>
       </c>
       <c r="R326">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S326">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V326">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W326">
         <v>-1</v>
@@ -29542,16 +29542,16 @@
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA326">
         <v>-0.5</v>
       </c>
       <c r="AB326">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29559,7 +29559,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7752043</v>
+        <v>7751912</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29571,76 +29571,76 @@
         <v>45375.08333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G327" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H327">
         <v>1</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K327">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L327">
         <v>3</v>
       </c>
       <c r="M327">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N327">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O327">
         <v>3</v>
       </c>
       <c r="P327">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q327">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R327">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S327">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T327">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U327">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V327">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W327">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X327">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y327">
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA327">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC327">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7752051</v>
+        <v>7751915</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,73 +30194,73 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G334" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K334">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L334">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M334">
         <v>3.2</v>
       </c>
       <c r="N334">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O334">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P334">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S334">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T334">
         <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y334">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA334">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB334">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC334">
         <v>-1</v>
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7751915</v>
+        <v>7752051</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,73 +30283,73 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G335" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I335">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J335" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K335">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L335">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M335">
         <v>3.2</v>
       </c>
       <c r="N335">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O335">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P335">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R335">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S335">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T335">
         <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB335">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC335">
         <v>-1</v>
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7751914</v>
+        <v>7752050</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,19 +30461,19 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G337" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
         <v>1</v>
       </c>
-      <c r="I337">
-        <v>0</v>
-      </c>
       <c r="J337" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K337">
         <v>1.909</v>
@@ -30485,52 +30485,52 @@
         <v>3.6</v>
       </c>
       <c r="N337">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O337">
         <v>3.2</v>
       </c>
       <c r="P337">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q337">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S337">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T337">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U337">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V337">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W337">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z337">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB337">
         <v>-1</v>
       </c>
       <c r="AC337">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7752050</v>
+        <v>7751914</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,19 +30550,19 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G338" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K338">
         <v>1.909</v>
@@ -30574,52 +30574,52 @@
         <v>3.6</v>
       </c>
       <c r="N338">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O338">
         <v>3.2</v>
       </c>
       <c r="P338">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q338">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R338">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S338">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T338">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U338">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V338">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W338">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X338">
         <v>-1</v>
       </c>
       <c r="Y338">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA338">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
         <v>-1</v>
       </c>
       <c r="AC338">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Japan J3League/Japan J3League.xlsx
+++ b/Japan J3League/Japan J3League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC357"/>
+  <dimension ref="A1:AC348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6188135</v>
+        <v>6188134</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,10 +1714,10 @@
         <v>45088.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1729,61 +1729,61 @@
         <v>53</v>
       </c>
       <c r="K14">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L14">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6188134</v>
+        <v>6188135</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,10 +1803,10 @@
         <v>45088.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1818,61 +1818,61 @@
         <v>53</v>
       </c>
       <c r="K15">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N15">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6188142</v>
+        <v>6188000</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>45094.25</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R23">
         <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2592,7 +2592,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6188000</v>
+        <v>6188142</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2604,76 +2604,76 @@
         <v>45094.25</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N24">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB24">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6188144</v>
+        <v>6188145</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2871,73 +2871,73 @@
         <v>45095.08333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
+        <v>1.925</v>
+      </c>
+      <c r="T27">
+        <v>2.25</v>
+      </c>
+      <c r="U27">
         <v>1.85</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.875</v>
-      </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -3037,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6188145</v>
+        <v>6188144</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3049,73 +3049,73 @@
         <v>45095.08333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29">
+        <v>2.2</v>
+      </c>
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>2.05</v>
-      </c>
-      <c r="L29">
-        <v>3.1</v>
-      </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
+        <v>2.5</v>
+      </c>
+      <c r="U29">
         <v>1.875</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>2.25</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.95</v>
+      </c>
+      <c r="AB29">
         <v>0.875</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6188011</v>
+        <v>6188012</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,73 +4740,73 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K48">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
+        <v>3.5</v>
+      </c>
+      <c r="N48">
         <v>2.3</v>
       </c>
-      <c r="N48">
-        <v>3.3</v>
-      </c>
       <c r="O48">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6188012</v>
+        <v>6188011</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,73 +4829,73 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K49">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N49">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -5707,7 +5707,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6188015</v>
+        <v>6188016</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5719,49 +5719,49 @@
         <v>45116.25</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>52</v>
       </c>
       <c r="K59">
+        <v>1.7</v>
+      </c>
+      <c r="L59">
+        <v>3.5</v>
+      </c>
+      <c r="M59">
+        <v>4.75</v>
+      </c>
+      <c r="N59">
+        <v>1.571</v>
+      </c>
+      <c r="O59">
+        <v>3.8</v>
+      </c>
+      <c r="P59">
+        <v>5.25</v>
+      </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+      <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.85</v>
       </c>
-      <c r="L59">
-        <v>3.4</v>
-      </c>
-      <c r="M59">
-        <v>3.8</v>
-      </c>
-      <c r="N59">
-        <v>1.75</v>
-      </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>4.333</v>
-      </c>
-      <c r="Q59">
-        <v>-0.75</v>
-      </c>
-      <c r="R59">
-        <v>2</v>
-      </c>
-      <c r="S59">
-        <v>1.8</v>
-      </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
         <v>1.975</v>
@@ -5770,7 +5770,7 @@
         <v>1.825</v>
       </c>
       <c r="W59">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5779,16 +5779,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5796,7 +5796,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6188016</v>
+        <v>6188015</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5808,49 +5808,49 @@
         <v>45116.25</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>52</v>
       </c>
       <c r="K60">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L60">
+        <v>3.4</v>
+      </c>
+      <c r="M60">
+        <v>3.8</v>
+      </c>
+      <c r="N60">
+        <v>1.75</v>
+      </c>
+      <c r="O60">
         <v>3.5</v>
       </c>
-      <c r="M60">
-        <v>4.75</v>
-      </c>
-      <c r="N60">
-        <v>1.571</v>
-      </c>
-      <c r="O60">
-        <v>3.8</v>
-      </c>
       <c r="P60">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
         <v>1.975</v>
@@ -5859,7 +5859,7 @@
         <v>1.825</v>
       </c>
       <c r="W60">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5868,16 +5868,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6188025</v>
+        <v>6188026</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,10 +7766,10 @@
         <v>45136.25</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7781,61 +7781,61 @@
         <v>53</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N82">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O82">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
         <v>1.75</v>
       </c>
-      <c r="S82">
-        <v>2.05</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
-      <c r="U82">
-        <v>1.925</v>
-      </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6188026</v>
+        <v>6188176</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,10 +7855,10 @@
         <v>45136.25</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7873,58 +7873,58 @@
         <v>2.25</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O83">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P83">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>-0</v>
+      </c>
+      <c r="AB83">
         <v>-0.5</v>
       </c>
-      <c r="AA83">
-        <v>0.4</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7932,7 +7932,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6188176</v>
+        <v>6188025</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7944,10 +7944,10 @@
         <v>45136.25</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7959,31 +7959,31 @@
         <v>53</v>
       </c>
       <c r="K84">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O84">
         <v>3.1</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
         <v>2.25</v>
@@ -8021,7 +8021,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6188178</v>
+        <v>6188177</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8033,76 +8033,76 @@
         <v>45136.25</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K85">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8110,7 +8110,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6188177</v>
+        <v>6188178</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8122,76 +8122,76 @@
         <v>45136.25</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z86">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8822,7 +8822,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6188185</v>
+        <v>6188184</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8834,76 +8834,76 @@
         <v>45143.25</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K94">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M94">
         <v>2.875</v>
       </c>
       <c r="N94">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P94">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X94">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6188184</v>
+        <v>6188185</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8923,76 +8923,76 @@
         <v>45143.25</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
         <v>2.875</v>
       </c>
       <c r="N95">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O95">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6188037</v>
+        <v>6188191</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10080,58 +10080,58 @@
         <v>45151.25</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>52</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L108">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N108">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
         <v>1.825</v>
-      </c>
-      <c r="S108">
-        <v>1.975</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10140,13 +10140,13 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10157,7 +10157,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6188191</v>
+        <v>6188037</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10169,58 +10169,58 @@
         <v>45151.25</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>52</v>
       </c>
       <c r="K109">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M109">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="N109">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P109">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
         <v>1.975</v>
-      </c>
-      <c r="S109">
-        <v>1.825</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10229,13 +10229,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6188062</v>
+        <v>6188221</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,76 +15064,76 @@
         <v>45192.25</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>3.1</v>
+      </c>
+      <c r="M164">
+        <v>2.3</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164">
+        <v>3.2</v>
+      </c>
+      <c r="P164">
+        <v>2.25</v>
+      </c>
+      <c r="Q164">
+        <v>0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.75</v>
+      </c>
+      <c r="S164">
         <v>2.05</v>
       </c>
-      <c r="L164">
-        <v>3.2</v>
-      </c>
-      <c r="M164">
-        <v>3.4</v>
-      </c>
-      <c r="N164">
-        <v>2.3</v>
-      </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>2.75</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>2.025</v>
-      </c>
-      <c r="S164">
-        <v>1.775</v>
-      </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
+        <v>1.85</v>
+      </c>
+      <c r="V164">
         <v>1.95</v>
       </c>
-      <c r="V164">
-        <v>1.85</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA164">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15141,7 +15141,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6188221</v>
+        <v>6188062</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15153,76 +15153,76 @@
         <v>45192.25</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
+        <v>3.4</v>
+      </c>
+      <c r="N165">
         <v>2.3</v>
       </c>
-      <c r="N165">
-        <v>3</v>
-      </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
+        <v>1.775</v>
+      </c>
+      <c r="T165">
+        <v>2.75</v>
+      </c>
+      <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
+        <v>1.85</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
         <v>1.75</v>
       </c>
-      <c r="S165">
-        <v>2.05</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>1.85</v>
-      </c>
-      <c r="V165">
-        <v>1.95</v>
-      </c>
-      <c r="W165">
-        <v>2</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
       <c r="Z165">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC165">
-        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6188232</v>
+        <v>6188234</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16844,76 +16844,76 @@
         <v>45207.04166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K184">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L184">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M184">
+        <v>4</v>
+      </c>
+      <c r="N184">
+        <v>2.05</v>
+      </c>
+      <c r="O184">
+        <v>3.25</v>
+      </c>
+      <c r="P184">
+        <v>3.4</v>
+      </c>
+      <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.775</v>
+      </c>
+      <c r="S184">
+        <v>2.025</v>
+      </c>
+      <c r="T184">
         <v>2.5</v>
       </c>
-      <c r="N184">
-        <v>3.2</v>
-      </c>
-      <c r="O184">
-        <v>2.9</v>
-      </c>
-      <c r="P184">
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
+        <v>1.8</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
         <v>2.25</v>
       </c>
-      <c r="Q184">
-        <v>0.25</v>
-      </c>
-      <c r="R184">
-        <v>1.9</v>
-      </c>
-      <c r="S184">
-        <v>1.9</v>
-      </c>
-      <c r="T184">
-        <v>2.25</v>
-      </c>
-      <c r="U184">
-        <v>1.825</v>
-      </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
-      <c r="W184">
-        <v>2.2</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6188234</v>
+        <v>6188232</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16933,76 +16933,76 @@
         <v>45207.04166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K185">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L185">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M185">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P185">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S185">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X185">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA185">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17099,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6188073</v>
+        <v>6188072</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17111,34 +17111,34 @@
         <v>45207.08333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N187">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
         <v>3</v>
@@ -17147,40 +17147,40 @@
         <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6188233</v>
+        <v>6188235</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,40 +17200,40 @@
         <v>45207.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
+        <v>1.909</v>
+      </c>
+      <c r="N188">
         <v>3</v>
       </c>
-      <c r="N188">
-        <v>2.1</v>
-      </c>
       <c r="O188">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
         <v>1.825</v>
@@ -17245,31 +17245,31 @@
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6188235</v>
+        <v>6188233</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,40 +17289,40 @@
         <v>45207.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G189" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
+        <v>3.1</v>
+      </c>
+      <c r="M189">
+        <v>3</v>
+      </c>
+      <c r="N189">
+        <v>2.1</v>
+      </c>
+      <c r="O189">
+        <v>3.1</v>
+      </c>
+      <c r="P189">
         <v>3.2</v>
       </c>
-      <c r="M189">
-        <v>1.909</v>
-      </c>
-      <c r="N189">
-        <v>3</v>
-      </c>
-      <c r="O189">
-        <v>3.2</v>
-      </c>
-      <c r="P189">
-        <v>2.25</v>
-      </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
         <v>1.825</v>
@@ -17334,31 +17334,31 @@
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6188072</v>
+        <v>6188073</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,34 +17378,34 @@
         <v>45207.08333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K190">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L190">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M190">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N190">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O190">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
         <v>3</v>
@@ -17414,40 +17414,40 @@
         <v>-0.25</v>
       </c>
       <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>1.8</v>
+      </c>
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
         <v>1.9</v>
       </c>
-      <c r="S190">
+      <c r="V190">
         <v>1.9</v>
       </c>
-      <c r="T190">
-        <v>2.5</v>
-      </c>
-      <c r="U190">
-        <v>1.975</v>
-      </c>
-      <c r="V190">
-        <v>1.825</v>
-      </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y190">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA190">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6190067</v>
+        <v>6190066</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45213.04166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>53</v>
       </c>
       <c r="K192">
+        <v>1.909</v>
+      </c>
+      <c r="L192">
+        <v>3.25</v>
+      </c>
+      <c r="M192">
+        <v>3.5</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192">
+        <v>3.4</v>
+      </c>
+      <c r="P192">
+        <v>3.1</v>
+      </c>
+      <c r="Q192">
+        <v>-0.5</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
         <v>1.8</v>
       </c>
-      <c r="L192">
-        <v>3.2</v>
-      </c>
-      <c r="M192">
-        <v>4</v>
-      </c>
-      <c r="N192">
-        <v>2.05</v>
-      </c>
-      <c r="O192">
-        <v>3.1</v>
-      </c>
-      <c r="P192">
-        <v>3.4</v>
-      </c>
-      <c r="Q192">
-        <v>-0.25</v>
-      </c>
-      <c r="R192">
-        <v>1.775</v>
-      </c>
-      <c r="S192">
-        <v>2.025</v>
-      </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB192">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC192">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17633,7 +17633,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6190066</v>
+        <v>6190067</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17645,76 +17645,76 @@
         <v>45213.04166666666</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>53</v>
       </c>
       <c r="K193">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O193">
+        <v>3.1</v>
+      </c>
+      <c r="P193">
         <v>3.4</v>
       </c>
-      <c r="P193">
-        <v>3.1</v>
-      </c>
       <c r="Q193">
+        <v>-0.25</v>
+      </c>
+      <c r="R193">
+        <v>1.775</v>
+      </c>
+      <c r="S193">
+        <v>2.025</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>1.825</v>
+      </c>
+      <c r="V193">
+        <v>1.975</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>2.1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
         <v>-0.5</v>
       </c>
-      <c r="R193">
-        <v>2</v>
-      </c>
-      <c r="S193">
-        <v>1.8</v>
-      </c>
-      <c r="T193">
-        <v>2.5</v>
-      </c>
-      <c r="U193">
-        <v>1.8</v>
-      </c>
-      <c r="V193">
-        <v>2</v>
-      </c>
-      <c r="W193">
-        <v>-1</v>
-      </c>
-      <c r="X193">
-        <v>2.4</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>-1</v>
-      </c>
       <c r="AA193">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB193">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -23151,7 +23151,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6194447</v>
+        <v>6194449</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23163,55 +23163,55 @@
         <v>45256.04166666666</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J255" t="s">
         <v>51</v>
       </c>
       <c r="K255">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M255">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N255">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O255">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P255">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q255">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R255">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S255">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -23220,16 +23220,16 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
+        <v>1</v>
+      </c>
+      <c r="AB255">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB255">
-        <v>0.875</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -23329,7 +23329,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6194449</v>
+        <v>6194447</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23341,55 +23341,55 @@
         <v>45256.04166666666</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
         <v>51</v>
       </c>
       <c r="K257">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L257">
+        <v>3</v>
+      </c>
+      <c r="M257">
         <v>3.1</v>
       </c>
-      <c r="M257">
-        <v>2</v>
-      </c>
       <c r="N257">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O257">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P257">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q257">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R257">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T257">
         <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23398,16 +23398,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB257">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC257">
         <v>-1</v>
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6195254</v>
+        <v>6195256</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,46 +23786,46 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G262" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
         <v>53</v>
       </c>
       <c r="K262">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L262">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M262">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N262">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O262">
         <v>3.5</v>
       </c>
       <c r="P262">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S262">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T262">
         <v>2.75</v>
@@ -23846,16 +23846,16 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC262">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6195258</v>
+        <v>6195254</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,76 +23875,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G263" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K263">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M263">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N263">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O263">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P263">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S263">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T263">
         <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y263">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA263">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB263">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6195256</v>
+        <v>6195260</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,40 +23964,40 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L264">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M264">
+        <v>2.1</v>
+      </c>
+      <c r="N264">
         <v>3.1</v>
       </c>
-      <c r="N264">
-        <v>1.909</v>
-      </c>
       <c r="O264">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P264">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
         <v>1.925</v>
@@ -24009,19 +24009,19 @@
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z264">
         <v>-1</v>
@@ -24030,10 +24030,10 @@
         <v>0.875</v>
       </c>
       <c r="AB264">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6195260</v>
+        <v>6195258</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24053,46 +24053,46 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G265" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J265" t="s">
         <v>51</v>
       </c>
       <c r="K265">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L265">
         <v>3.3</v>
       </c>
       <c r="M265">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N265">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O265">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P265">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q265">
         <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T265">
         <v>2.75</v>
@@ -24110,19 +24110,19 @@
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="Z265">
         <v>-1</v>
       </c>
       <c r="AA265">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB265">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24219,7 +24219,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6195253</v>
+        <v>6195255</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24231,76 +24231,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G267" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
         <v>1</v>
       </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
       <c r="J267" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K267">
         <v>2</v>
       </c>
       <c r="L267">
+        <v>3.3</v>
+      </c>
+      <c r="M267">
         <v>3.25</v>
       </c>
-      <c r="M267">
-        <v>3.3</v>
-      </c>
       <c r="N267">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O267">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P267">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q267">
         <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S267">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V267">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z267">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24308,7 +24308,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6195261</v>
+        <v>6195253</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24320,67 +24320,67 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G268" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H268">
         <v>1</v>
       </c>
       <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268" t="s">
+        <v>52</v>
+      </c>
+      <c r="K268">
+        <v>2</v>
+      </c>
+      <c r="L268">
+        <v>3.25</v>
+      </c>
+      <c r="M268">
+        <v>3.3</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268">
+        <v>3.3</v>
+      </c>
+      <c r="P268">
+        <v>3.5</v>
+      </c>
+      <c r="Q268">
+        <v>-0.25</v>
+      </c>
+      <c r="R268">
+        <v>1.775</v>
+      </c>
+      <c r="S268">
+        <v>2.025</v>
+      </c>
+      <c r="T268">
+        <v>2.5</v>
+      </c>
+      <c r="U268">
+        <v>1.825</v>
+      </c>
+      <c r="V268">
+        <v>1.975</v>
+      </c>
+      <c r="W268">
         <v>1</v>
       </c>
-      <c r="J268" t="s">
-        <v>53</v>
-      </c>
-      <c r="K268">
-        <v>3</v>
-      </c>
-      <c r="L268">
-        <v>3.4</v>
-      </c>
-      <c r="M268">
-        <v>2.05</v>
-      </c>
-      <c r="N268">
-        <v>3.6</v>
-      </c>
-      <c r="O268">
-        <v>3.4</v>
-      </c>
-      <c r="P268">
-        <v>1.909</v>
-      </c>
-      <c r="Q268">
-        <v>0.5</v>
-      </c>
-      <c r="R268">
-        <v>1.85</v>
-      </c>
-      <c r="S268">
-        <v>1.95</v>
-      </c>
-      <c r="T268">
-        <v>2.75</v>
-      </c>
-      <c r="U268">
-        <v>1.975</v>
-      </c>
-      <c r="V268">
-        <v>1.825</v>
-      </c>
-      <c r="W268">
-        <v>-1</v>
-      </c>
       <c r="X268">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA268">
         <v>-1</v>
@@ -24389,7 +24389,7 @@
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24397,7 +24397,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6195255</v>
+        <v>6195257</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24409,76 +24409,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K269">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L269">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M269">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="N269">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O269">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P269">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R269">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S269">
+        <v>1.75</v>
+      </c>
+      <c r="T269">
+        <v>2.75</v>
+      </c>
+      <c r="U269">
+        <v>1.75</v>
+      </c>
+      <c r="V269">
         <v>1.95</v>
       </c>
-      <c r="T269">
-        <v>2.5</v>
-      </c>
-      <c r="U269">
-        <v>1.9</v>
-      </c>
-      <c r="V269">
-        <v>1.9</v>
-      </c>
       <c r="W269">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA269">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC269">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24486,7 +24486,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6195257</v>
+        <v>6195259</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24498,76 +24498,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G270" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K270">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L270">
+        <v>3.4</v>
+      </c>
+      <c r="M270">
+        <v>3.4</v>
+      </c>
+      <c r="N270">
+        <v>1.65</v>
+      </c>
+      <c r="O270">
         <v>3.75</v>
       </c>
-      <c r="M270">
-        <v>4.75</v>
-      </c>
-      <c r="N270">
-        <v>1.5</v>
-      </c>
-      <c r="O270">
-        <v>4.2</v>
-      </c>
       <c r="P270">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q270">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S270">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T270">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V270">
         <v>1.95</v>
       </c>
       <c r="W270">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z270">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB270">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24575,7 +24575,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6195259</v>
+        <v>6195261</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24587,76 +24587,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271">
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K271">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L271">
         <v>3.4</v>
       </c>
       <c r="M271">
+        <v>2.05</v>
+      </c>
+      <c r="N271">
+        <v>3.6</v>
+      </c>
+      <c r="O271">
         <v>3.4</v>
       </c>
-      <c r="N271">
-        <v>1.65</v>
-      </c>
-      <c r="O271">
-        <v>3.75</v>
-      </c>
       <c r="P271">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q271">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
+        <v>1.85</v>
+      </c>
+      <c r="S271">
+        <v>1.95</v>
+      </c>
+      <c r="T271">
+        <v>2.75</v>
+      </c>
+      <c r="U271">
+        <v>1.975</v>
+      </c>
+      <c r="V271">
         <v>1.825</v>
       </c>
-      <c r="S271">
-        <v>1.975</v>
-      </c>
-      <c r="T271">
-        <v>2.5</v>
-      </c>
-      <c r="U271">
-        <v>1.85</v>
-      </c>
-      <c r="V271">
-        <v>1.95</v>
-      </c>
       <c r="W271">
         <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y271">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA271">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
         <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24753,7 +24753,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7635644</v>
+        <v>7635881</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24765,76 +24765,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G273" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H273">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I273">
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K273">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L273">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M273">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N273">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O273">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P273">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q273">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R273">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S273">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U273">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V273">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W273">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z273">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB273">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24842,7 +24842,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7635881</v>
+        <v>7635644</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24854,76 +24854,76 @@
         <v>45346.08333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G274" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I274">
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L274">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M274">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N274">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O274">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P274">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q274">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R274">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S274">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T274">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V274">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA274">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC274">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25554,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7752020</v>
+        <v>7752021</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25566,13 +25566,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -25581,43 +25581,43 @@
         <v>52</v>
       </c>
       <c r="K282">
+        <v>2.3</v>
+      </c>
+      <c r="L282">
+        <v>3.25</v>
+      </c>
+      <c r="M282">
+        <v>2.7</v>
+      </c>
+      <c r="N282">
+        <v>2.1</v>
+      </c>
+      <c r="O282">
+        <v>3.25</v>
+      </c>
+      <c r="P282">
+        <v>3</v>
+      </c>
+      <c r="Q282">
+        <v>-0.25</v>
+      </c>
+      <c r="R282">
+        <v>1.9</v>
+      </c>
+      <c r="S282">
+        <v>1.9</v>
+      </c>
+      <c r="T282">
         <v>2.5</v>
       </c>
-      <c r="L282">
-        <v>3.2</v>
-      </c>
-      <c r="M282">
-        <v>2.5</v>
-      </c>
-      <c r="N282">
-        <v>2.45</v>
-      </c>
-      <c r="O282">
-        <v>3.1</v>
-      </c>
-      <c r="P282">
-        <v>2.625</v>
-      </c>
-      <c r="Q282">
-        <v>0</v>
-      </c>
-      <c r="R282">
-        <v>1.85</v>
-      </c>
-      <c r="S282">
-        <v>1.95</v>
-      </c>
-      <c r="T282">
-        <v>2</v>
-      </c>
       <c r="U282">
+        <v>1.975</v>
+      </c>
+      <c r="V282">
         <v>1.825</v>
       </c>
-      <c r="V282">
-        <v>1.975</v>
-      </c>
       <c r="W282">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25626,16 +25626,16 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA282">
         <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC282">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25643,7 +25643,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7752021</v>
+        <v>7752022</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25655,76 +25655,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G283" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I283">
         <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K283">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L283">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M283">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N283">
+        <v>3.4</v>
+      </c>
+      <c r="O283">
+        <v>2.9</v>
+      </c>
+      <c r="P283">
         <v>2.1</v>
       </c>
-      <c r="O283">
-        <v>3.25</v>
-      </c>
-      <c r="P283">
-        <v>3</v>
-      </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
+        <v>1.975</v>
+      </c>
+      <c r="S283">
+        <v>1.825</v>
+      </c>
+      <c r="T283">
+        <v>2</v>
+      </c>
+      <c r="U283">
+        <v>1.725</v>
+      </c>
+      <c r="V283">
+        <v>1.975</v>
+      </c>
+      <c r="W283">
+        <v>-1</v>
+      </c>
+      <c r="X283">
         <v>1.9</v>
       </c>
-      <c r="S283">
-        <v>1.9</v>
-      </c>
-      <c r="T283">
-        <v>2.5</v>
-      </c>
-      <c r="U283">
-        <v>1.975</v>
-      </c>
-      <c r="V283">
-        <v>1.825</v>
-      </c>
-      <c r="W283">
-        <v>1.1</v>
-      </c>
-      <c r="X283">
-        <v>-1</v>
-      </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC283">
-        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25732,7 +25732,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7752022</v>
+        <v>7752020</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25744,70 +25744,70 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G284" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284">
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L284">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M284">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N284">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O284">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P284">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q284">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R284">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S284">
+        <v>1.95</v>
+      </c>
+      <c r="T284">
+        <v>2</v>
+      </c>
+      <c r="U284">
         <v>1.825</v>
-      </c>
-      <c r="T284">
-        <v>2</v>
-      </c>
-      <c r="U284">
-        <v>1.725</v>
       </c>
       <c r="V284">
         <v>1.975</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X284">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA284">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
         <v>-1</v>
@@ -26444,7 +26444,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7751895</v>
+        <v>7751896</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26456,76 +26456,76 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G292" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J292" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K292">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L292">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M292">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N292">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O292">
         <v>3</v>
       </c>
       <c r="P292">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R292">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T292">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V292">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z292">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB292">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26533,7 +26533,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7751896</v>
+        <v>7751895</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26545,76 +26545,76 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G293" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K293">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L293">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M293">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N293">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O293">
         <v>3</v>
       </c>
       <c r="P293">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S293">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T293">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U293">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V293">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y293">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA293">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB293">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26622,7 +26622,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7752024</v>
+        <v>7752025</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26634,10 +26634,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G294" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -26649,61 +26649,61 @@
         <v>53</v>
       </c>
       <c r="K294">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>3.75</v>
+      </c>
+      <c r="N294">
+        <v>2.25</v>
+      </c>
+      <c r="O294">
+        <v>3</v>
+      </c>
+      <c r="P294">
         <v>3.25</v>
       </c>
-      <c r="M294">
-        <v>4.75</v>
-      </c>
-      <c r="N294">
-        <v>1.5</v>
-      </c>
-      <c r="O294">
-        <v>3.8</v>
-      </c>
-      <c r="P294">
-        <v>6.5</v>
-      </c>
       <c r="Q294">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
+        <v>2</v>
+      </c>
+      <c r="S294">
         <v>1.8</v>
       </c>
-      <c r="S294">
-        <v>2</v>
-      </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U294">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V294">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA294">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB294">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC294">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26711,7 +26711,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7752025</v>
+        <v>7752024</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26723,10 +26723,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G295" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26738,61 +26738,61 @@
         <v>53</v>
       </c>
       <c r="K295">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L295">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M295">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N295">
+        <v>1.5</v>
+      </c>
+      <c r="O295">
+        <v>3.8</v>
+      </c>
+      <c r="P295">
+        <v>6.5</v>
+      </c>
+      <c r="Q295">
+        <v>-1</v>
+      </c>
+      <c r="R295">
+        <v>1.8</v>
+      </c>
+      <c r="S295">
+        <v>2</v>
+      </c>
+      <c r="T295">
         <v>2.25</v>
       </c>
-      <c r="O295">
-        <v>3</v>
-      </c>
-      <c r="P295">
-        <v>3.25</v>
-      </c>
-      <c r="Q295">
-        <v>-0.25</v>
-      </c>
-      <c r="R295">
-        <v>2</v>
-      </c>
-      <c r="S295">
+      <c r="U295">
         <v>1.8</v>
       </c>
-      <c r="T295">
-        <v>2</v>
-      </c>
-      <c r="U295">
-        <v>1.825</v>
-      </c>
       <c r="V295">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
+        <v>1</v>
+      </c>
+      <c r="AB295">
         <v>-0.5</v>
       </c>
-      <c r="AA295">
-        <v>0.4</v>
-      </c>
-      <c r="AB295">
-        <v>0</v>
-      </c>
       <c r="AC295">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27245,7 +27245,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7751901</v>
+        <v>7751903</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27257,13 +27257,13 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G301" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -27272,31 +27272,31 @@
         <v>52</v>
       </c>
       <c r="K301">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L301">
         <v>3.6</v>
       </c>
       <c r="M301">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="N301">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O301">
         <v>3.4</v>
       </c>
       <c r="P301">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q301">
         <v>-0.5</v>
       </c>
       <c r="R301">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S301">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T301">
         <v>2.25</v>
@@ -27308,7 +27308,7 @@
         <v>1.95</v>
       </c>
       <c r="W301">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X301">
         <v>-1</v>
@@ -27317,16 +27317,16 @@
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA301">
         <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27423,7 +27423,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7751903</v>
+        <v>7751901</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27435,13 +27435,13 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G303" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303">
         <v>0</v>
@@ -27450,31 +27450,31 @@
         <v>52</v>
       </c>
       <c r="K303">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L303">
         <v>3.6</v>
       </c>
       <c r="M303">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="N303">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O303">
         <v>3.4</v>
       </c>
       <c r="P303">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q303">
         <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S303">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
         <v>2.25</v>
@@ -27486,7 +27486,7 @@
         <v>1.95</v>
       </c>
       <c r="W303">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X303">
         <v>-1</v>
@@ -27495,16 +27495,16 @@
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA303">
         <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC303">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27779,7 +27779,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7752031</v>
+        <v>7752033</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27791,76 +27791,76 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307" t="s">
+        <v>53</v>
+      </c>
+      <c r="K307">
+        <v>2.2</v>
+      </c>
+      <c r="L307">
+        <v>3.1</v>
+      </c>
+      <c r="M307">
         <v>3</v>
       </c>
-      <c r="J307" t="s">
-        <v>51</v>
-      </c>
-      <c r="K307">
-        <v>1.95</v>
-      </c>
-      <c r="L307">
-        <v>3.3</v>
-      </c>
-      <c r="M307">
-        <v>3.3</v>
-      </c>
       <c r="N307">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O307">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P307">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
         <v>1.95</v>
       </c>
       <c r="V307">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y307">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA307">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB307">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7752033</v>
+        <v>7752031</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F308" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J308" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L308">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M308">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N308">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O308">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P308">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S308">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
         <v>1.95</v>
       </c>
       <c r="V308">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z308">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -30182,7 +30182,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7751914</v>
+        <v>7751915</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30194,76 +30194,76 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G334" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J334" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K334">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L334">
         <v>3.2</v>
       </c>
       <c r="M334">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N334">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O334">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P334">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S334">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T334">
         <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W334">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC334">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30271,7 +30271,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7751915</v>
+        <v>7752051</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30283,73 +30283,73 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G335" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I335">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J335" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K335">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L335">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M335">
         <v>3.2</v>
       </c>
       <c r="N335">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O335">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P335">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R335">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S335">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T335">
         <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB335">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC335">
         <v>-1</v>
@@ -30360,7 +30360,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7752051</v>
+        <v>7751914</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30372,46 +30372,46 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G336" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H336">
         <v>1</v>
       </c>
       <c r="I336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K336">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L336">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M336">
+        <v>3.6</v>
+      </c>
+      <c r="N336">
+        <v>1.95</v>
+      </c>
+      <c r="O336">
         <v>3.2</v>
       </c>
-      <c r="N336">
-        <v>2.15</v>
-      </c>
-      <c r="O336">
-        <v>3.1</v>
-      </c>
       <c r="P336">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q336">
         <v>-0.25</v>
       </c>
       <c r="R336">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S336">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T336">
         <v>2.25</v>
@@ -30423,25 +30423,25 @@
         <v>1.975</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA336">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30894,7 +30894,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7752054</v>
+        <v>7751919</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30906,58 +30906,58 @@
         <v>45388.08333333334</v>
       </c>
       <c r="F342" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G342" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H342">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
         <v>52</v>
       </c>
       <c r="K342">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="L342">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M342">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N342">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O342">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P342">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q342">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R342">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S342">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T342">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U342">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V342">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W342">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="X342">
         <v>-1</v>
@@ -30966,16 +30966,16 @@
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA342">
         <v>-1</v>
       </c>
       <c r="AB342">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC342">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30983,7 +30983,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7752053</v>
+        <v>7751920</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30995,76 +30995,76 @@
         <v>45388.08333333334</v>
       </c>
       <c r="F343" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G343" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343">
         <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K343">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M343">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N343">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O343">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P343">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q343">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R343">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S343">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T343">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U343">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V343">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X343">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
-        <v>0.3875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA343">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC343">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31072,7 +31072,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7752055</v>
+        <v>7752053</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31084,76 +31084,76 @@
         <v>45388.08333333334</v>
       </c>
       <c r="F344" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G344" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H344">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I344">
         <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K344">
+        <v>3.2</v>
+      </c>
+      <c r="L344">
+        <v>3</v>
+      </c>
+      <c r="M344">
         <v>2.2</v>
       </c>
-      <c r="L344">
-        <v>3.6</v>
-      </c>
-      <c r="M344">
-        <v>2.6</v>
-      </c>
       <c r="N344">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O344">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P344">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q344">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S344">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U344">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W344">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB344">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31161,7 +31161,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7751920</v>
+        <v>7752054</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31173,13 +31173,13 @@
         <v>45388.08333333334</v>
       </c>
       <c r="F345" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G345" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I345">
         <v>1</v>
@@ -31188,43 +31188,43 @@
         <v>52</v>
       </c>
       <c r="K345">
-        <v>3.8</v>
+        <v>2.65</v>
       </c>
       <c r="L345">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M345">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N345">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O345">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P345">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q345">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R345">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S345">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T345">
         <v>2.25</v>
       </c>
       <c r="U345">
+        <v>1.825</v>
+      </c>
+      <c r="V345">
         <v>1.975</v>
       </c>
-      <c r="V345">
-        <v>1.825</v>
-      </c>
       <c r="W345">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="X345">
         <v>-1</v>
@@ -31233,13 +31233,13 @@
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0.7250000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -31250,7 +31250,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7751919</v>
+        <v>7752055</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31262,58 +31262,58 @@
         <v>45388.08333333334</v>
       </c>
       <c r="F346" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G346" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H346">
+        <v>4</v>
+      </c>
+      <c r="I346">
         <v>1</v>
-      </c>
-      <c r="I346">
-        <v>0</v>
       </c>
       <c r="J346" t="s">
         <v>52</v>
       </c>
       <c r="K346">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L346">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M346">
         <v>2.6</v>
       </c>
       <c r="N346">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O346">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P346">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q346">
         <v>-0.25</v>
       </c>
       <c r="R346">
+        <v>1.8</v>
+      </c>
+      <c r="S346">
+        <v>2</v>
+      </c>
+      <c r="T346">
+        <v>2.25</v>
+      </c>
+      <c r="U346">
+        <v>1.825</v>
+      </c>
+      <c r="V346">
         <v>1.975</v>
       </c>
-      <c r="S346">
-        <v>1.825</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
-      </c>
-      <c r="U346">
-        <v>1.8</v>
-      </c>
-      <c r="V346">
-        <v>2</v>
-      </c>
       <c r="W346">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X346">
         <v>-1</v>
@@ -31322,16 +31322,16 @@
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC346">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31510,672 +31510,6 @@
       </c>
       <c r="AC348">
         <v>0.475</v>
-      </c>
-    </row>
-    <row r="349" spans="1:29">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349">
-        <v>7751921</v>
-      </c>
-      <c r="C349" t="s">
-        <v>28</v>
-      </c>
-      <c r="D349" t="s">
-        <v>28</v>
-      </c>
-      <c r="E349" s="2">
-        <v>45392.25</v>
-      </c>
-      <c r="F349" t="s">
-        <v>33</v>
-      </c>
-      <c r="G349" t="s">
-        <v>32</v>
-      </c>
-      <c r="K349">
-        <v>2.9</v>
-      </c>
-      <c r="L349">
-        <v>2.9</v>
-      </c>
-      <c r="M349">
-        <v>2.35</v>
-      </c>
-      <c r="N349">
-        <v>3.2</v>
-      </c>
-      <c r="O349">
-        <v>3</v>
-      </c>
-      <c r="P349">
-        <v>2.15</v>
-      </c>
-      <c r="Q349">
-        <v>0.25</v>
-      </c>
-      <c r="R349">
-        <v>1.85</v>
-      </c>
-      <c r="S349">
-        <v>1.95</v>
-      </c>
-      <c r="T349">
-        <v>2.25</v>
-      </c>
-      <c r="U349">
-        <v>1.95</v>
-      </c>
-      <c r="V349">
-        <v>1.85</v>
-      </c>
-      <c r="W349">
-        <v>0</v>
-      </c>
-      <c r="X349">
-        <v>0</v>
-      </c>
-      <c r="Y349">
-        <v>0</v>
-      </c>
-      <c r="Z349">
-        <v>0</v>
-      </c>
-      <c r="AA349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:29">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350">
-        <v>7752062</v>
-      </c>
-      <c r="C350" t="s">
-        <v>28</v>
-      </c>
-      <c r="D350" t="s">
-        <v>28</v>
-      </c>
-      <c r="E350" s="2">
-        <v>45392.29166666666</v>
-      </c>
-      <c r="F350" t="s">
-        <v>48</v>
-      </c>
-      <c r="G350" t="s">
-        <v>37</v>
-      </c>
-      <c r="K350">
-        <v>2</v>
-      </c>
-      <c r="L350">
-        <v>3.2</v>
-      </c>
-      <c r="M350">
-        <v>3.3</v>
-      </c>
-      <c r="N350">
-        <v>1.85</v>
-      </c>
-      <c r="O350">
-        <v>3.25</v>
-      </c>
-      <c r="P350">
-        <v>3.75</v>
-      </c>
-      <c r="Q350">
-        <v>-0.5</v>
-      </c>
-      <c r="R350">
-        <v>1.975</v>
-      </c>
-      <c r="S350">
-        <v>1.825</v>
-      </c>
-      <c r="T350">
-        <v>2.25</v>
-      </c>
-      <c r="U350">
-        <v>1.85</v>
-      </c>
-      <c r="V350">
-        <v>1.95</v>
-      </c>
-      <c r="W350">
-        <v>0</v>
-      </c>
-      <c r="X350">
-        <v>0</v>
-      </c>
-      <c r="Y350">
-        <v>0</v>
-      </c>
-      <c r="Z350">
-        <v>0</v>
-      </c>
-      <c r="AA350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:29">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351">
-        <v>7752061</v>
-      </c>
-      <c r="C351" t="s">
-        <v>28</v>
-      </c>
-      <c r="D351" t="s">
-        <v>28</v>
-      </c>
-      <c r="E351" s="2">
-        <v>45392.29166666666</v>
-      </c>
-      <c r="F351" t="s">
-        <v>41</v>
-      </c>
-      <c r="G351" t="s">
-        <v>43</v>
-      </c>
-      <c r="K351">
-        <v>1.8</v>
-      </c>
-      <c r="L351">
-        <v>3.25</v>
-      </c>
-      <c r="M351">
-        <v>4</v>
-      </c>
-      <c r="N351">
-        <v>2.05</v>
-      </c>
-      <c r="O351">
-        <v>3.1</v>
-      </c>
-      <c r="P351">
-        <v>3.4</v>
-      </c>
-      <c r="Q351">
-        <v>-0.25</v>
-      </c>
-      <c r="R351">
-        <v>1.8</v>
-      </c>
-      <c r="S351">
-        <v>2</v>
-      </c>
-      <c r="T351">
-        <v>2.25</v>
-      </c>
-      <c r="U351">
-        <v>1.975</v>
-      </c>
-      <c r="V351">
-        <v>1.825</v>
-      </c>
-      <c r="W351">
-        <v>0</v>
-      </c>
-      <c r="X351">
-        <v>0</v>
-      </c>
-      <c r="Y351">
-        <v>0</v>
-      </c>
-      <c r="Z351">
-        <v>0</v>
-      </c>
-      <c r="AA351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:29">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352">
-        <v>7751922</v>
-      </c>
-      <c r="C352" t="s">
-        <v>28</v>
-      </c>
-      <c r="D352" t="s">
-        <v>28</v>
-      </c>
-      <c r="E352" s="2">
-        <v>45392.29166666666</v>
-      </c>
-      <c r="F352" t="s">
-        <v>35</v>
-      </c>
-      <c r="G352" t="s">
-        <v>38</v>
-      </c>
-      <c r="K352">
-        <v>2.15</v>
-      </c>
-      <c r="L352">
-        <v>3.1</v>
-      </c>
-      <c r="M352">
-        <v>3.1</v>
-      </c>
-      <c r="N352">
-        <v>2.15</v>
-      </c>
-      <c r="O352">
-        <v>3.1</v>
-      </c>
-      <c r="P352">
-        <v>3.1</v>
-      </c>
-      <c r="Q352">
-        <v>-0.25</v>
-      </c>
-      <c r="R352">
-        <v>1.9</v>
-      </c>
-      <c r="S352">
-        <v>1.9</v>
-      </c>
-      <c r="T352">
-        <v>2</v>
-      </c>
-      <c r="U352">
-        <v>1.85</v>
-      </c>
-      <c r="V352">
-        <v>1.95</v>
-      </c>
-      <c r="W352">
-        <v>0</v>
-      </c>
-      <c r="X352">
-        <v>0</v>
-      </c>
-      <c r="Y352">
-        <v>0</v>
-      </c>
-      <c r="Z352">
-        <v>0</v>
-      </c>
-      <c r="AA352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:27">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="B353">
-        <v>7752059</v>
-      </c>
-      <c r="C353" t="s">
-        <v>28</v>
-      </c>
-      <c r="D353" t="s">
-        <v>28</v>
-      </c>
-      <c r="E353" s="2">
-        <v>45392.29166666666</v>
-      </c>
-      <c r="F353" t="s">
-        <v>39</v>
-      </c>
-      <c r="G353" t="s">
-        <v>49</v>
-      </c>
-      <c r="K353">
-        <v>4.2</v>
-      </c>
-      <c r="L353">
-        <v>3.4</v>
-      </c>
-      <c r="M353">
-        <v>1.727</v>
-      </c>
-      <c r="N353">
-        <v>4.333</v>
-      </c>
-      <c r="O353">
-        <v>3.5</v>
-      </c>
-      <c r="P353">
-        <v>1.666</v>
-      </c>
-      <c r="Q353">
-        <v>0.75</v>
-      </c>
-      <c r="R353">
-        <v>1.875</v>
-      </c>
-      <c r="S353">
-        <v>1.925</v>
-      </c>
-      <c r="T353">
-        <v>2.25</v>
-      </c>
-      <c r="U353">
-        <v>1.8</v>
-      </c>
-      <c r="V353">
-        <v>2</v>
-      </c>
-      <c r="W353">
-        <v>0</v>
-      </c>
-      <c r="X353">
-        <v>0</v>
-      </c>
-      <c r="Y353">
-        <v>0</v>
-      </c>
-      <c r="Z353">
-        <v>0</v>
-      </c>
-      <c r="AA353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354">
-        <v>7752058</v>
-      </c>
-      <c r="C354" t="s">
-        <v>28</v>
-      </c>
-      <c r="D354" t="s">
-        <v>28</v>
-      </c>
-      <c r="E354" s="2">
-        <v>45392.29166666666</v>
-      </c>
-      <c r="F354" t="s">
-        <v>29</v>
-      </c>
-      <c r="G354" t="s">
-        <v>50</v>
-      </c>
-      <c r="K354">
-        <v>2.9</v>
-      </c>
-      <c r="L354">
-        <v>3.2</v>
-      </c>
-      <c r="M354">
-        <v>2.2</v>
-      </c>
-      <c r="N354">
-        <v>2.875</v>
-      </c>
-      <c r="O354">
-        <v>3.2</v>
-      </c>
-      <c r="P354">
-        <v>2.25</v>
-      </c>
-      <c r="Q354">
-        <v>0.25</v>
-      </c>
-      <c r="R354">
-        <v>1.825</v>
-      </c>
-      <c r="S354">
-        <v>1.975</v>
-      </c>
-      <c r="T354">
-        <v>2.25</v>
-      </c>
-      <c r="U354">
-        <v>1.8</v>
-      </c>
-      <c r="V354">
-        <v>2</v>
-      </c>
-      <c r="W354">
-        <v>0</v>
-      </c>
-      <c r="X354">
-        <v>0</v>
-      </c>
-      <c r="Y354">
-        <v>0</v>
-      </c>
-      <c r="Z354">
-        <v>0</v>
-      </c>
-      <c r="AA354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355">
-        <v>7751924</v>
-      </c>
-      <c r="C355" t="s">
-        <v>28</v>
-      </c>
-      <c r="D355" t="s">
-        <v>28</v>
-      </c>
-      <c r="E355" s="2">
-        <v>45392.29166666666</v>
-      </c>
-      <c r="F355" t="s">
-        <v>46</v>
-      </c>
-      <c r="G355" t="s">
-        <v>45</v>
-      </c>
-      <c r="K355">
-        <v>4.2</v>
-      </c>
-      <c r="L355">
-        <v>3.4</v>
-      </c>
-      <c r="M355">
-        <v>1.727</v>
-      </c>
-      <c r="N355">
-        <v>4.333</v>
-      </c>
-      <c r="O355">
-        <v>3.4</v>
-      </c>
-      <c r="P355">
-        <v>1.7</v>
-      </c>
-      <c r="Q355">
-        <v>0.75</v>
-      </c>
-      <c r="R355">
-        <v>1.85</v>
-      </c>
-      <c r="S355">
-        <v>1.95</v>
-      </c>
-      <c r="T355">
-        <v>2.25</v>
-      </c>
-      <c r="U355">
-        <v>1.825</v>
-      </c>
-      <c r="V355">
-        <v>1.975</v>
-      </c>
-      <c r="W355">
-        <v>0</v>
-      </c>
-      <c r="X355">
-        <v>0</v>
-      </c>
-      <c r="Y355">
-        <v>0</v>
-      </c>
-      <c r="Z355">
-        <v>0</v>
-      </c>
-      <c r="AA355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356">
-        <v>7751923</v>
-      </c>
-      <c r="C356" t="s">
-        <v>28</v>
-      </c>
-      <c r="D356" t="s">
-        <v>28</v>
-      </c>
-      <c r="E356" s="2">
-        <v>45392.29166666666</v>
-      </c>
-      <c r="F356" t="s">
-        <v>30</v>
-      </c>
-      <c r="G356" t="s">
-        <v>34</v>
-      </c>
-      <c r="K356">
-        <v>2.25</v>
-      </c>
-      <c r="L356">
-        <v>3</v>
-      </c>
-      <c r="M356">
-        <v>3</v>
-      </c>
-      <c r="N356">
-        <v>2.25</v>
-      </c>
-      <c r="O356">
-        <v>3</v>
-      </c>
-      <c r="P356">
-        <v>3</v>
-      </c>
-      <c r="Q356">
-        <v>-0.25</v>
-      </c>
-      <c r="R356">
-        <v>2</v>
-      </c>
-      <c r="S356">
-        <v>1.8</v>
-      </c>
-      <c r="T356">
-        <v>2.25</v>
-      </c>
-      <c r="U356">
-        <v>2</v>
-      </c>
-      <c r="V356">
-        <v>1.8</v>
-      </c>
-      <c r="W356">
-        <v>0</v>
-      </c>
-      <c r="X356">
-        <v>0</v>
-      </c>
-      <c r="Y356">
-        <v>0</v>
-      </c>
-      <c r="Z356">
-        <v>0</v>
-      </c>
-      <c r="AA356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357">
-        <v>7752060</v>
-      </c>
-      <c r="C357" t="s">
-        <v>28</v>
-      </c>
-      <c r="D357" t="s">
-        <v>28</v>
-      </c>
-      <c r="E357" s="2">
-        <v>45392.29166666666</v>
-      </c>
-      <c r="F357" t="s">
-        <v>44</v>
-      </c>
-      <c r="G357" t="s">
-        <v>36</v>
-      </c>
-      <c r="K357">
-        <v>2.15</v>
-      </c>
-      <c r="L357">
-        <v>3.2</v>
-      </c>
-      <c r="M357">
-        <v>3</v>
-      </c>
-      <c r="N357">
-        <v>1.95</v>
-      </c>
-      <c r="O357">
-        <v>3.2</v>
-      </c>
-      <c r="P357">
-        <v>3.4</v>
-      </c>
-      <c r="Q357">
-        <v>-0.5</v>
-      </c>
-      <c r="R357">
-        <v>2</v>
-      </c>
-      <c r="S357">
-        <v>1.8</v>
-      </c>
-      <c r="T357">
-        <v>2.5</v>
-      </c>
-      <c r="U357">
-        <v>1.975</v>
-      </c>
-      <c r="V357">
-        <v>1.825</v>
-      </c>
-      <c r="W357">
-        <v>0</v>
-      </c>
-      <c r="X357">
-        <v>0</v>
-      </c>
-      <c r="Y357">
-        <v>0</v>
-      </c>
-      <c r="Z357">
-        <v>0</v>
-      </c>
-      <c r="AA357">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Japan J3League/Japan J3League.xlsx
+++ b/Japan J3League/Japan J3League.xlsx
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6188135</v>
+        <v>6188134</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1753,10 +1753,10 @@
         <v>45088.08333333334</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1774,61 +1774,61 @@
         <v>54</v>
       </c>
       <c r="L14">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="M14">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O14">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U14">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V14">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
       </c>
       <c r="AD14">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1836,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6188134</v>
+        <v>6188135</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1845,10 +1845,10 @@
         <v>45088.08333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1866,61 +1866,61 @@
         <v>54</v>
       </c>
       <c r="L15">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O15">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U15">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC15">
         <v>-1</v>
       </c>
       <c r="AD15">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2940,7 +2940,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6188145</v>
+        <v>6188002</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2949,25 +2949,25 @@
         <v>45095.08333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>3</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27">
         <v>2.05</v>
@@ -2979,49 +2979,49 @@
         <v>3.25</v>
       </c>
       <c r="O27">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R27">
         <v>-0.25</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD27">
         <v>-1</v>
@@ -3124,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6188002</v>
+        <v>6188145</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3133,25 +3133,25 @@
         <v>45095.08333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L29">
         <v>2.05</v>
@@ -3163,49 +3163,49 @@
         <v>3.25</v>
       </c>
       <c r="O29">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R29">
         <v>-0.25</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V29">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD29">
         <v>-1</v>
@@ -6160,7 +6160,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6188163</v>
+        <v>6188166</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -6169,64 +6169,64 @@
         <v>45122.25</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="s">
         <v>53</v>
       </c>
       <c r="L62">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="M62">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P62">
         <v>3.1</v>
       </c>
       <c r="Q62">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="R62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U62">
         <v>2.25</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6235,13 +6235,13 @@
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD62">
         <v>-1</v>
@@ -6252,7 +6252,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6188166</v>
+        <v>6188163</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6261,64 +6261,64 @@
         <v>45122.25</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="s">
         <v>53</v>
       </c>
       <c r="L63">
+        <v>2.9</v>
+      </c>
+      <c r="M63">
+        <v>2.9</v>
+      </c>
+      <c r="N63">
         <v>2.375</v>
       </c>
-      <c r="M63">
-        <v>3.1</v>
-      </c>
-      <c r="N63">
-        <v>2.75</v>
-      </c>
       <c r="O63">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P63">
         <v>3.1</v>
       </c>
       <c r="Q63">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U63">
         <v>2.25</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X63">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6327,13 +6327,13 @@
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD63">
         <v>-1</v>
@@ -7172,7 +7172,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6188171</v>
+        <v>6188173</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7181,73 +7181,73 @@
         <v>45129.25</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="M73">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N73">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P73">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="R73">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7256,7 +7256,7 @@
         <v>-1</v>
       </c>
       <c r="AD73">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7264,7 +7264,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6188173</v>
+        <v>6188172</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7273,82 +7273,82 @@
         <v>45129.25</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L74">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="M74">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O74">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="P74">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U74">
         <v>2.25</v>
       </c>
       <c r="V74">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X74">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD74">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7356,7 +7356,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6188172</v>
+        <v>6188171</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7365,16 +7365,16 @@
         <v>45129.25</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7386,61 +7386,61 @@
         <v>54</v>
       </c>
       <c r="L75">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N75">
+        <v>2.2</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
         <v>3.5</v>
       </c>
-      <c r="O75">
-        <v>1.75</v>
-      </c>
-      <c r="P75">
-        <v>3.6</v>
-      </c>
       <c r="Q75">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="R75">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD75">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -8000,7 +8000,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6188025</v>
+        <v>6188178</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -8009,82 +8009,82 @@
         <v>45136.25</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L82">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M82">
+        <v>3.2</v>
+      </c>
+      <c r="N82">
+        <v>2.5</v>
+      </c>
+      <c r="O82">
         <v>3</v>
       </c>
-      <c r="N82">
-        <v>2.75</v>
-      </c>
-      <c r="O82">
-        <v>2.4</v>
-      </c>
       <c r="P82">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q82">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S82">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U82">
         <v>2.25</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD82">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8092,7 +8092,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6188026</v>
+        <v>6188025</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8101,10 +8101,10 @@
         <v>45136.25</v>
       </c>
       <c r="E83" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8122,61 +8122,61 @@
         <v>54</v>
       </c>
       <c r="L83">
+        <v>2.4</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>2.75</v>
+      </c>
+      <c r="O83">
+        <v>2.4</v>
+      </c>
+      <c r="P83">
+        <v>3.1</v>
+      </c>
+      <c r="Q83">
+        <v>2.8</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>1.75</v>
+      </c>
+      <c r="T83">
+        <v>2.05</v>
+      </c>
+      <c r="U83">
         <v>2.25</v>
       </c>
-      <c r="M83">
-        <v>3.4</v>
-      </c>
-      <c r="N83">
-        <v>2.625</v>
-      </c>
-      <c r="O83">
-        <v>2.2</v>
-      </c>
-      <c r="P83">
-        <v>3.5</v>
-      </c>
-      <c r="Q83">
-        <v>2.6</v>
-      </c>
-      <c r="R83">
-        <v>-0.25</v>
-      </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>1.8</v>
-      </c>
-      <c r="U83">
-        <v>2.5</v>
-      </c>
       <c r="V83">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
         <v>-0.5</v>
       </c>
-      <c r="AB83">
-        <v>0.4</v>
-      </c>
-      <c r="AC83">
-        <v>-1</v>
-      </c>
       <c r="AD83">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8368,7 +8368,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6188178</v>
+        <v>6188026</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8377,82 +8377,82 @@
         <v>45136.25</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L86">
+        <v>2.25</v>
+      </c>
+      <c r="M86">
+        <v>3.4</v>
+      </c>
+      <c r="N86">
+        <v>2.625</v>
+      </c>
+      <c r="O86">
+        <v>2.2</v>
+      </c>
+      <c r="P86">
+        <v>3.5</v>
+      </c>
+      <c r="Q86">
+        <v>2.6</v>
+      </c>
+      <c r="R86">
+        <v>-0.25</v>
+      </c>
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>1.8</v>
+      </c>
+      <c r="U86">
         <v>2.5</v>
       </c>
-      <c r="M86">
-        <v>3.2</v>
-      </c>
-      <c r="N86">
+      <c r="V86">
+        <v>1.75</v>
+      </c>
+      <c r="W86">
+        <v>1.95</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
         <v>2.5</v>
       </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>3.2</v>
-      </c>
-      <c r="Q86">
-        <v>2.15</v>
-      </c>
-      <c r="R86">
-        <v>0.25</v>
-      </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
-      <c r="T86">
-        <v>1.925</v>
-      </c>
-      <c r="U86">
-        <v>2.25</v>
-      </c>
-      <c r="V86">
-        <v>1.9</v>
-      </c>
-      <c r="W86">
-        <v>1.9</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
       <c r="Z86">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -9012,7 +9012,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6188184</v>
+        <v>6188185</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9021,82 +9021,82 @@
         <v>45143.25</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L93">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="M93">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N93">
         <v>2.875</v>
       </c>
       <c r="O93">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P93">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q93">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="R93">
         <v>0</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W93">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X93">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9104,7 +9104,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6188185</v>
+        <v>6188184</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9113,82 +9113,82 @@
         <v>45143.25</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L94">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="M94">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N94">
         <v>2.875</v>
       </c>
       <c r="O94">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="P94">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q94">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W94">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y94">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -11220,7 +11220,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6188196</v>
+        <v>6188197</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11229,19 +11229,19 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -11250,43 +11250,43 @@
         <v>53</v>
       </c>
       <c r="L117">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O117">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
         <v>3.1</v>
       </c>
       <c r="Q117">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T117">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="U117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X117">
-        <v>1.375</v>
+        <v>2.6</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -11295,7 +11295,7 @@
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -11304,7 +11304,7 @@
         <v>-1</v>
       </c>
       <c r="AD117">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11312,7 +11312,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6188197</v>
+        <v>6188196</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11321,19 +11321,19 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -11342,43 +11342,43 @@
         <v>53</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P118">
         <v>3.1</v>
       </c>
       <c r="Q118">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="R118">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="U118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X118">
-        <v>2.6</v>
+        <v>1.375</v>
       </c>
       <c r="Y118">
         <v>-1</v>
@@ -11387,7 +11387,7 @@
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -11396,7 +11396,7 @@
         <v>-1</v>
       </c>
       <c r="AD118">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -22536,7 +22536,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6192700</v>
+        <v>6192709</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22545,82 +22545,82 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E240" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G240">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L240">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M240">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N240">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O240">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P240">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S240">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T240">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U240">
         <v>2.25</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X240">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA240">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD240">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22628,7 +22628,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6192709</v>
+        <v>6192700</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22637,82 +22637,82 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241">
         <v>0</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L241">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="M241">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N241">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O241">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q241">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R241">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S241">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T241">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U241">
         <v>2.25</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD241">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22996,7 +22996,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6193057</v>
+        <v>6193056</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23005,64 +23005,64 @@
         <v>45249.04166666666</v>
       </c>
       <c r="E245" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K245" t="s">
         <v>53</v>
       </c>
       <c r="L245">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M245">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
+        <v>4.2</v>
+      </c>
+      <c r="O245">
+        <v>1.85</v>
+      </c>
+      <c r="P245">
+        <v>3.6</v>
+      </c>
+      <c r="Q245">
+        <v>3.2</v>
+      </c>
+      <c r="R245">
+        <v>-0.5</v>
+      </c>
+      <c r="S245">
+        <v>1.875</v>
+      </c>
+      <c r="T245">
+        <v>1.925</v>
+      </c>
+      <c r="U245">
         <v>2.75</v>
       </c>
-      <c r="O245">
-        <v>2.55</v>
-      </c>
-      <c r="P245">
-        <v>3.2</v>
-      </c>
-      <c r="Q245">
-        <v>2.45</v>
-      </c>
-      <c r="R245">
-        <v>0</v>
-      </c>
-      <c r="S245">
-        <v>1.925</v>
-      </c>
-      <c r="T245">
-        <v>1.875</v>
-      </c>
-      <c r="U245">
-        <v>2.5</v>
-      </c>
       <c r="V245">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X245">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y245">
         <v>-1</v>
@@ -23071,13 +23071,13 @@
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD245">
         <v>-1</v>
@@ -23088,7 +23088,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6193056</v>
+        <v>6193053</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -23097,64 +23097,64 @@
         <v>45249.04166666666</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F246" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G246">
+        <v>4</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
         <v>3</v>
       </c>
-      <c r="H246">
-        <v>2</v>
-      </c>
-      <c r="I246">
-        <v>2</v>
-      </c>
       <c r="J246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K246" t="s">
         <v>53</v>
       </c>
       <c r="L246">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N246">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O246">
+        <v>3.5</v>
+      </c>
+      <c r="P246">
+        <v>3.5</v>
+      </c>
+      <c r="Q246">
         <v>1.85</v>
       </c>
-      <c r="P246">
-        <v>3.6</v>
-      </c>
-      <c r="Q246">
-        <v>3.2</v>
-      </c>
       <c r="R246">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U246">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X246">
-        <v>0.8500000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -23163,13 +23163,13 @@
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AD246">
         <v>-1</v>
@@ -23180,7 +23180,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6193053</v>
+        <v>6193057</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23189,64 +23189,64 @@
         <v>45249.04166666666</v>
       </c>
       <c r="E247" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F247" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="I247">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K247" t="s">
         <v>53</v>
       </c>
       <c r="L247">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="M247">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q247">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="R247">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U247">
         <v>2.5</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W247">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X247">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -23255,13 +23255,13 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AD247">
         <v>-1</v>
@@ -24560,7 +24560,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6195253</v>
+        <v>6195257</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24569,64 +24569,64 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E262" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K262" t="s">
         <v>53</v>
       </c>
       <c r="L262">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M262">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N262">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="O262">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P262">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q262">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="R262">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S262">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T262">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U262">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V262">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W262">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X262">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y262">
         <v>-1</v>
@@ -24635,16 +24635,16 @@
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD262">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -24744,7 +24744,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6195257</v>
+        <v>6195253</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -24753,64 +24753,64 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E264" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F264" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K264" t="s">
         <v>53</v>
       </c>
       <c r="L264">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="M264">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N264">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="O264">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P264">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q264">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="R264">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S264">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T264">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U264">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V264">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W264">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X264">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
@@ -24819,16 +24819,16 @@
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB264">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD264">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:30">
@@ -25112,7 +25112,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6195255</v>
+        <v>6195259</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25121,10 +25121,10 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -25136,46 +25136,46 @@
         <v>0</v>
       </c>
       <c r="J268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K268" t="s">
         <v>52</v>
       </c>
       <c r="L268">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M268">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N268">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O268">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="P268">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q268">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="R268">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S268">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T268">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U268">
         <v>2.5</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X268">
         <v>-1</v>
@@ -25184,19 +25184,19 @@
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC268">
+        <v>-1</v>
+      </c>
+      <c r="AD268">
         <v>0.95</v>
-      </c>
-      <c r="AC268">
-        <v>-1</v>
-      </c>
-      <c r="AD268">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25204,7 +25204,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6195259</v>
+        <v>6195260</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25213,62 +25213,62 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E269" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F269" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" t="s">
         <v>52</v>
       </c>
       <c r="L269">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="M269">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N269">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O269">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="P269">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q269">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="R269">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S269">
+        <v>1.925</v>
+      </c>
+      <c r="T269">
+        <v>1.875</v>
+      </c>
+      <c r="U269">
+        <v>2.75</v>
+      </c>
+      <c r="V269">
+        <v>1.975</v>
+      </c>
+      <c r="W269">
         <v>1.825</v>
       </c>
-      <c r="T269">
-        <v>1.975</v>
-      </c>
-      <c r="U269">
-        <v>2.5</v>
-      </c>
-      <c r="V269">
-        <v>1.85</v>
-      </c>
-      <c r="W269">
-        <v>1.95</v>
-      </c>
       <c r="X269">
         <v>-1</v>
       </c>
@@ -25276,19 +25276,19 @@
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>3.5</v>
+        <v>1.15</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD269">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25296,7 +25296,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6195260</v>
+        <v>6195261</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25305,52 +25305,52 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E270" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F270" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K270" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L270">
         <v>3</v>
       </c>
       <c r="M270">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N270">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O270">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P270">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q270">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="R270">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S270">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T270">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U270">
         <v>2.75</v>
@@ -25365,22 +25365,22 @@
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z270">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB270">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AD270">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25388,7 +25388,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6195261</v>
+        <v>6195255</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -25397,13 +25397,13 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E271" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -25412,31 +25412,31 @@
         <v>0</v>
       </c>
       <c r="J271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K271" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M271">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N271">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="O271">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="P271">
         <v>3.4</v>
       </c>
       <c r="Q271">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="R271">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S271">
         <v>1.85</v>
@@ -25445,34 +25445,34 @@
         <v>1.95</v>
       </c>
       <c r="U271">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V271">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA271">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC271">
         <v>-1</v>
       </c>
       <c r="AD271">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25480,7 +25480,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7635644</v>
+        <v>7635881</v>
       </c>
       <c r="C272" t="s">
         <v>29</v>
@@ -25489,82 +25489,82 @@
         <v>45346.08333333334</v>
       </c>
       <c r="E272" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F272" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G272">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H272">
         <v>1</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272">
         <v>0</v>
       </c>
       <c r="K272" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L272">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M272">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N272">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O272">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="P272">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q272">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="R272">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S272">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T272">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U272">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V272">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W272">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X272">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA272">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="273" spans="1:30">
@@ -25572,7 +25572,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7635881</v>
+        <v>7635878</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25581,82 +25581,82 @@
         <v>45346.08333333334</v>
       </c>
       <c r="E273" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F273" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273">
         <v>0</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K273" t="s">
         <v>52</v>
       </c>
       <c r="L273">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="M273">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N273">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O273">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P273">
+        <v>3</v>
+      </c>
+      <c r="Q273">
+        <v>3.8</v>
+      </c>
+      <c r="R273">
+        <v>-0.5</v>
+      </c>
+      <c r="S273">
+        <v>2.025</v>
+      </c>
+      <c r="T273">
+        <v>1.775</v>
+      </c>
+      <c r="U273">
+        <v>2</v>
+      </c>
+      <c r="V273">
+        <v>1.85</v>
+      </c>
+      <c r="W273">
+        <v>1.95</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
         <v>2.8</v>
       </c>
-      <c r="Q273">
-        <v>2.9</v>
-      </c>
-      <c r="R273">
-        <v>-0.25</v>
-      </c>
-      <c r="S273">
-        <v>2.05</v>
-      </c>
-      <c r="T273">
-        <v>1.75</v>
-      </c>
-      <c r="U273">
-        <v>2.25</v>
-      </c>
-      <c r="V273">
-        <v>2</v>
-      </c>
-      <c r="W273">
-        <v>1.8</v>
-      </c>
-      <c r="X273">
-        <v>-1</v>
-      </c>
-      <c r="Y273">
-        <v>-1</v>
-      </c>
-      <c r="Z273">
-        <v>1.9</v>
-      </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD273">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25664,7 +25664,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7635878</v>
+        <v>7635644</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25673,79 +25673,79 @@
         <v>45346.08333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K274" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L274">
+        <v>1.6</v>
+      </c>
+      <c r="M274">
+        <v>3.75</v>
+      </c>
+      <c r="N274">
+        <v>4.75</v>
+      </c>
+      <c r="O274">
+        <v>1.6</v>
+      </c>
+      <c r="P274">
+        <v>3.75</v>
+      </c>
+      <c r="Q274">
+        <v>4.75</v>
+      </c>
+      <c r="R274">
+        <v>-0.75</v>
+      </c>
+      <c r="S274">
+        <v>1.825</v>
+      </c>
+      <c r="T274">
+        <v>1.975</v>
+      </c>
+      <c r="U274">
+        <v>2.5</v>
+      </c>
+      <c r="V274">
+        <v>1.95</v>
+      </c>
+      <c r="W274">
         <v>1.85</v>
       </c>
-      <c r="M274">
-        <v>3.1</v>
-      </c>
-      <c r="N274">
-        <v>4</v>
-      </c>
-      <c r="O274">
-        <v>1.909</v>
-      </c>
-      <c r="P274">
-        <v>3</v>
-      </c>
-      <c r="Q274">
-        <v>3.8</v>
-      </c>
-      <c r="R274">
-        <v>-0.5</v>
-      </c>
-      <c r="S274">
-        <v>2.025</v>
-      </c>
-      <c r="T274">
-        <v>1.775</v>
-      </c>
-      <c r="U274">
-        <v>2</v>
-      </c>
-      <c r="V274">
-        <v>1.85</v>
-      </c>
-      <c r="W274">
-        <v>1.95</v>
-      </c>
       <c r="X274">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB274">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD274">
         <v>-1</v>
@@ -25940,7 +25940,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7638563</v>
+        <v>7635875</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -25949,82 +25949,82 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E277" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F277" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K277" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L277">
+        <v>3.2</v>
+      </c>
+      <c r="M277">
+        <v>3.4</v>
+      </c>
+      <c r="N277">
+        <v>1.95</v>
+      </c>
+      <c r="O277">
+        <v>3.3</v>
+      </c>
+      <c r="P277">
+        <v>3.5</v>
+      </c>
+      <c r="Q277">
+        <v>1.85</v>
+      </c>
+      <c r="R277">
+        <v>0.5</v>
+      </c>
+      <c r="S277">
+        <v>1.85</v>
+      </c>
+      <c r="T277">
+        <v>1.95</v>
+      </c>
+      <c r="U277">
         <v>2.75</v>
       </c>
-      <c r="M277">
-        <v>3.2</v>
-      </c>
-      <c r="N277">
-        <v>2.3</v>
-      </c>
-      <c r="O277">
-        <v>2.7</v>
-      </c>
-      <c r="P277">
-        <v>3.25</v>
-      </c>
-      <c r="Q277">
-        <v>2.3</v>
-      </c>
-      <c r="R277">
-        <v>0</v>
-      </c>
-      <c r="S277">
-        <v>2.025</v>
-      </c>
-      <c r="T277">
-        <v>1.775</v>
-      </c>
-      <c r="U277">
+      <c r="V277">
+        <v>1.85</v>
+      </c>
+      <c r="W277">
+        <v>1.95</v>
+      </c>
+      <c r="X277">
+        <v>-1</v>
+      </c>
+      <c r="Y277">
         <v>2.5</v>
       </c>
-      <c r="V277">
-        <v>1.9</v>
-      </c>
-      <c r="W277">
-        <v>1.9</v>
-      </c>
-      <c r="X277">
-        <v>1.7</v>
-      </c>
-      <c r="Y277">
-        <v>-1</v>
-      </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB277">
         <v>-1</v>
       </c>
       <c r="AC277">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD277">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="278" spans="1:30">
@@ -26032,7 +26032,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7635875</v>
+        <v>7638563</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -26041,82 +26041,82 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E278" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F278" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K278" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L278">
+        <v>2.75</v>
+      </c>
+      <c r="M278">
         <v>3.2</v>
       </c>
-      <c r="M278">
-        <v>3.4</v>
-      </c>
       <c r="N278">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O278">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="P278">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q278">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="R278">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S278">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T278">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U278">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y278">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
         <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB278">
         <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD278">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -26124,7 +26124,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7635879</v>
+        <v>7635882</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -26133,82 +26133,82 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E279" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F279" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G279">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279">
         <v>0</v>
       </c>
       <c r="J279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K279" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L279">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M279">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N279">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O279">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P279">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q279">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="R279">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S279">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T279">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W279">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC279">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD279">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -26216,7 +26216,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7635882</v>
+        <v>7635879</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -26225,82 +26225,82 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E280" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F280" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G280">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
         <v>0</v>
       </c>
       <c r="J280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K280" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L280">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M280">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N280">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O280">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P280">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q280">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="R280">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S280">
+        <v>2</v>
+      </c>
+      <c r="T280">
+        <v>1.7</v>
+      </c>
+      <c r="U280">
+        <v>2</v>
+      </c>
+      <c r="V280">
         <v>1.825</v>
       </c>
-      <c r="T280">
+      <c r="W280">
         <v>1.975</v>
       </c>
-      <c r="U280">
-        <v>2.25</v>
-      </c>
-      <c r="V280">
-        <v>1.925</v>
-      </c>
-      <c r="W280">
-        <v>1.875</v>
-      </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z280">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB280">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC280">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD280">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:30">
@@ -26400,7 +26400,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7752021</v>
+        <v>7751890</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26409,82 +26409,82 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E282" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F282" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G282">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L282">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="M282">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N282">
+        <v>2.4</v>
+      </c>
+      <c r="O282">
+        <v>2.45</v>
+      </c>
+      <c r="P282">
+        <v>3.1</v>
+      </c>
+      <c r="Q282">
         <v>2.7</v>
       </c>
-      <c r="O282">
+      <c r="R282">
+        <v>0</v>
+      </c>
+      <c r="S282">
+        <v>1.8</v>
+      </c>
+      <c r="T282">
+        <v>2</v>
+      </c>
+      <c r="U282">
+        <v>2.25</v>
+      </c>
+      <c r="V282">
+        <v>2</v>
+      </c>
+      <c r="W282">
+        <v>1.8</v>
+      </c>
+      <c r="X282">
+        <v>-1</v>
+      </c>
+      <c r="Y282">
         <v>2.1</v>
       </c>
-      <c r="P282">
-        <v>3.25</v>
-      </c>
-      <c r="Q282">
-        <v>3</v>
-      </c>
-      <c r="R282">
-        <v>-0.25</v>
-      </c>
-      <c r="S282">
-        <v>1.9</v>
-      </c>
-      <c r="T282">
-        <v>1.9</v>
-      </c>
-      <c r="U282">
-        <v>2.5</v>
-      </c>
-      <c r="V282">
-        <v>1.975</v>
-      </c>
-      <c r="W282">
-        <v>1.825</v>
-      </c>
-      <c r="X282">
-        <v>1.1</v>
-      </c>
-      <c r="Y282">
-        <v>-1</v>
-      </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC282">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD282">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -26492,7 +26492,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7752020</v>
+        <v>7751891</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26501,82 +26501,82 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F283" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G283">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283">
         <v>1</v>
       </c>
       <c r="J283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K283" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L283">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M283">
         <v>3.2</v>
       </c>
       <c r="N283">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O283">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="P283">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q283">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="R283">
         <v>0</v>
       </c>
       <c r="S283">
+        <v>2.025</v>
+      </c>
+      <c r="T283">
+        <v>1.775</v>
+      </c>
+      <c r="U283">
+        <v>2.25</v>
+      </c>
+      <c r="V283">
+        <v>1.95</v>
+      </c>
+      <c r="W283">
         <v>1.85</v>
       </c>
-      <c r="T283">
-        <v>1.95</v>
-      </c>
-      <c r="U283">
-        <v>2</v>
-      </c>
-      <c r="V283">
-        <v>1.825</v>
-      </c>
-      <c r="W283">
-        <v>1.975</v>
-      </c>
       <c r="X283">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD283">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -26584,7 +26584,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7752019</v>
+        <v>7752020</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -26593,10 +26593,10 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E284" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F284" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -26614,43 +26614,43 @@
         <v>53</v>
       </c>
       <c r="L284">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="M284">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N284">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O284">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q284">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="R284">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S284">
+        <v>1.85</v>
+      </c>
+      <c r="T284">
+        <v>1.95</v>
+      </c>
+      <c r="U284">
+        <v>2</v>
+      </c>
+      <c r="V284">
+        <v>1.825</v>
+      </c>
+      <c r="W284">
         <v>1.975</v>
       </c>
-      <c r="T284">
-        <v>1.825</v>
-      </c>
-      <c r="U284">
-        <v>2.25</v>
-      </c>
-      <c r="V284">
-        <v>1.8</v>
-      </c>
-      <c r="W284">
-        <v>2</v>
-      </c>
       <c r="X284">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="Y284">
         <v>-1</v>
@@ -26659,16 +26659,16 @@
         <v>-1</v>
       </c>
       <c r="AA284">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
+        <v>-1</v>
+      </c>
+      <c r="AD284">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB284">
-        <v>-1</v>
-      </c>
-      <c r="AC284">
-        <v>-1</v>
-      </c>
-      <c r="AD284">
-        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:30">
@@ -26676,7 +26676,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7751891</v>
+        <v>7752021</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -26685,79 +26685,79 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E285" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F285" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285">
         <v>1</v>
       </c>
       <c r="J285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K285" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L285">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="M285">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N285">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O285">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="P285">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q285">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="R285">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T285">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U285">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V285">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W285">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB285">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD285">
         <v>-1</v>
@@ -26768,7 +26768,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7751890</v>
+        <v>7752019</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26777,82 +26777,82 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E286" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F286" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G286">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286">
         <v>1</v>
       </c>
       <c r="J286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K286" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L286">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="M286">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N286">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O286">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="P286">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q286">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="R286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S286">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T286">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U286">
         <v>2.25</v>
       </c>
       <c r="V286">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W286">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y286">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
         <v>-1</v>
       </c>
       <c r="AA286">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD286">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -27412,7 +27412,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7751895</v>
+        <v>7752025</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27421,10 +27421,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F293" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -27433,49 +27433,49 @@
         <v>1</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K293" t="s">
         <v>54</v>
       </c>
       <c r="L293">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="M293">
         <v>3</v>
       </c>
       <c r="N293">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O293">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P293">
         <v>3</v>
       </c>
       <c r="Q293">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="R293">
         <v>-0.25</v>
       </c>
       <c r="S293">
+        <v>2</v>
+      </c>
+      <c r="T293">
         <v>1.8</v>
       </c>
-      <c r="T293">
-        <v>2</v>
-      </c>
       <c r="U293">
         <v>2</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X293">
         <v>-1</v>
@@ -27490,7 +27490,7 @@
         <v>-0.5</v>
       </c>
       <c r="AB293">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AC293">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7752025</v>
+        <v>7752024</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27513,10 +27513,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F294" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -27525,7 +27525,7 @@
         <v>1</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294">
         <v>0</v>
@@ -27534,61 +27534,61 @@
         <v>54</v>
       </c>
       <c r="L294">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="M294">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N294">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O294">
+        <v>1.5</v>
+      </c>
+      <c r="P294">
+        <v>3.8</v>
+      </c>
+      <c r="Q294">
+        <v>6.5</v>
+      </c>
+      <c r="R294">
+        <v>-1</v>
+      </c>
+      <c r="S294">
+        <v>1.8</v>
+      </c>
+      <c r="T294">
+        <v>2</v>
+      </c>
+      <c r="U294">
         <v>2.25</v>
       </c>
-      <c r="P294">
-        <v>3</v>
-      </c>
-      <c r="Q294">
-        <v>3.25</v>
-      </c>
-      <c r="R294">
-        <v>-0.25</v>
-      </c>
-      <c r="S294">
-        <v>2</v>
-      </c>
-      <c r="T294">
+      <c r="V294">
         <v>1.8</v>
       </c>
-      <c r="U294">
-        <v>2</v>
-      </c>
-      <c r="V294">
-        <v>1.825</v>
-      </c>
       <c r="W294">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
+        <v>-1</v>
+      </c>
+      <c r="AB294">
+        <v>1</v>
+      </c>
+      <c r="AC294">
         <v>-0.5</v>
       </c>
-      <c r="AB294">
-        <v>0.4</v>
-      </c>
-      <c r="AC294">
-        <v>0</v>
-      </c>
       <c r="AD294">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27596,7 +27596,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7752024</v>
+        <v>7751895</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27605,10 +27605,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E295" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -27620,31 +27620,31 @@
         <v>0</v>
       </c>
       <c r="J295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K295" t="s">
         <v>54</v>
       </c>
       <c r="L295">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="M295">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N295">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O295">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P295">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q295">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="R295">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S295">
         <v>1.8</v>
@@ -27653,34 +27653,34 @@
         <v>2</v>
       </c>
       <c r="U295">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V295">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W295">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB295">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC295">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD295">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:30">
@@ -27688,7 +27688,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7751897</v>
+        <v>7751898</v>
       </c>
       <c r="C296" t="s">
         <v>29</v>
@@ -27697,82 +27697,82 @@
         <v>45361.04166666666</v>
       </c>
       <c r="E296" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F296" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G296">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296">
         <v>0</v>
       </c>
       <c r="K296" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L296">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="M296">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N296">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O296">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P296">
+        <v>3.3</v>
+      </c>
+      <c r="Q296">
         <v>3.4</v>
       </c>
-      <c r="Q296">
-        <v>3.3</v>
-      </c>
       <c r="R296">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S296">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T296">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U296">
         <v>2.5</v>
       </c>
       <c r="V296">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W296">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y296">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB296">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
         <v>-1</v>
       </c>
       <c r="AD296">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:30">
@@ -27780,7 +27780,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7751898</v>
+        <v>7751897</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -27789,82 +27789,82 @@
         <v>45361.04166666666</v>
       </c>
       <c r="E297" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F297" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G297">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297">
         <v>0</v>
       </c>
       <c r="K297" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L297">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="M297">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N297">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O297">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P297">
+        <v>3.4</v>
+      </c>
+      <c r="Q297">
         <v>3.3</v>
       </c>
-      <c r="Q297">
-        <v>3.4</v>
-      </c>
       <c r="R297">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S297">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T297">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U297">
         <v>2.5</v>
       </c>
       <c r="V297">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W297">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z297">
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC297">
         <v>-1</v>
       </c>
       <c r="AD297">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="298" spans="1:30">
@@ -29068,7 +29068,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7751908</v>
+        <v>7751906</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -29077,82 +29077,82 @@
         <v>45371.08333333334</v>
       </c>
       <c r="E311" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F311" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G311">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311">
         <v>0</v>
       </c>
       <c r="K311" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L311">
+        <v>2.1</v>
+      </c>
+      <c r="M311">
         <v>3.1</v>
       </c>
-      <c r="M311">
-        <v>3</v>
-      </c>
       <c r="N311">
+        <v>3.2</v>
+      </c>
+      <c r="O311">
         <v>2.2</v>
       </c>
-      <c r="O311">
-        <v>3.4</v>
-      </c>
       <c r="P311">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q311">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="R311">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S311">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T311">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U311">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V311">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="W311">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y311">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
         <v>-1</v>
       </c>
       <c r="AA311">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB311">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD311">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:30">
@@ -29160,7 +29160,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7751906</v>
+        <v>7751908</v>
       </c>
       <c r="C312" t="s">
         <v>29</v>
@@ -29169,82 +29169,82 @@
         <v>45371.08333333334</v>
       </c>
       <c r="E312" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F312" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G312">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312">
         <v>0</v>
       </c>
       <c r="K312" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L312">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="M312">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N312">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O312">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="P312">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q312">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="R312">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S312">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T312">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U312">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V312">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="W312">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X312">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC312">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD312">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="313" spans="1:30">
@@ -29344,7 +29344,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7752037</v>
+        <v>7752036</v>
       </c>
       <c r="C314" t="s">
         <v>29</v>
@@ -29353,16 +29353,16 @@
         <v>45371.08333333334</v>
       </c>
       <c r="E314" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F314" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -29374,43 +29374,43 @@
         <v>53</v>
       </c>
       <c r="L314">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M314">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N314">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O314">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="P314">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q314">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="R314">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S314">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T314">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="U314">
         <v>2.25</v>
       </c>
       <c r="V314">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W314">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X314">
-        <v>1.75</v>
+        <v>0.95</v>
       </c>
       <c r="Y314">
         <v>-1</v>
@@ -29419,16 +29419,16 @@
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB314">
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD314">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:30">
@@ -29436,7 +29436,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7752036</v>
+        <v>7752035</v>
       </c>
       <c r="C315" t="s">
         <v>29</v>
@@ -29445,16 +29445,16 @@
         <v>45371.08333333334</v>
       </c>
       <c r="E315" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F315" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -29466,61 +29466,61 @@
         <v>53</v>
       </c>
       <c r="L315">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M315">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N315">
+        <v>3.8</v>
+      </c>
+      <c r="O315">
+        <v>1.615</v>
+      </c>
+      <c r="P315">
         <v>3.4</v>
       </c>
-      <c r="O315">
+      <c r="Q315">
+        <v>4.75</v>
+      </c>
+      <c r="R315">
+        <v>-0.75</v>
+      </c>
+      <c r="S315">
+        <v>1.85</v>
+      </c>
+      <c r="T315">
         <v>1.95</v>
-      </c>
-      <c r="P315">
-        <v>3.1</v>
-      </c>
-      <c r="Q315">
-        <v>3.5</v>
-      </c>
-      <c r="R315">
-        <v>-0.25</v>
-      </c>
-      <c r="S315">
-        <v>1.775</v>
-      </c>
-      <c r="T315">
-        <v>2.025</v>
       </c>
       <c r="U315">
         <v>2.25</v>
       </c>
       <c r="V315">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W315">
         <v>1.95</v>
       </c>
       <c r="X315">
+        <v>0.615</v>
+      </c>
+      <c r="Y315">
+        <v>-1</v>
+      </c>
+      <c r="Z315">
+        <v>-1</v>
+      </c>
+      <c r="AA315">
+        <v>0.425</v>
+      </c>
+      <c r="AB315">
+        <v>-0.5</v>
+      </c>
+      <c r="AC315">
+        <v>-1</v>
+      </c>
+      <c r="AD315">
         <v>0.95</v>
-      </c>
-      <c r="Y315">
-        <v>-1</v>
-      </c>
-      <c r="Z315">
-        <v>-1</v>
-      </c>
-      <c r="AA315">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB315">
-        <v>-1</v>
-      </c>
-      <c r="AC315">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AD315">
-        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:30">
@@ -29528,7 +29528,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7752035</v>
+        <v>7752037</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -29537,10 +29537,10 @@
         <v>45371.08333333334</v>
       </c>
       <c r="E316" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F316" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -29567,35 +29567,35 @@
         <v>3.8</v>
       </c>
       <c r="O316">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="P316">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q316">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="R316">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T316">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="U316">
         <v>2.25</v>
       </c>
       <c r="V316">
+        <v>1.875</v>
+      </c>
+      <c r="W316">
+        <v>1.925</v>
+      </c>
+      <c r="X316">
         <v>1.75</v>
       </c>
-      <c r="W316">
-        <v>1.95</v>
-      </c>
-      <c r="X316">
-        <v>0.615</v>
-      </c>
       <c r="Y316">
         <v>-1</v>
       </c>
@@ -29603,16 +29603,16 @@
         <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.425</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
         <v>-1</v>
       </c>
       <c r="AD316">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="317" spans="1:30">
@@ -31184,7 +31184,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7752051</v>
+        <v>7751915</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31193,16 +31193,16 @@
         <v>45382.08333333334</v>
       </c>
       <c r="E334" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F334" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I334">
         <v>1</v>
@@ -31211,61 +31211,61 @@
         <v>1</v>
       </c>
       <c r="K334" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L334">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M334">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N334">
         <v>3.2</v>
       </c>
       <c r="O334">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="P334">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q334">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="R334">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T334">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U334">
         <v>2.25</v>
       </c>
       <c r="V334">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W334">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z334">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB334">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC334">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AD334">
         <v>-1</v>
@@ -31276,7 +31276,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7751914</v>
+        <v>7751916</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31285,82 +31285,82 @@
         <v>45382.08333333334</v>
       </c>
       <c r="E335" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F335" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G335">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335">
         <v>0</v>
       </c>
       <c r="J335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L335">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="M335">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N335">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O335">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="P335">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q335">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="R335">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S335">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T335">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U335">
         <v>2.25</v>
       </c>
       <c r="V335">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W335">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X335">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD335">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="336" spans="1:30">
@@ -31368,7 +31368,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7751915</v>
+        <v>7752050</v>
       </c>
       <c r="C336" t="s">
         <v>29</v>
@@ -31377,82 +31377,82 @@
         <v>45382.08333333334</v>
       </c>
       <c r="E336" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F336" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G336">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K336" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L336">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="M336">
         <v>3.2</v>
       </c>
       <c r="N336">
+        <v>3.6</v>
+      </c>
+      <c r="O336">
+        <v>1.85</v>
+      </c>
+      <c r="P336">
         <v>3.2</v>
       </c>
-      <c r="O336">
-        <v>2.45</v>
-      </c>
-      <c r="P336">
+      <c r="Q336">
+        <v>4</v>
+      </c>
+      <c r="R336">
+        <v>-0.5</v>
+      </c>
+      <c r="S336">
+        <v>1.9</v>
+      </c>
+      <c r="T336">
+        <v>1.9</v>
+      </c>
+      <c r="U336">
+        <v>2</v>
+      </c>
+      <c r="V336">
+        <v>1.775</v>
+      </c>
+      <c r="W336">
+        <v>2.025</v>
+      </c>
+      <c r="X336">
+        <v>-1</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
         <v>3</v>
       </c>
-      <c r="Q336">
-        <v>2.8</v>
-      </c>
-      <c r="R336">
-        <v>0</v>
-      </c>
-      <c r="S336">
-        <v>1.775</v>
-      </c>
-      <c r="T336">
-        <v>2.025</v>
-      </c>
-      <c r="U336">
-        <v>2.25</v>
-      </c>
-      <c r="V336">
-        <v>2.025</v>
-      </c>
-      <c r="W336">
-        <v>1.775</v>
-      </c>
-      <c r="X336">
-        <v>-1</v>
-      </c>
-      <c r="Y336">
-        <v>2</v>
-      </c>
-      <c r="Z336">
-        <v>-1</v>
-      </c>
       <c r="AA336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC336">
+        <v>-1</v>
+      </c>
+      <c r="AD336">
         <v>1.025</v>
-      </c>
-      <c r="AD336">
-        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:30">
@@ -31460,7 +31460,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7751916</v>
+        <v>7752051</v>
       </c>
       <c r="C337" t="s">
         <v>29</v>
@@ -31469,46 +31469,46 @@
         <v>45382.08333333334</v>
       </c>
       <c r="E337" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F337" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G337">
         <v>1</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337">
         <v>1</v>
       </c>
       <c r="K337" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L337">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="M337">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N337">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O337">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="P337">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q337">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="R337">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S337">
         <v>1.925</v>
@@ -31520,31 +31520,31 @@
         <v>2.25</v>
       </c>
       <c r="V337">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W337">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA337">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC337">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD337">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:30">
@@ -31552,7 +31552,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7752050</v>
+        <v>7751914</v>
       </c>
       <c r="C338" t="s">
         <v>29</v>
@@ -31561,16 +31561,16 @@
         <v>45382.08333333334</v>
       </c>
       <c r="E338" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F338" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338">
         <v>0</v>
@@ -31579,7 +31579,7 @@
         <v>0</v>
       </c>
       <c r="K338" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L338">
         <v>1.909</v>
@@ -31591,52 +31591,52 @@
         <v>3.6</v>
       </c>
       <c r="O338">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P338">
         <v>3.2</v>
       </c>
       <c r="Q338">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R338">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S338">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T338">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U338">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V338">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W338">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X338">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB338">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
         <v>-1</v>
       </c>
       <c r="AD338">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:30">
@@ -31920,7 +31920,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7751920</v>
+        <v>7751918</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -31929,49 +31929,49 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E342" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F342" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
       <c r="J342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K342" t="s">
         <v>53</v>
       </c>
       <c r="L342">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="M342">
         <v>3.25</v>
       </c>
       <c r="N342">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="O342">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="P342">
+        <v>3.25</v>
+      </c>
+      <c r="Q342">
         <v>3.1</v>
       </c>
-      <c r="Q342">
-        <v>2</v>
-      </c>
       <c r="R342">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S342">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T342">
         <v>1.975</v>
@@ -31980,13 +31980,13 @@
         <v>2.25</v>
       </c>
       <c r="V342">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W342">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X342">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y342">
         <v>-1</v>
@@ -31995,16 +31995,16 @@
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB342">
         <v>-1</v>
       </c>
       <c r="AC342">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD342">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -32012,7 +32012,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7752055</v>
+        <v>7751920</v>
       </c>
       <c r="C343" t="s">
         <v>29</v>
@@ -32021,64 +32021,64 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E343" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G343">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="I343">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K343" t="s">
         <v>53</v>
       </c>
       <c r="L343">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="M343">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N343">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O343">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="P343">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q343">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R343">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T343">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U343">
         <v>2.25</v>
       </c>
       <c r="V343">
+        <v>1.975</v>
+      </c>
+      <c r="W343">
         <v>1.825</v>
       </c>
-      <c r="W343">
-        <v>1.975</v>
-      </c>
       <c r="X343">
-        <v>0.95</v>
+        <v>2.4</v>
       </c>
       <c r="Y343">
         <v>-1</v>
@@ -32087,13 +32087,13 @@
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB343">
         <v>-1</v>
       </c>
       <c r="AC343">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD343">
         <v>-1</v>
@@ -32104,7 +32104,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7751918</v>
+        <v>7751919</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32113,10 +32113,10 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E344" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F344" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G344">
         <v>1</v>
@@ -32134,43 +32134,43 @@
         <v>53</v>
       </c>
       <c r="L344">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="M344">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N344">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="O344">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P344">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q344">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R344">
         <v>-0.25</v>
       </c>
       <c r="S344">
+        <v>1.975</v>
+      </c>
+      <c r="T344">
         <v>1.825</v>
       </c>
-      <c r="T344">
-        <v>1.975</v>
-      </c>
       <c r="U344">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V344">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W344">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X344">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Y344">
         <v>-1</v>
@@ -32179,7 +32179,7 @@
         <v>-1</v>
       </c>
       <c r="AA344">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB344">
         <v>-1</v>
@@ -32188,7 +32188,7 @@
         <v>-1</v>
       </c>
       <c r="AD344">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32288,7 +32288,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7751919</v>
+        <v>7752055</v>
       </c>
       <c r="C346" t="s">
         <v>29</v>
@@ -32297,19 +32297,19 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E346" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F346" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J346">
         <v>0</v>
@@ -32318,43 +32318,43 @@
         <v>53</v>
       </c>
       <c r="L346">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M346">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N346">
         <v>2.6</v>
       </c>
       <c r="O346">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="P346">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q346">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R346">
         <v>-0.25</v>
       </c>
       <c r="S346">
+        <v>1.8</v>
+      </c>
+      <c r="T346">
+        <v>2</v>
+      </c>
+      <c r="U346">
+        <v>2.25</v>
+      </c>
+      <c r="V346">
+        <v>1.825</v>
+      </c>
+      <c r="W346">
         <v>1.975</v>
       </c>
-      <c r="T346">
-        <v>1.825</v>
-      </c>
-      <c r="U346">
-        <v>2</v>
-      </c>
-      <c r="V346">
-        <v>1.8</v>
-      </c>
-      <c r="W346">
-        <v>2</v>
-      </c>
       <c r="X346">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="Y346">
         <v>-1</v>
@@ -32363,16 +32363,16 @@
         <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD346">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:30">
@@ -32656,7 +32656,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7751922</v>
+        <v>7752062</v>
       </c>
       <c r="C350" t="s">
         <v>29</v>
@@ -32665,82 +32665,82 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E350" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350">
         <v>0</v>
       </c>
       <c r="K350" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L350">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M350">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N350">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O350">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P350">
         <v>3.1</v>
       </c>
       <c r="Q350">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R350">
         <v>-0.25</v>
       </c>
       <c r="S350">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T350">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U350">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V350">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W350">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X350">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z350">
         <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC350">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD350">
-        <v>0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="351" spans="1:30">
@@ -32748,7 +32748,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7752062</v>
+        <v>7752060</v>
       </c>
       <c r="C351" t="s">
         <v>29</v>
@@ -32757,55 +32757,55 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E351" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F351" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351">
         <v>0</v>
       </c>
       <c r="J351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K351" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L351">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M351">
         <v>3.2</v>
       </c>
       <c r="N351">
+        <v>3</v>
+      </c>
+      <c r="O351">
+        <v>2</v>
+      </c>
+      <c r="P351">
         <v>3.3</v>
       </c>
-      <c r="O351">
-        <v>2.2</v>
-      </c>
-      <c r="P351">
-        <v>3.1</v>
-      </c>
       <c r="Q351">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R351">
         <v>-0.25</v>
       </c>
       <c r="S351">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T351">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U351">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V351">
         <v>1.95</v>
@@ -32817,22 +32817,22 @@
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD351">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:30">
@@ -32840,7 +32840,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7752060</v>
+        <v>7752059</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -32849,61 +32849,61 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F352" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G352">
         <v>0</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>0</v>
       </c>
       <c r="J352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K352" t="s">
         <v>52</v>
       </c>
       <c r="L352">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="M352">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N352">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O352">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="P352">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q352">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="R352">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S352">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T352">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U352">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V352">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W352">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -32912,19 +32912,19 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC352">
         <v>-1</v>
       </c>
       <c r="AD352">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -32932,7 +32932,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7752059</v>
+        <v>7751922</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -32941,46 +32941,46 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E353" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F353" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K353" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L353">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="M353">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N353">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O353">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="P353">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q353">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="R353">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S353">
         <v>1.875</v>
@@ -32989,34 +32989,34 @@
         <v>1.925</v>
       </c>
       <c r="U353">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V353">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W353">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X353">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB353">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD353">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:30">
@@ -33944,7 +33944,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7752067</v>
+        <v>7752066</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -33953,16 +33953,16 @@
         <v>45396.08333333334</v>
       </c>
       <c r="E364" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F364" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364">
         <v>1</v>
@@ -33974,43 +33974,43 @@
         <v>53</v>
       </c>
       <c r="L364">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="M364">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N364">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O364">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="P364">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q364">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="R364">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S364">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T364">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U364">
         <v>2.25</v>
       </c>
       <c r="V364">
+        <v>1.95</v>
+      </c>
+      <c r="W364">
         <v>1.85</v>
       </c>
-      <c r="W364">
-        <v>1.95</v>
-      </c>
       <c r="X364">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y364">
         <v>-1</v>
@@ -34019,16 +34019,16 @@
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD364">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -34036,7 +34036,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7752066</v>
+        <v>7752067</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -34045,16 +34045,16 @@
         <v>45396.08333333334</v>
       </c>
       <c r="E365" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F365" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I365">
         <v>1</v>
@@ -34066,61 +34066,61 @@
         <v>53</v>
       </c>
       <c r="L365">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="M365">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N365">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="O365">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="P365">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q365">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="R365">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S365">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T365">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U365">
         <v>2.25</v>
       </c>
       <c r="V365">
+        <v>1.85</v>
+      </c>
+      <c r="W365">
         <v>1.95</v>
       </c>
-      <c r="W365">
-        <v>1.85</v>
-      </c>
       <c r="X365">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
+        <v>-1</v>
+      </c>
+      <c r="AA365">
+        <v>1</v>
+      </c>
+      <c r="AB365">
+        <v>-1</v>
+      </c>
+      <c r="AC365">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Y365">
-        <v>-1</v>
-      </c>
-      <c r="Z365">
-        <v>-1</v>
-      </c>
-      <c r="AA365">
-        <v>0.95</v>
-      </c>
-      <c r="AB365">
-        <v>-1</v>
-      </c>
-      <c r="AC365">
-        <v>-0.5</v>
-      </c>
       <c r="AD365">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -35232,7 +35232,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7752070</v>
+        <v>7752071</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -35241,64 +35241,64 @@
         <v>45410.08333333334</v>
       </c>
       <c r="E378" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G378">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I378">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K378" t="s">
         <v>53</v>
       </c>
       <c r="L378">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M378">
         <v>3</v>
       </c>
       <c r="N378">
+        <v>2.375</v>
+      </c>
+      <c r="O378">
+        <v>2.375</v>
+      </c>
+      <c r="P378">
         <v>3</v>
       </c>
-      <c r="O378">
-        <v>2</v>
-      </c>
-      <c r="P378">
-        <v>3.1</v>
-      </c>
       <c r="Q378">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="R378">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S378">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T378">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U378">
         <v>2.25</v>
       </c>
       <c r="V378">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W378">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X378">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="Y378">
         <v>-1</v>
@@ -35307,13 +35307,13 @@
         <v>-1</v>
       </c>
       <c r="AA378">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB378">
         <v>-1</v>
       </c>
       <c r="AC378">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD378">
         <v>-1</v>
@@ -35324,7 +35324,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7752072</v>
+        <v>7752070</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35333,82 +35333,82 @@
         <v>45410.08333333334</v>
       </c>
       <c r="E379" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F379" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G379">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H379">
         <v>0</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J379">
         <v>0</v>
       </c>
       <c r="K379" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L379">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M379">
         <v>3</v>
       </c>
       <c r="N379">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O379">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P379">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q379">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R379">
         <v>-0.25</v>
       </c>
       <c r="S379">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T379">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U379">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V379">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W379">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X379">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y379">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
         <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB379">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC379">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD379">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:30">
@@ -35416,7 +35416,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7752071</v>
+        <v>7752072</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35425,82 +35425,82 @@
         <v>45410.08333333334</v>
       </c>
       <c r="E380" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F380" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G380">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K380" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L380">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="M380">
         <v>3</v>
       </c>
       <c r="N380">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O380">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P380">
+        <v>3.2</v>
+      </c>
+      <c r="Q380">
         <v>3</v>
       </c>
-      <c r="Q380">
-        <v>2.8</v>
-      </c>
       <c r="R380">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S380">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T380">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U380">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V380">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W380">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X380">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y380">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z380">
         <v>-1</v>
       </c>
       <c r="AA380">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC380">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD380">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -35692,7 +35692,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7752078</v>
+        <v>7752076</v>
       </c>
       <c r="C383" t="s">
         <v>29</v>
@@ -35701,16 +35701,16 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E383" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F383" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383">
         <v>0</v>
@@ -35719,22 +35719,22 @@
         <v>0</v>
       </c>
       <c r="K383" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L383">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="M383">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N383">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O383">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P383">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q383">
         <v>3.4</v>
@@ -35743,40 +35743,40 @@
         <v>-0.25</v>
       </c>
       <c r="S383">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T383">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U383">
         <v>2.25</v>
       </c>
       <c r="V383">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W383">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X383">
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA383">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB383">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD383">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:30">
@@ -35784,7 +35784,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7752076</v>
+        <v>7752078</v>
       </c>
       <c r="C384" t="s">
         <v>29</v>
@@ -35793,16 +35793,16 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E384" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F384" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384">
         <v>0</v>
@@ -35811,22 +35811,22 @@
         <v>0</v>
       </c>
       <c r="K384" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L384">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="M384">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N384">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O384">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P384">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q384">
         <v>3.4</v>
@@ -35835,40 +35835,40 @@
         <v>-0.25</v>
       </c>
       <c r="S384">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T384">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U384">
         <v>2.25</v>
       </c>
       <c r="V384">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W384">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z384">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA384">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB384">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC384">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD384">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="385" spans="1:30">
@@ -35876,7 +35876,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7751936</v>
+        <v>7751935</v>
       </c>
       <c r="C385" t="s">
         <v>29</v>
@@ -35885,82 +35885,82 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E385" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F385" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K385" t="s">
         <v>54</v>
       </c>
       <c r="L385">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="M385">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N385">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O385">
+        <v>2.9</v>
+      </c>
+      <c r="P385">
+        <v>2.7</v>
+      </c>
+      <c r="Q385">
+        <v>2.5</v>
+      </c>
+      <c r="R385">
+        <v>0</v>
+      </c>
+      <c r="S385">
+        <v>2.05</v>
+      </c>
+      <c r="T385">
+        <v>1.75</v>
+      </c>
+      <c r="U385">
+        <v>2</v>
+      </c>
+      <c r="V385">
+        <v>2.025</v>
+      </c>
+      <c r="W385">
+        <v>1.775</v>
+      </c>
+      <c r="X385">
+        <v>-1</v>
+      </c>
+      <c r="Y385">
         <v>1.7</v>
       </c>
-      <c r="P385">
-        <v>3.4</v>
-      </c>
-      <c r="Q385">
-        <v>4.5</v>
-      </c>
-      <c r="R385">
-        <v>-0.75</v>
-      </c>
-      <c r="S385">
-        <v>1.925</v>
-      </c>
-      <c r="T385">
-        <v>1.875</v>
-      </c>
-      <c r="U385">
-        <v>2.25</v>
-      </c>
-      <c r="V385">
-        <v>1.875</v>
-      </c>
-      <c r="W385">
-        <v>1.925</v>
-      </c>
-      <c r="X385">
-        <v>-1</v>
-      </c>
-      <c r="Y385">
-        <v>2.4</v>
-      </c>
       <c r="Z385">
         <v>-1</v>
       </c>
       <c r="AA385">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB385">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC385">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD385">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="386" spans="1:30">
@@ -35968,7 +35968,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7752077</v>
+        <v>7751936</v>
       </c>
       <c r="C386" t="s">
         <v>29</v>
@@ -35977,82 +35977,82 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E386" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F386" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H386">
         <v>1</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K386" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L386">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M386">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N386">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O386">
+        <v>1.7</v>
+      </c>
+      <c r="P386">
+        <v>3.4</v>
+      </c>
+      <c r="Q386">
+        <v>4.5</v>
+      </c>
+      <c r="R386">
+        <v>-0.75</v>
+      </c>
+      <c r="S386">
+        <v>1.925</v>
+      </c>
+      <c r="T386">
+        <v>1.875</v>
+      </c>
+      <c r="U386">
         <v>2.25</v>
       </c>
-      <c r="P386">
-        <v>3.1</v>
-      </c>
-      <c r="Q386">
-        <v>2.9</v>
-      </c>
-      <c r="R386">
-        <v>-0.25</v>
-      </c>
-      <c r="S386">
-        <v>2</v>
-      </c>
-      <c r="T386">
-        <v>1.8</v>
-      </c>
-      <c r="U386">
-        <v>2.5</v>
-      </c>
       <c r="V386">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W386">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z386">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA386">
         <v>-1</v>
       </c>
       <c r="AB386">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC386">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD386">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="387" spans="1:30">
@@ -36060,7 +36060,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7751935</v>
+        <v>7752077</v>
       </c>
       <c r="C387" t="s">
         <v>29</v>
@@ -36069,16 +36069,16 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E387" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F387" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G387">
         <v>0</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I387">
         <v>0</v>
@@ -36087,37 +36087,37 @@
         <v>0</v>
       </c>
       <c r="K387" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L387">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M387">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N387">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O387">
+        <v>2.25</v>
+      </c>
+      <c r="P387">
+        <v>3.1</v>
+      </c>
+      <c r="Q387">
         <v>2.9</v>
       </c>
-      <c r="P387">
-        <v>2.7</v>
-      </c>
-      <c r="Q387">
+      <c r="R387">
+        <v>-0.25</v>
+      </c>
+      <c r="S387">
+        <v>2</v>
+      </c>
+      <c r="T387">
+        <v>1.8</v>
+      </c>
+      <c r="U387">
         <v>2.5</v>
-      </c>
-      <c r="R387">
-        <v>0</v>
-      </c>
-      <c r="S387">
-        <v>2.05</v>
-      </c>
-      <c r="T387">
-        <v>1.75</v>
-      </c>
-      <c r="U387">
-        <v>2</v>
       </c>
       <c r="V387">
         <v>2.025</v>
@@ -36129,16 +36129,16 @@
         <v>-1</v>
       </c>
       <c r="Y387">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA387">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB387">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC387">
         <v>-1</v>
@@ -37624,7 +37624,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7752085</v>
+        <v>7751946</v>
       </c>
       <c r="C404" t="s">
         <v>29</v>
@@ -37633,37 +37633,37 @@
         <v>45430.08333333334</v>
       </c>
       <c r="E404" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F404" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G404">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J404">
         <v>0</v>
       </c>
       <c r="K404" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L404">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M404">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N404">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O404">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="P404">
         <v>3.1</v>
@@ -37675,40 +37675,40 @@
         <v>0</v>
       </c>
       <c r="S404">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T404">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U404">
         <v>2.25</v>
       </c>
       <c r="V404">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W404">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="X404">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y404">
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB404">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD404">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="405" spans="1:30">
@@ -37716,7 +37716,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7751946</v>
+        <v>7752085</v>
       </c>
       <c r="C405" t="s">
         <v>29</v>
@@ -37725,37 +37725,37 @@
         <v>45430.08333333334</v>
       </c>
       <c r="E405" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F405" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G405">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J405">
         <v>0</v>
       </c>
       <c r="K405" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L405">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M405">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N405">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O405">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="P405">
         <v>3.1</v>
@@ -37767,40 +37767,40 @@
         <v>0</v>
       </c>
       <c r="S405">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T405">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U405">
         <v>2.25</v>
       </c>
       <c r="V405">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W405">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="X405">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y405">
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA405">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB405">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC405">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD405">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="406" spans="1:30">

--- a/Japan J3League/Japan J3League.xlsx
+++ b/Japan J3League/Japan J3League.xlsx
@@ -130,10 +130,10 @@
     <t>Gainare Tottori</t>
   </si>
   <si>
-    <t>Kataller Toyama</t>
+    <t>Vanraure Hachinohe</t>
   </si>
   <si>
-    <t>Vanraure Hachinohe</t>
+    <t>Kataller Toyama</t>
   </si>
   <si>
     <t>YSCC</t>
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6188133</v>
+        <v>6187994</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1388,79 +1388,79 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O10">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="P10">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="R10">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T10">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X10">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6187994</v>
+        <v>6188133</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1480,79 +1480,79 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M11">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O11">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="P11">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q11">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S11">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1664,7 +1664,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>45088.08333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -2768,7 +2768,7 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>45095.08333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
@@ -3961,10 +3961,10 @@
         <v>45101.25</v>
       </c>
       <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
         <v>38</v>
-      </c>
-      <c r="F38" t="s">
-        <v>39</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -4608,7 +4608,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>45108.25</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -5240,7 +5240,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6188159</v>
+        <v>6188158</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5249,19 +5249,19 @@
         <v>45115.20833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -5279,31 +5279,31 @@
         <v>3.2</v>
       </c>
       <c r="O52">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="P52">
         <v>3.25</v>
       </c>
       <c r="Q52">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U52">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5312,19 +5312,19 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1.375</v>
+        <v>2.8</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5332,7 +5332,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6188158</v>
+        <v>6188159</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5341,19 +5341,19 @@
         <v>45115.20833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -5371,31 +5371,31 @@
         <v>3.2</v>
       </c>
       <c r="O53">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="P53">
         <v>3.25</v>
       </c>
       <c r="Q53">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="R53">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W53">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5404,19 +5404,19 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5709,7 +5709,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
         <v>45</v>
@@ -6080,7 +6080,7 @@
         <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -6353,7 +6353,7 @@
         <v>45122.25</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -6537,7 +6537,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
         <v>48</v>
@@ -6896,7 +6896,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6188167</v>
+        <v>6188168</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6905,82 +6905,82 @@
         <v>45123.25</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O70">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="P70">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q70">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="R70">
         <v>0</v>
       </c>
       <c r="S70">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
+      <c r="W70">
+        <v>1.8</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
         <v>2.25</v>
       </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
-      <c r="W70">
-        <v>1.875</v>
-      </c>
-      <c r="X70">
-        <v>1.3</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6988,7 +6988,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6188168</v>
+        <v>6188167</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6997,82 +6997,82 @@
         <v>45123.25</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L71">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N71">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O71">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="P71">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q71">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71">
+        <v>1.725</v>
+      </c>
+      <c r="T71">
         <v>1.975</v>
       </c>
-      <c r="T71">
-        <v>1.825</v>
-      </c>
       <c r="U71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y71">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7092,7 +7092,7 @@
         <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -7184,7 +7184,7 @@
         <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -8000,7 +8000,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6188026</v>
+        <v>6188025</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -8009,10 +8009,10 @@
         <v>45136.25</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8030,61 +8030,61 @@
         <v>54</v>
       </c>
       <c r="L82">
+        <v>2.4</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>2.75</v>
+      </c>
+      <c r="O82">
+        <v>2.4</v>
+      </c>
+      <c r="P82">
+        <v>3.1</v>
+      </c>
+      <c r="Q82">
+        <v>2.8</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>1.75</v>
+      </c>
+      <c r="T82">
+        <v>2.05</v>
+      </c>
+      <c r="U82">
         <v>2.25</v>
       </c>
-      <c r="M82">
-        <v>3.4</v>
-      </c>
-      <c r="N82">
-        <v>2.625</v>
-      </c>
-      <c r="O82">
-        <v>2.2</v>
-      </c>
-      <c r="P82">
-        <v>3.5</v>
-      </c>
-      <c r="Q82">
-        <v>2.6</v>
-      </c>
-      <c r="R82">
-        <v>-0.25</v>
-      </c>
-      <c r="S82">
-        <v>2</v>
-      </c>
-      <c r="T82">
-        <v>1.8</v>
-      </c>
-      <c r="U82">
-        <v>2.5</v>
-      </c>
       <c r="V82">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
         <v>-0.5</v>
       </c>
-      <c r="AB82">
-        <v>0.4</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
-      </c>
       <c r="AD82">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8092,7 +8092,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6188025</v>
+        <v>6188177</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8101,16 +8101,16 @@
         <v>45136.25</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -8119,64 +8119,64 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L83">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N83">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O83">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P83">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q83">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S83">
         <v>1.75</v>
       </c>
       <c r="T83">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U83">
         <v>2.25</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y83">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD83">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8184,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6188177</v>
+        <v>6188026</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8193,16 +8193,16 @@
         <v>45136.25</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -8211,58 +8211,58 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L84">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N84">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O84">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="P84">
         <v>3.5</v>
       </c>
       <c r="Q84">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R84">
         <v>-0.25</v>
       </c>
       <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>1.8</v>
+      </c>
+      <c r="U84">
+        <v>2.5</v>
+      </c>
+      <c r="V84">
         <v>1.75</v>
-      </c>
-      <c r="T84">
-        <v>1.95</v>
-      </c>
-      <c r="U84">
-        <v>2.25</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
       </c>
       <c r="W84">
         <v>1.95</v>
       </c>
       <c r="X84">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8276,7 +8276,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6188176</v>
+        <v>6188178</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8285,16 +8285,16 @@
         <v>45136.25</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8303,28 +8303,28 @@
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L85">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q85">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S85">
         <v>1.875</v>
@@ -8336,31 +8336,31 @@
         <v>2.25</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD85">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8368,7 +8368,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6188178</v>
+        <v>6188176</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8377,16 +8377,16 @@
         <v>45136.25</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8395,28 +8395,28 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L86">
+        <v>2.25</v>
+      </c>
+      <c r="M86">
+        <v>3.1</v>
+      </c>
+      <c r="N86">
+        <v>2.9</v>
+      </c>
+      <c r="O86">
         <v>2.5</v>
       </c>
-      <c r="M86">
-        <v>3.2</v>
-      </c>
-      <c r="N86">
-        <v>2.5</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
       <c r="P86">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="R86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S86">
         <v>1.875</v>
@@ -8428,31 +8428,31 @@
         <v>2.25</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z86">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD86">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8564,7 +8564,7 @@
         <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8653,7 +8653,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
         <v>36</v>
@@ -9205,7 +9205,7 @@
         <v>45143.25</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
         <v>46</v>
@@ -9944,7 +9944,7 @@
         <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -10220,7 +10220,7 @@
         <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6188193</v>
+        <v>6188038</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10769,25 +10769,25 @@
         <v>45157.25</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G112">
         <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L112">
         <v>2.8</v>
@@ -10799,22 +10799,22 @@
         <v>2.4</v>
       </c>
       <c r="O112">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="P112">
         <v>3</v>
       </c>
       <c r="Q112">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R112">
         <v>0</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U112">
         <v>2.25</v>
@@ -10826,19 +10826,19 @@
         <v>1.975</v>
       </c>
       <c r="X112">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
         <v>0.825</v>
@@ -10852,7 +10852,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6188038</v>
+        <v>6188193</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10861,25 +10861,25 @@
         <v>45157.25</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>2</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L113">
         <v>2.8</v>
@@ -10891,22 +10891,22 @@
         <v>2.4</v>
       </c>
       <c r="O113">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="P113">
         <v>3</v>
       </c>
       <c r="Q113">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R113">
         <v>0</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U113">
         <v>2.25</v>
@@ -10918,19 +10918,19 @@
         <v>1.975</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y113">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
         <v>0.825</v>
@@ -10944,7 +10944,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6188040</v>
+        <v>6188039</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10953,82 +10953,82 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
         <v>3</v>
       </c>
       <c r="N114">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U114">
         <v>2.25</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X114">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11036,7 +11036,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6188039</v>
+        <v>6188040</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11045,82 +11045,82 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" t="s">
         <v>39</v>
       </c>
-      <c r="F115" t="s">
-        <v>42</v>
-      </c>
       <c r="G115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L115">
         <v>3</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115">
-        <v>2</v>
-      </c>
-      <c r="K115" t="s">
-        <v>52</v>
-      </c>
-      <c r="L115">
-        <v>2.875</v>
       </c>
       <c r="M115">
         <v>3</v>
       </c>
       <c r="N115">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O115">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P115">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R115">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U115">
         <v>2.25</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11128,7 +11128,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6188196</v>
+        <v>6188041</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11137,40 +11137,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L116">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
+        <v>3.5</v>
+      </c>
+      <c r="O116">
+        <v>2.25</v>
+      </c>
+      <c r="P116">
         <v>3.3</v>
-      </c>
-      <c r="N116">
-        <v>4.2</v>
-      </c>
-      <c r="O116">
-        <v>2.375</v>
-      </c>
-      <c r="P116">
-        <v>3.1</v>
       </c>
       <c r="Q116">
         <v>2.875</v>
@@ -11179,13 +11179,13 @@
         <v>-0.25</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V116">
         <v>2</v>
@@ -11194,19 +11194,19 @@
         <v>1.8</v>
       </c>
       <c r="X116">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -11220,7 +11220,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6188197</v>
+        <v>6188196</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11229,19 +11229,19 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -11250,43 +11250,43 @@
         <v>53</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N117">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P117">
         <v>3.1</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="R117">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="U117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X117">
-        <v>2.6</v>
+        <v>1.375</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -11295,7 +11295,7 @@
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
@@ -11304,7 +11304,7 @@
         <v>-1</v>
       </c>
       <c r="AD117">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11312,7 +11312,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6188041</v>
+        <v>6188197</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11321,82 +11321,82 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L118">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>2.15</v>
+      </c>
+      <c r="O118">
+        <v>3.6</v>
+      </c>
+      <c r="P118">
         <v>3.1</v>
       </c>
-      <c r="N118">
-        <v>3.5</v>
-      </c>
-      <c r="O118">
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
+        <v>0.5</v>
+      </c>
+      <c r="S118">
+        <v>1.775</v>
+      </c>
+      <c r="T118">
+        <v>2.025</v>
+      </c>
+      <c r="U118">
         <v>2.25</v>
       </c>
-      <c r="P118">
-        <v>3.3</v>
-      </c>
-      <c r="Q118">
-        <v>2.875</v>
-      </c>
-      <c r="R118">
-        <v>-0.25</v>
-      </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>1.8</v>
-      </c>
-      <c r="U118">
-        <v>2.75</v>
-      </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
         <v>-1</v>
       </c>
       <c r="AD118">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11597,7 +11597,7 @@
         <v>45161.25</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
         <v>35</v>
@@ -11965,7 +11965,7 @@
         <v>45164.27083333334</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
         <v>34</v>
@@ -12428,7 +12428,7 @@
         <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -12885,7 +12885,7 @@
         <v>45171.25</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
         <v>44</v>
@@ -13253,7 +13253,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
         <v>37</v>
@@ -14084,7 +14084,7 @@
         <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -14360,7 +14360,7 @@
         <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14541,7 +14541,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
         <v>33</v>
@@ -15001,7 +15001,7 @@
         <v>45186.08333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
         <v>36</v>
@@ -15648,7 +15648,7 @@
         <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -15740,7 +15740,7 @@
         <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -16473,7 +16473,7 @@
         <v>45199.29166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
         <v>31</v>
@@ -16556,7 +16556,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6188228</v>
+        <v>6188068</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16565,64 +16565,64 @@
         <v>45200.04166666666</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K175" t="s">
         <v>53</v>
       </c>
       <c r="L175">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="M175">
+        <v>3.3</v>
+      </c>
+      <c r="N175">
+        <v>2.625</v>
+      </c>
+      <c r="O175">
+        <v>2.55</v>
+      </c>
+      <c r="P175">
         <v>3.2</v>
       </c>
-      <c r="N175">
-        <v>2.4</v>
-      </c>
-      <c r="O175">
-        <v>2.75</v>
-      </c>
-      <c r="P175">
-        <v>3.3</v>
-      </c>
       <c r="Q175">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R175">
         <v>0</v>
       </c>
       <c r="S175">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U175">
         <v>2.5</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X175">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="Y175">
         <v>-1</v>
@@ -16631,13 +16631,13 @@
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD175">
         <v>-1</v>
@@ -16648,7 +16648,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6188068</v>
+        <v>6188228</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16657,64 +16657,64 @@
         <v>45200.04166666666</v>
       </c>
       <c r="E176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K176" t="s">
         <v>53</v>
       </c>
       <c r="L176">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="M176">
+        <v>3.2</v>
+      </c>
+      <c r="N176">
+        <v>2.4</v>
+      </c>
+      <c r="O176">
+        <v>2.75</v>
+      </c>
+      <c r="P176">
         <v>3.3</v>
       </c>
-      <c r="N176">
-        <v>2.625</v>
-      </c>
-      <c r="O176">
-        <v>2.55</v>
-      </c>
-      <c r="P176">
-        <v>3.2</v>
-      </c>
       <c r="Q176">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="R176">
         <v>0</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
         <v>2.5</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X176">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16723,13 +16723,13 @@
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD176">
         <v>-1</v>
@@ -16740,7 +16740,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6188227</v>
+        <v>6188070</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16749,16 +16749,16 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16767,64 +16767,64 @@
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L177">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N177">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O177">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q177">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="R177">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z177">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB177">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD177">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16832,7 +16832,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6188070</v>
+        <v>6188229</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16841,82 +16841,82 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L178">
         <v>2.75</v>
       </c>
       <c r="M178">
+        <v>3.2</v>
+      </c>
+      <c r="N178">
+        <v>2.375</v>
+      </c>
+      <c r="O178">
+        <v>3</v>
+      </c>
+      <c r="P178">
         <v>3.1</v>
       </c>
-      <c r="N178">
-        <v>2.45</v>
-      </c>
-      <c r="O178">
-        <v>2.75</v>
-      </c>
-      <c r="P178">
-        <v>3</v>
-      </c>
       <c r="Q178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W178">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -16924,7 +16924,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6188069</v>
+        <v>6188227</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16933,61 +16933,61 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" t="s">
         <v>52</v>
       </c>
       <c r="L179">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="M179">
+        <v>3.2</v>
+      </c>
+      <c r="N179">
         <v>3.4</v>
       </c>
-      <c r="N179">
-        <v>3.8</v>
-      </c>
       <c r="O179">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="P179">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q179">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="R179">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="U179">
         <v>2.25</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16996,19 +16996,19 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -17016,7 +17016,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6188229</v>
+        <v>6188069</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -17025,10 +17025,10 @@
         <v>45200.08333333334</v>
       </c>
       <c r="E180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -17046,40 +17046,40 @@
         <v>52</v>
       </c>
       <c r="L180">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="M180">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N180">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O180">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="P180">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q180">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="R180">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U180">
         <v>2.25</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -17088,19 +17088,19 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
         <v>-1</v>
       </c>
       <c r="AD180">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17384,7 +17384,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6188071</v>
+        <v>6188232</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17393,52 +17393,52 @@
         <v>45207.04166666666</v>
       </c>
       <c r="E184" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L184">
+        <v>2.8</v>
+      </c>
+      <c r="M184">
+        <v>2.8</v>
+      </c>
+      <c r="N184">
+        <v>2.5</v>
+      </c>
+      <c r="O184">
         <v>3.2</v>
       </c>
-      <c r="M184">
-        <v>3.1</v>
-      </c>
-      <c r="N184">
-        <v>2.1</v>
-      </c>
-      <c r="O184">
-        <v>3.4</v>
-      </c>
       <c r="P184">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q184">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R184">
         <v>0.25</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U184">
         <v>2.25</v>
@@ -17450,19 +17450,19 @@
         <v>1.975</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -17476,7 +17476,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6188232</v>
+        <v>6188071</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17485,52 +17485,52 @@
         <v>45207.04166666666</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L185">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N185">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O185">
+        <v>3.4</v>
+      </c>
+      <c r="P185">
         <v>3.2</v>
       </c>
-      <c r="P185">
-        <v>2.9</v>
-      </c>
       <c r="Q185">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="R185">
         <v>0.25</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U185">
         <v>2.25</v>
@@ -17542,19 +17542,19 @@
         <v>1.975</v>
       </c>
       <c r="X185">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA185">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17660,7 +17660,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6188073</v>
+        <v>6188072</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17669,40 +17669,40 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G187">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K187" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L187">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="M187">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N187">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O187">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P187">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q187">
         <v>3</v>
@@ -17711,40 +17711,40 @@
         <v>-0.25</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD187">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17752,7 +17752,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6188072</v>
+        <v>6188073</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17761,40 +17761,40 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G188">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L188">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="M188">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N188">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O188">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P188">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -17803,40 +17803,40 @@
         <v>-0.25</v>
       </c>
       <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>1.8</v>
+      </c>
+      <c r="U188">
+        <v>2.25</v>
+      </c>
+      <c r="V188">
         <v>1.9</v>
       </c>
-      <c r="T188">
+      <c r="W188">
         <v>1.9</v>
       </c>
-      <c r="U188">
-        <v>2.5</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>1.825</v>
-      </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z188">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD188">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17948,7 +17948,7 @@
         <v>32</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -18773,7 +18773,7 @@
         <v>45214.08333333334</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
         <v>41</v>
@@ -18957,7 +18957,7 @@
         <v>45214.08333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F201" t="s">
         <v>42</v>
@@ -19236,7 +19236,7 @@
         <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -19512,7 +19512,7 @@
         <v>37</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -20613,7 +20613,7 @@
         <v>45228.08333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F219" t="s">
         <v>49</v>
@@ -20797,7 +20797,7 @@
         <v>45228.08333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F221" t="s">
         <v>43</v>
@@ -20984,7 +20984,7 @@
         <v>49</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -21076,7 +21076,7 @@
         <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -21156,7 +21156,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6192539</v>
+        <v>6192538</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -21165,82 +21165,82 @@
         <v>45235.04166666666</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G225">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L225">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="M225">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N225">
+        <v>5</v>
+      </c>
+      <c r="O225">
+        <v>1.65</v>
+      </c>
+      <c r="P225">
         <v>3.8</v>
       </c>
-      <c r="O225">
-        <v>1.75</v>
-      </c>
-      <c r="P225">
-        <v>3.4</v>
-      </c>
       <c r="Q225">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R225">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S225">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U225">
         <v>2.5</v>
       </c>
       <c r="V225">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W225">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD225">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21248,7 +21248,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6192538</v>
+        <v>6192539</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21257,82 +21257,82 @@
         <v>45235.04166666666</v>
       </c>
       <c r="E226" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G226">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L226">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="M226">
+        <v>3.25</v>
+      </c>
+      <c r="N226">
+        <v>3.8</v>
+      </c>
+      <c r="O226">
+        <v>1.75</v>
+      </c>
+      <c r="P226">
+        <v>3.4</v>
+      </c>
+      <c r="Q226">
         <v>4</v>
       </c>
-      <c r="N226">
-        <v>5</v>
-      </c>
-      <c r="O226">
-        <v>1.65</v>
-      </c>
-      <c r="P226">
-        <v>3.8</v>
-      </c>
-      <c r="Q226">
-        <v>4.2</v>
-      </c>
       <c r="R226">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S226">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U226">
         <v>2.5</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z226">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21432,7 +21432,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6192534</v>
+        <v>6192548</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21441,16 +21441,16 @@
         <v>45235.08333333334</v>
       </c>
       <c r="E228" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -21459,64 +21459,64 @@
         <v>0</v>
       </c>
       <c r="K228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L228">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M228">
+        <v>3.4</v>
+      </c>
+      <c r="N228">
         <v>3.8</v>
       </c>
-      <c r="N228">
-        <v>5.5</v>
-      </c>
       <c r="O228">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="P228">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q228">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S228">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T228">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U228">
         <v>2.5</v>
       </c>
       <c r="V228">
+        <v>1.875</v>
+      </c>
+      <c r="W228">
         <v>1.925</v>
       </c>
-      <c r="W228">
-        <v>1.875</v>
-      </c>
       <c r="X228">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC228">
         <v>-1</v>
       </c>
       <c r="AD228">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -21616,7 +21616,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6192548</v>
+        <v>6192534</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -21625,16 +21625,16 @@
         <v>45235.08333333334</v>
       </c>
       <c r="E230" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F230" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -21643,64 +21643,64 @@
         <v>0</v>
       </c>
       <c r="K230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L230">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="M230">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N230">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O230">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="P230">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q230">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U230">
         <v>2.5</v>
       </c>
       <c r="V230">
+        <v>1.925</v>
+      </c>
+      <c r="W230">
         <v>1.875</v>
       </c>
-      <c r="W230">
-        <v>1.925</v>
-      </c>
       <c r="X230">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB230">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC230">
         <v>-1</v>
       </c>
       <c r="AD230">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -22180,7 +22180,7 @@
         <v>47</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -22444,7 +22444,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6192709</v>
+        <v>6192701</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22453,34 +22453,34 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L239">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="M239">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N239">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O239">
         <v>2</v>
@@ -22495,40 +22495,40 @@
         <v>-0.25</v>
       </c>
       <c r="S239">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U239">
         <v>2.25</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD239">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22536,7 +22536,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6192700</v>
+        <v>6192709</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22545,82 +22545,82 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G240">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L240">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M240">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N240">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O240">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P240">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S240">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T240">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U240">
         <v>2.25</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X240">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA240">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD240">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22628,7 +22628,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6192701</v>
+        <v>6192700</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22637,13 +22637,13 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -22658,43 +22658,43 @@
         <v>53</v>
       </c>
       <c r="L241">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N241">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O241">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q241">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R241">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T241">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U241">
         <v>2.25</v>
       </c>
       <c r="V241">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X241">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="Y241">
         <v>-1</v>
@@ -22703,16 +22703,16 @@
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD241">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -23373,10 +23373,10 @@
         <v>45249.08333333334</v>
       </c>
       <c r="E249" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249" t="s">
         <v>39</v>
-      </c>
-      <c r="F249" t="s">
-        <v>38</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -23836,7 +23836,7 @@
         <v>48</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -24020,7 +24020,7 @@
         <v>47</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -24560,7 +24560,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6195256</v>
+        <v>6195255</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24569,16 +24569,16 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E262" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F262" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -24587,64 +24587,64 @@
         <v>1</v>
       </c>
       <c r="K262" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L262">
         <v>2</v>
       </c>
       <c r="M262">
+        <v>3.3</v>
+      </c>
+      <c r="N262">
+        <v>3.25</v>
+      </c>
+      <c r="O262">
+        <v>2.1</v>
+      </c>
+      <c r="P262">
         <v>3.4</v>
       </c>
-      <c r="N262">
+      <c r="Q262">
         <v>3.1</v>
       </c>
-      <c r="O262">
-        <v>1.909</v>
-      </c>
-      <c r="P262">
-        <v>3.5</v>
-      </c>
-      <c r="Q262">
-        <v>3.6</v>
-      </c>
       <c r="R262">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S262">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T262">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U262">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V262">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC262">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD262">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -24652,7 +24652,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6195257</v>
+        <v>6195256</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -24661,82 +24661,82 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E263" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F263" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G263">
         <v>2</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263">
         <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L263">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="M263">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N263">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O263">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="P263">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q263">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="R263">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S263">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T263">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U263">
         <v>2.75</v>
       </c>
       <c r="V263">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W263">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X263">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AC263">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AD263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -24744,7 +24744,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6195259</v>
+        <v>6195257</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -24753,82 +24753,82 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E264" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H264">
         <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K264" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L264">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="M264">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N264">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O264">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P264">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q264">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="R264">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T264">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U264">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V264">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W264">
         <v>1.95</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD264">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:30">
@@ -24836,7 +24836,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6195260</v>
+        <v>6195259</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
@@ -24845,61 +24845,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F265" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K265" t="s">
         <v>52</v>
       </c>
       <c r="L265">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M265">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N265">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O265">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="P265">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q265">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="R265">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S265">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U265">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W265">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24908,19 +24908,19 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>1.15</v>
+        <v>3.5</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC265">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AD265">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -24928,7 +24928,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6195261</v>
+        <v>6195260</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -24937,52 +24937,52 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E266" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G266">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K266" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L266">
         <v>3</v>
       </c>
       <c r="M266">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N266">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O266">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P266">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q266">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="R266">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S266">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T266">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U266">
         <v>2.75</v>
@@ -24997,22 +24997,22 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA266">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD266">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -25020,7 +25020,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6195254</v>
+        <v>6195261</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
@@ -25029,16 +25029,16 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E267" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -25050,61 +25050,61 @@
         <v>54</v>
       </c>
       <c r="L267">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M267">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N267">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O267">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="P267">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q267">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="R267">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S267">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U267">
         <v>2.75</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W267">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB267">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
         <v>-1</v>
       </c>
       <c r="AD267">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:30">
@@ -25112,7 +25112,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6195252</v>
+        <v>6195254</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25121,10 +25121,10 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F268" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -25142,46 +25142,46 @@
         <v>54</v>
       </c>
       <c r="L268">
+        <v>2.3</v>
+      </c>
+      <c r="M268">
+        <v>3.25</v>
+      </c>
+      <c r="N268">
+        <v>2.7</v>
+      </c>
+      <c r="O268">
         <v>2.1</v>
       </c>
-      <c r="M268">
-        <v>3.3</v>
-      </c>
-      <c r="N268">
-        <v>3</v>
-      </c>
-      <c r="O268">
-        <v>2.3</v>
-      </c>
       <c r="P268">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q268">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="R268">
         <v>-0.25</v>
       </c>
       <c r="S268">
+        <v>1.825</v>
+      </c>
+      <c r="T268">
         <v>1.975</v>
       </c>
-      <c r="T268">
-        <v>1.825</v>
-      </c>
       <c r="U268">
+        <v>2.75</v>
+      </c>
+      <c r="V268">
+        <v>1.875</v>
+      </c>
+      <c r="W268">
+        <v>1.925</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
         <v>2.5</v>
-      </c>
-      <c r="V268">
-        <v>1.825</v>
-      </c>
-      <c r="W268">
-        <v>1.975</v>
-      </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
-      <c r="Y268">
-        <v>2.2</v>
       </c>
       <c r="Z268">
         <v>-1</v>
@@ -25190,13 +25190,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB268">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AC268">
         <v>-1</v>
       </c>
       <c r="AD268">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25204,7 +25204,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6195255</v>
+        <v>6195258</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25213,61 +25213,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E269" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" t="s">
         <v>52</v>
       </c>
       <c r="L269">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M269">
         <v>3.3</v>
       </c>
       <c r="N269">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O269">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="P269">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q269">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R269">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S269">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T269">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U269">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V269">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -25276,19 +25276,19 @@
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD269">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25296,7 +25296,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6195253</v>
+        <v>6195252</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25305,13 +25305,13 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E270" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -25323,34 +25323,34 @@
         <v>0</v>
       </c>
       <c r="K270" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L270">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M270">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N270">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O270">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P270">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q270">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="R270">
         <v>-0.25</v>
       </c>
       <c r="S270">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T270">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U270">
         <v>2.5</v>
@@ -25362,19 +25362,19 @@
         <v>1.975</v>
       </c>
       <c r="X270">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z270">
         <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -25388,7 +25388,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6195258</v>
+        <v>6195253</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -25397,46 +25397,46 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E271" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F271" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
       <c r="K271" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L271">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="M271">
+        <v>3.25</v>
+      </c>
+      <c r="N271">
         <v>3.3</v>
       </c>
-      <c r="N271">
-        <v>2.25</v>
-      </c>
       <c r="O271">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="P271">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q271">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="R271">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S271">
         <v>1.775</v>
@@ -25445,34 +25445,34 @@
         <v>2.025</v>
       </c>
       <c r="U271">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V271">
+        <v>1.825</v>
+      </c>
+      <c r="W271">
         <v>1.975</v>
       </c>
-      <c r="W271">
-        <v>1.825</v>
-      </c>
       <c r="X271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB271">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
+        <v>-1</v>
+      </c>
+      <c r="AD271">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD271">
-        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25584,7 +25584,7 @@
         <v>50</v>
       </c>
       <c r="F273" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G273">
         <v>4</v>
@@ -26136,7 +26136,7 @@
         <v>40</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -26412,7 +26412,7 @@
         <v>43</v>
       </c>
       <c r="F282" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -26596,7 +26596,7 @@
         <v>44</v>
       </c>
       <c r="F284" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -27421,7 +27421,7 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F293" t="s">
         <v>33</v>
@@ -28525,10 +28525,10 @@
         <v>45368.04166666666</v>
       </c>
       <c r="E305" t="s">
+        <v>38</v>
+      </c>
+      <c r="F305" t="s">
         <v>39</v>
-      </c>
-      <c r="F305" t="s">
-        <v>38</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -29264,7 +29264,7 @@
         <v>33</v>
       </c>
       <c r="F313" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>45371.08333333334</v>
       </c>
       <c r="E316" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F316" t="s">
         <v>51</v>
@@ -30089,7 +30089,7 @@
         <v>45375.04166666666</v>
       </c>
       <c r="E322" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F322" t="s">
         <v>45</v>
@@ -30460,7 +30460,7 @@
         <v>30</v>
       </c>
       <c r="F326" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -31012,7 +31012,7 @@
         <v>35</v>
       </c>
       <c r="F332" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G332">
         <v>3</v>
@@ -31104,7 +31104,7 @@
         <v>37</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -31644,7 +31644,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7752052</v>
+        <v>7751917</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -31653,52 +31653,52 @@
         <v>45388.04166666666</v>
       </c>
       <c r="E339" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F339" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I339">
         <v>0</v>
       </c>
       <c r="J339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K339" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L339">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="M339">
+        <v>3.3</v>
+      </c>
+      <c r="N339">
+        <v>3.6</v>
+      </c>
+      <c r="O339">
+        <v>2</v>
+      </c>
+      <c r="P339">
         <v>3.1</v>
       </c>
-      <c r="N339">
-        <v>2.7</v>
-      </c>
-      <c r="O339">
-        <v>2.55</v>
-      </c>
-      <c r="P339">
-        <v>3</v>
-      </c>
       <c r="Q339">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="R339">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S339">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T339">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U339">
         <v>2.25</v>
@@ -31710,25 +31710,25 @@
         <v>1.825</v>
       </c>
       <c r="X339">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC339">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD339">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -31736,7 +31736,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7751917</v>
+        <v>7752052</v>
       </c>
       <c r="C340" t="s">
         <v>29</v>
@@ -31745,52 +31745,52 @@
         <v>45388.04166666666</v>
       </c>
       <c r="E340" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F340" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340" t="s">
+        <v>53</v>
+      </c>
+      <c r="L340">
+        <v>2.4</v>
+      </c>
+      <c r="M340">
+        <v>3.1</v>
+      </c>
+      <c r="N340">
+        <v>2.7</v>
+      </c>
+      <c r="O340">
+        <v>2.55</v>
+      </c>
+      <c r="P340">
         <v>3</v>
       </c>
-      <c r="H340">
-        <v>3</v>
-      </c>
-      <c r="I340">
-        <v>0</v>
-      </c>
-      <c r="J340">
-        <v>1</v>
-      </c>
-      <c r="K340" t="s">
-        <v>54</v>
-      </c>
-      <c r="L340">
+      <c r="Q340">
+        <v>2.55</v>
+      </c>
+      <c r="R340">
+        <v>0</v>
+      </c>
+      <c r="S340">
         <v>1.9</v>
       </c>
-      <c r="M340">
-        <v>3.3</v>
-      </c>
-      <c r="N340">
-        <v>3.6</v>
-      </c>
-      <c r="O340">
-        <v>2</v>
-      </c>
-      <c r="P340">
-        <v>3.1</v>
-      </c>
-      <c r="Q340">
-        <v>3.5</v>
-      </c>
-      <c r="R340">
-        <v>-0.25</v>
-      </c>
-      <c r="S340">
-        <v>1.775</v>
-      </c>
       <c r="T340">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U340">
         <v>2.25</v>
@@ -31802,25 +31802,25 @@
         <v>1.825</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y340">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB340">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD340">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="341" spans="1:30">
@@ -31828,7 +31828,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7751920</v>
+        <v>7751919</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
@@ -31837,64 +31837,64 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E341" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F341" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341">
         <v>0</v>
       </c>
       <c r="J341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K341" t="s">
         <v>53</v>
       </c>
       <c r="L341">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M341">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N341">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O341">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="P341">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q341">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="R341">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S341">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T341">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U341">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V341">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W341">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X341">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="Y341">
         <v>-1</v>
@@ -31903,16 +31903,16 @@
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB341">
         <v>-1</v>
       </c>
       <c r="AC341">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD341">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:30">
@@ -31920,7 +31920,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7751919</v>
+        <v>7751920</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -31929,64 +31929,64 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E342" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
       <c r="J342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K342" t="s">
         <v>53</v>
       </c>
       <c r="L342">
+        <v>3.8</v>
+      </c>
+      <c r="M342">
+        <v>3.25</v>
+      </c>
+      <c r="N342">
+        <v>1.833</v>
+      </c>
+      <c r="O342">
+        <v>3.4</v>
+      </c>
+      <c r="P342">
+        <v>3.1</v>
+      </c>
+      <c r="Q342">
+        <v>2</v>
+      </c>
+      <c r="R342">
+        <v>0.5</v>
+      </c>
+      <c r="S342">
+        <v>1.725</v>
+      </c>
+      <c r="T342">
+        <v>1.975</v>
+      </c>
+      <c r="U342">
         <v>2.25</v>
       </c>
-      <c r="M342">
-        <v>3.5</v>
-      </c>
-      <c r="N342">
-        <v>2.6</v>
-      </c>
-      <c r="O342">
-        <v>2.15</v>
-      </c>
-      <c r="P342">
-        <v>3.3</v>
-      </c>
-      <c r="Q342">
-        <v>2.8</v>
-      </c>
-      <c r="R342">
-        <v>-0.25</v>
-      </c>
-      <c r="S342">
+      <c r="V342">
         <v>1.975</v>
       </c>
-      <c r="T342">
+      <c r="W342">
         <v>1.825</v>
       </c>
-      <c r="U342">
-        <v>2</v>
-      </c>
-      <c r="V342">
-        <v>1.8</v>
-      </c>
-      <c r="W342">
-        <v>2</v>
-      </c>
       <c r="X342">
-        <v>1.15</v>
+        <v>2.4</v>
       </c>
       <c r="Y342">
         <v>-1</v>
@@ -31995,16 +31995,16 @@
         <v>-1</v>
       </c>
       <c r="AA342">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB342">
+        <v>-1</v>
+      </c>
+      <c r="AC342">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB342">
-        <v>-1</v>
-      </c>
-      <c r="AC342">
-        <v>-1</v>
-      </c>
       <c r="AD342">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -32012,7 +32012,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7751918</v>
+        <v>7752053</v>
       </c>
       <c r="C343" t="s">
         <v>29</v>
@@ -32021,16 +32021,16 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E343" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F343" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G343">
         <v>1</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343">
         <v>0</v>
@@ -32039,64 +32039,64 @@
         <v>0</v>
       </c>
       <c r="K343" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L343">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="M343">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N343">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="O343">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="P343">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q343">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R343">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S343">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T343">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U343">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V343">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W343">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X343">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB343">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC343">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD343">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:30">
@@ -32104,7 +32104,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7752053</v>
+        <v>7752054</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32113,82 +32113,82 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E344" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F344" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G344">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K344" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L344">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="M344">
         <v>3</v>
       </c>
       <c r="N344">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O344">
+        <v>2.75</v>
+      </c>
+      <c r="P344">
         <v>3</v>
       </c>
-      <c r="P344">
-        <v>2.9</v>
-      </c>
       <c r="Q344">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R344">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S344">
+        <v>2.025</v>
+      </c>
+      <c r="T344">
         <v>1.775</v>
       </c>
-      <c r="T344">
-        <v>2.025</v>
-      </c>
       <c r="U344">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V344">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W344">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X344">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y344">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
         <v>-1</v>
       </c>
       <c r="AA344">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB344">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC344">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD344">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32196,7 +32196,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7752054</v>
+        <v>7751918</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32205,64 +32205,64 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E345" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F345" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G345">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K345" t="s">
         <v>53</v>
       </c>
       <c r="L345">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="M345">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N345">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="O345">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="P345">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q345">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="R345">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S345">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T345">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U345">
         <v>2.25</v>
       </c>
       <c r="V345">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W345">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X345">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
@@ -32271,16 +32271,16 @@
         <v>-1</v>
       </c>
       <c r="AA345">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB345">
         <v>-1</v>
       </c>
       <c r="AC345">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD345">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -32380,7 +32380,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7752056</v>
+        <v>7752057</v>
       </c>
       <c r="C347" t="s">
         <v>29</v>
@@ -32389,82 +32389,82 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E347" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F347" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K347" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L347">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M347">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N347">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O347">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P347">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q347">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="R347">
         <v>-0.25</v>
       </c>
       <c r="S347">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T347">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U347">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W347">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC347">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD347">
-        <v>0.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:30">
@@ -32472,7 +32472,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7752057</v>
+        <v>7752056</v>
       </c>
       <c r="C348" t="s">
         <v>29</v>
@@ -32481,82 +32481,82 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E348" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F348" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K348" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L348">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M348">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N348">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O348">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P348">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q348">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="R348">
         <v>-0.25</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T348">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U348">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V348">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W348">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z348">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB348">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC348">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD348">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="349" spans="1:30">
@@ -32656,7 +32656,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7752059</v>
+        <v>7752060</v>
       </c>
       <c r="C350" t="s">
         <v>29</v>
@@ -32665,61 +32665,61 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E350" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F350" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G350">
         <v>0</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350">
         <v>0</v>
       </c>
       <c r="J350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K350" t="s">
         <v>52</v>
       </c>
       <c r="L350">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="M350">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N350">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O350">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="P350">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q350">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="R350">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S350">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T350">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U350">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W350">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X350">
         <v>-1</v>
@@ -32728,19 +32728,19 @@
         <v>-1</v>
       </c>
       <c r="Z350">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="AA350">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC350">
         <v>-1</v>
       </c>
       <c r="AD350">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:30">
@@ -32748,7 +32748,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7751922</v>
+        <v>7751924</v>
       </c>
       <c r="C351" t="s">
         <v>29</v>
@@ -32757,82 +32757,82 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E351" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F351" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351">
         <v>1</v>
       </c>
       <c r="J351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K351" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L351">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="M351">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N351">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O351">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="P351">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q351">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="R351">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S351">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T351">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U351">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V351">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W351">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X351">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA351">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC351">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD351">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:30">
@@ -32840,7 +32840,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7751923</v>
+        <v>7752058</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -32849,82 +32849,82 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F352" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G352">
         <v>2</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K352" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L352">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="M352">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N352">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O352">
+        <v>2.625</v>
+      </c>
+      <c r="P352">
+        <v>3.2</v>
+      </c>
+      <c r="Q352">
+        <v>2.4</v>
+      </c>
+      <c r="R352">
+        <v>0</v>
+      </c>
+      <c r="S352">
+        <v>2</v>
+      </c>
+      <c r="T352">
+        <v>1.8</v>
+      </c>
+      <c r="U352">
+        <v>2.5</v>
+      </c>
+      <c r="V352">
+        <v>2</v>
+      </c>
+      <c r="W352">
+        <v>1.8</v>
+      </c>
+      <c r="X352">
+        <v>-1</v>
+      </c>
+      <c r="Y352">
         <v>2.2</v>
       </c>
-      <c r="P352">
-        <v>2.9</v>
-      </c>
-      <c r="Q352">
-        <v>3.2</v>
-      </c>
-      <c r="R352">
-        <v>-0.25</v>
-      </c>
-      <c r="S352">
-        <v>1.95</v>
-      </c>
-      <c r="T352">
-        <v>1.85</v>
-      </c>
-      <c r="U352">
-        <v>2</v>
-      </c>
-      <c r="V352">
-        <v>1.775</v>
-      </c>
-      <c r="W352">
-        <v>2.025</v>
-      </c>
-      <c r="X352">
-        <v>1.2</v>
-      </c>
-      <c r="Y352">
-        <v>-1</v>
-      </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD352">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -32944,7 +32944,7 @@
         <v>49</v>
       </c>
       <c r="F353" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -33024,7 +33024,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7752061</v>
+        <v>7751923</v>
       </c>
       <c r="C354" t="s">
         <v>29</v>
@@ -33033,61 +33033,61 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E354" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F354" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G354">
         <v>2</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K354" t="s">
         <v>53</v>
       </c>
       <c r="L354">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M354">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N354">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O354">
         <v>2.2</v>
       </c>
       <c r="P354">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q354">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R354">
         <v>-0.25</v>
       </c>
       <c r="S354">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T354">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U354">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V354">
+        <v>1.775</v>
+      </c>
+      <c r="W354">
         <v>2.025</v>
-      </c>
-      <c r="W354">
-        <v>1.775</v>
       </c>
       <c r="X354">
         <v>1.2</v>
@@ -33099,16 +33099,16 @@
         <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB354">
         <v>-1</v>
       </c>
       <c r="AC354">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AD354">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:30">
@@ -33116,7 +33116,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7752058</v>
+        <v>7752059</v>
       </c>
       <c r="C355" t="s">
         <v>29</v>
@@ -33125,82 +33125,82 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E355" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F355" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G355">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355">
         <v>0</v>
       </c>
       <c r="J355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K355" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L355">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M355">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N355">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O355">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P355">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q355">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="R355">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S355">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T355">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U355">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V355">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W355">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA355">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB355">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC355">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD355">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="356" spans="1:30">
@@ -33208,7 +33208,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7752060</v>
+        <v>7751922</v>
       </c>
       <c r="C356" t="s">
         <v>29</v>
@@ -33217,40 +33217,40 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E356" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F356" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K356" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L356">
         <v>2.15</v>
       </c>
       <c r="M356">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N356">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O356">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="P356">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q356">
         <v>3.2</v>
@@ -33259,40 +33259,40 @@
         <v>-0.25</v>
       </c>
       <c r="S356">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T356">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U356">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V356">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W356">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB356">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC356">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD356">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:30">
@@ -33300,7 +33300,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7751924</v>
+        <v>7752061</v>
       </c>
       <c r="C357" t="s">
         <v>29</v>
@@ -33309,79 +33309,79 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E357" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F357" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J357">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K357" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L357">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="M357">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N357">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="O357">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="P357">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q357">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="R357">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S357">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T357">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U357">
         <v>2.25</v>
       </c>
       <c r="V357">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W357">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X357">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y357">
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA357">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB357">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC357">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AD357">
         <v>-1</v>
@@ -33585,7 +33585,7 @@
         <v>45396.04166666666</v>
       </c>
       <c r="E360" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F360" t="s">
         <v>46</v>
@@ -33677,7 +33677,7 @@
         <v>45396.08333333334</v>
       </c>
       <c r="E361" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F361" t="s">
         <v>37</v>
@@ -34597,7 +34597,7 @@
         <v>45403.04166666666</v>
       </c>
       <c r="E371" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F371" t="s">
         <v>32</v>
@@ -35244,7 +35244,7 @@
         <v>31</v>
       </c>
       <c r="F378" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G378">
         <v>3</v>
@@ -35428,7 +35428,7 @@
         <v>43</v>
       </c>
       <c r="F380" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G380">
         <v>1</v>
@@ -35793,7 +35793,7 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E384" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F384" t="s">
         <v>47</v>
@@ -35876,7 +35876,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7751937</v>
+        <v>7751935</v>
       </c>
       <c r="C385" t="s">
         <v>29</v>
@@ -35885,55 +35885,55 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E385" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F385" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G385">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K385" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L385">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M385">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N385">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O385">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P385">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q385">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R385">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S385">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T385">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U385">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V385">
         <v>2.025</v>
@@ -35942,25 +35942,25 @@
         <v>1.775</v>
       </c>
       <c r="X385">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y385">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z385">
         <v>-1</v>
       </c>
       <c r="AA385">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC385">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD385">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="386" spans="1:30">
@@ -35968,7 +35968,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7751938</v>
+        <v>7751937</v>
       </c>
       <c r="C386" t="s">
         <v>29</v>
@@ -35977,82 +35977,82 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E386" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F386" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H386">
         <v>1</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K386" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L386">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="M386">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N386">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="O386">
+        <v>3.1</v>
+      </c>
+      <c r="P386">
+        <v>3</v>
+      </c>
+      <c r="Q386">
+        <v>2.2</v>
+      </c>
+      <c r="R386">
+        <v>0.25</v>
+      </c>
+      <c r="S386">
         <v>1.85</v>
       </c>
-      <c r="P386">
-        <v>3.25</v>
-      </c>
-      <c r="Q386">
-        <v>3.75</v>
-      </c>
-      <c r="R386">
-        <v>-0.5</v>
-      </c>
-      <c r="S386">
-        <v>1.925</v>
-      </c>
       <c r="T386">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U386">
         <v>2.25</v>
       </c>
       <c r="V386">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W386">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="X386">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y386">
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA386">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB386">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC386">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD386">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:30">
@@ -36060,7 +36060,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7752075</v>
+        <v>7751938</v>
       </c>
       <c r="C387" t="s">
         <v>29</v>
@@ -36069,16 +36069,16 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E387" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F387" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G387">
         <v>0</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387">
         <v>0</v>
@@ -36090,40 +36090,40 @@
         <v>52</v>
       </c>
       <c r="L387">
+        <v>1.8</v>
+      </c>
+      <c r="M387">
+        <v>3.25</v>
+      </c>
+      <c r="N387">
         <v>4</v>
       </c>
-      <c r="M387">
-        <v>3.5</v>
-      </c>
-      <c r="N387">
-        <v>1.75</v>
-      </c>
       <c r="O387">
+        <v>1.85</v>
+      </c>
+      <c r="P387">
+        <v>3.25</v>
+      </c>
+      <c r="Q387">
         <v>3.75</v>
       </c>
-      <c r="P387">
-        <v>3.3</v>
-      </c>
-      <c r="Q387">
-        <v>1.833</v>
-      </c>
       <c r="R387">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S387">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T387">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U387">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V387">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W387">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="X387">
         <v>-1</v>
@@ -36132,19 +36132,19 @@
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.833</v>
+        <v>2.75</v>
       </c>
       <c r="AA387">
         <v>-1</v>
       </c>
       <c r="AB387">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC387">
         <v>-1</v>
       </c>
       <c r="AD387">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="388" spans="1:30">
@@ -36152,7 +36152,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7752076</v>
+        <v>7752075</v>
       </c>
       <c r="C388" t="s">
         <v>29</v>
@@ -36161,13 +36161,13 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E388" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F388" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -36182,40 +36182,40 @@
         <v>52</v>
       </c>
       <c r="L388">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M388">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N388">
+        <v>1.75</v>
+      </c>
+      <c r="O388">
         <v>3.75</v>
       </c>
-      <c r="O388">
-        <v>2</v>
-      </c>
       <c r="P388">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q388">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="R388">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S388">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T388">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U388">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V388">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W388">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X388">
         <v>-1</v>
@@ -36224,19 +36224,19 @@
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>2.4</v>
+        <v>0.833</v>
       </c>
       <c r="AA388">
         <v>-1</v>
       </c>
       <c r="AB388">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC388">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD388">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="389" spans="1:30">
@@ -36244,7 +36244,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7752078</v>
+        <v>7752076</v>
       </c>
       <c r="C389" t="s">
         <v>29</v>
@@ -36253,16 +36253,16 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E389" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F389" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389">
         <v>0</v>
@@ -36271,22 +36271,22 @@
         <v>0</v>
       </c>
       <c r="K389" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L389">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="M389">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N389">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O389">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P389">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q389">
         <v>3.4</v>
@@ -36295,40 +36295,40 @@
         <v>-0.25</v>
       </c>
       <c r="S389">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T389">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U389">
         <v>2.25</v>
       </c>
       <c r="V389">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W389">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X389">
         <v>-1</v>
       </c>
       <c r="Y389">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z389">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA389">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB389">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC389">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD389">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -36336,7 +36336,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7751935</v>
+        <v>7752078</v>
       </c>
       <c r="C390" t="s">
         <v>29</v>
@@ -36345,10 +36345,10 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E390" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F390" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -36366,61 +36366,61 @@
         <v>54</v>
       </c>
       <c r="L390">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="M390">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N390">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O390">
+        <v>2.1</v>
+      </c>
+      <c r="P390">
         <v>2.9</v>
       </c>
-      <c r="P390">
-        <v>2.7</v>
-      </c>
       <c r="Q390">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R390">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S390">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T390">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U390">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V390">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W390">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X390">
         <v>-1</v>
       </c>
       <c r="Y390">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Z390">
         <v>-1</v>
       </c>
       <c r="AA390">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB390">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC390">
         <v>-1</v>
       </c>
       <c r="AD390">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="391" spans="1:30">
@@ -36520,7 +36520,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7751940</v>
+        <v>7752080</v>
       </c>
       <c r="C392" t="s">
         <v>29</v>
@@ -36529,82 +36529,82 @@
         <v>45418.04166666666</v>
       </c>
       <c r="E392" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F392" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K392" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L392">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M392">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N392">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O392">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="P392">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q392">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="R392">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S392">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T392">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U392">
         <v>2.25</v>
       </c>
       <c r="V392">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W392">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X392">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y392">
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA392">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB392">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC392">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD392">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:30">
@@ -36612,7 +36612,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7751939</v>
+        <v>7751940</v>
       </c>
       <c r="C393" t="s">
         <v>29</v>
@@ -36621,52 +36621,52 @@
         <v>45418.04166666666</v>
       </c>
       <c r="E393" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F393" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G393">
         <v>0</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K393" t="s">
         <v>52</v>
       </c>
       <c r="L393">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M393">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N393">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O393">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P393">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q393">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="R393">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S393">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T393">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U393">
         <v>2.25</v>
@@ -36684,19 +36684,19 @@
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="AA393">
         <v>-1</v>
       </c>
       <c r="AB393">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC393">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD393">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="394" spans="1:30">
@@ -36704,7 +36704,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7752080</v>
+        <v>7751939</v>
       </c>
       <c r="C394" t="s">
         <v>29</v>
@@ -36713,82 +36713,82 @@
         <v>45418.04166666666</v>
       </c>
       <c r="E394" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F394" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G394">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H394">
         <v>1</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394">
         <v>1</v>
       </c>
       <c r="K394" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L394">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M394">
         <v>3.4</v>
       </c>
       <c r="N394">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O394">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P394">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q394">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="R394">
         <v>-0.5</v>
       </c>
       <c r="S394">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T394">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U394">
         <v>2.25</v>
       </c>
       <c r="V394">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W394">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X394">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y394">
         <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA394">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC394">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD394">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:30">
@@ -36796,7 +36796,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7751941</v>
+        <v>7752082</v>
       </c>
       <c r="C395" t="s">
         <v>29</v>
@@ -36805,82 +36805,82 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E395" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F395" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G395">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395">
         <v>0</v>
       </c>
       <c r="K395" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L395">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="M395">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N395">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="O395">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="P395">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q395">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="R395">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S395">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T395">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U395">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V395">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W395">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X395">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z395">
         <v>-1</v>
       </c>
       <c r="AA395">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC395">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD395">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="396" spans="1:30">
@@ -36980,7 +36980,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7752082</v>
+        <v>7751941</v>
       </c>
       <c r="C397" t="s">
         <v>29</v>
@@ -36989,82 +36989,82 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E397" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F397" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397">
         <v>0</v>
       </c>
       <c r="K397" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L397">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="M397">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N397">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="O397">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="P397">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q397">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="R397">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S397">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T397">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U397">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V397">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W397">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X397">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y397">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z397">
         <v>-1</v>
       </c>
       <c r="AA397">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB397">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC397">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD397">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -37072,7 +37072,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7752084</v>
+        <v>7752081</v>
       </c>
       <c r="C398" t="s">
         <v>29</v>
@@ -37081,82 +37081,82 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E398" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F398" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398">
         <v>0</v>
       </c>
       <c r="K398" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L398">
+        <v>1.8</v>
+      </c>
+      <c r="M398">
+        <v>3.25</v>
+      </c>
+      <c r="N398">
+        <v>4</v>
+      </c>
+      <c r="O398">
+        <v>1.8</v>
+      </c>
+      <c r="P398">
+        <v>3.3</v>
+      </c>
+      <c r="Q398">
+        <v>3.8</v>
+      </c>
+      <c r="R398">
+        <v>-0.5</v>
+      </c>
+      <c r="S398">
+        <v>1.825</v>
+      </c>
+      <c r="T398">
+        <v>1.975</v>
+      </c>
+      <c r="U398">
+        <v>2.25</v>
+      </c>
+      <c r="V398">
+        <v>1.75</v>
+      </c>
+      <c r="W398">
+        <v>1.95</v>
+      </c>
+      <c r="X398">
+        <v>-1</v>
+      </c>
+      <c r="Y398">
+        <v>-1</v>
+      </c>
+      <c r="Z398">
         <v>2.8</v>
       </c>
-      <c r="M398">
-        <v>2.9</v>
-      </c>
-      <c r="N398">
-        <v>2.4</v>
-      </c>
-      <c r="O398">
-        <v>2.75</v>
-      </c>
-      <c r="P398">
-        <v>2.8</v>
-      </c>
-      <c r="Q398">
-        <v>2.5</v>
-      </c>
-      <c r="R398">
-        <v>0</v>
-      </c>
-      <c r="S398">
-        <v>2.025</v>
-      </c>
-      <c r="T398">
-        <v>1.775</v>
-      </c>
-      <c r="U398">
-        <v>2</v>
-      </c>
-      <c r="V398">
-        <v>1.95</v>
-      </c>
-      <c r="W398">
-        <v>1.85</v>
-      </c>
-      <c r="X398">
-        <v>1.75</v>
-      </c>
-      <c r="Y398">
-        <v>-1</v>
-      </c>
-      <c r="Z398">
-        <v>-1</v>
-      </c>
       <c r="AA398">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC398">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD398">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="399" spans="1:30">
@@ -37164,7 +37164,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7752081</v>
+        <v>7752083</v>
       </c>
       <c r="C399" t="s">
         <v>29</v>
@@ -37173,82 +37173,82 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E399" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F399" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G399">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I399">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J399">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K399" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L399">
         <v>1.8</v>
       </c>
       <c r="M399">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N399">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O399">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P399">
         <v>3.3</v>
       </c>
       <c r="Q399">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="R399">
         <v>-0.5</v>
       </c>
       <c r="S399">
+        <v>1.925</v>
+      </c>
+      <c r="T399">
+        <v>1.875</v>
+      </c>
+      <c r="U399">
+        <v>2.5</v>
+      </c>
+      <c r="V399">
         <v>1.825</v>
       </c>
-      <c r="T399">
+      <c r="W399">
         <v>1.975</v>
       </c>
-      <c r="U399">
-        <v>2.25</v>
-      </c>
-      <c r="V399">
-        <v>1.75</v>
-      </c>
-      <c r="W399">
-        <v>1.95</v>
-      </c>
       <c r="X399">
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z399">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA399">
         <v>-1</v>
       </c>
       <c r="AB399">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC399">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD399">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400" spans="1:30">
@@ -37256,7 +37256,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7752083</v>
+        <v>7752084</v>
       </c>
       <c r="C400" t="s">
         <v>29</v>
@@ -37265,82 +37265,82 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E400" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F400" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H400">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J400">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K400" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L400">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M400">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N400">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="O400">
+        <v>2.75</v>
+      </c>
+      <c r="P400">
+        <v>2.8</v>
+      </c>
+      <c r="Q400">
+        <v>2.5</v>
+      </c>
+      <c r="R400">
+        <v>0</v>
+      </c>
+      <c r="S400">
+        <v>2.025</v>
+      </c>
+      <c r="T400">
+        <v>1.775</v>
+      </c>
+      <c r="U400">
+        <v>2</v>
+      </c>
+      <c r="V400">
+        <v>1.95</v>
+      </c>
+      <c r="W400">
         <v>1.85</v>
       </c>
-      <c r="P400">
-        <v>3.3</v>
-      </c>
-      <c r="Q400">
-        <v>3.5</v>
-      </c>
-      <c r="R400">
-        <v>-0.5</v>
-      </c>
-      <c r="S400">
-        <v>1.925</v>
-      </c>
-      <c r="T400">
-        <v>1.875</v>
-      </c>
-      <c r="U400">
-        <v>2.5</v>
-      </c>
-      <c r="V400">
-        <v>1.825</v>
-      </c>
-      <c r="W400">
-        <v>1.975</v>
-      </c>
       <c r="X400">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y400">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z400">
         <v>-1</v>
       </c>
       <c r="AA400">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB400">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC400">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD400">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="401" spans="1:30">
@@ -37633,7 +37633,7 @@
         <v>45430.08333333334</v>
       </c>
       <c r="E404" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F404" t="s">
         <v>36</v>
@@ -38280,7 +38280,7 @@
         <v>42</v>
       </c>
       <c r="F411" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G411">
         <v>0</v>

--- a/Japan J3League/Japan J3League.xlsx
+++ b/Japan J3League/Japan J3League.xlsx
@@ -130,10 +130,10 @@
     <t>Gainare Tottori</t>
   </si>
   <si>
-    <t>Vanraure Hachinohe</t>
+    <t>Kataller Toyama</t>
   </si>
   <si>
-    <t>Kataller Toyama</t>
+    <t>Vanraure Hachinohe</t>
   </si>
   <si>
     <t>YSCC</t>
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6187994</v>
+        <v>6188133</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1388,79 +1388,79 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O10">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q10">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S10">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y10">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6188133</v>
+        <v>6187994</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1480,79 +1480,79 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N11">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O11">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="P11">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="R11">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T11">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X11">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1664,7 +1664,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>45088.08333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -2768,7 +2768,7 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>45095.08333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
@@ -3676,7 +3676,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6188149</v>
+        <v>6188148</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3685,16 +3685,16 @@
         <v>45101.25</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="M35">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="P35">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="R35">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T35">
         <v>1.975</v>
@@ -3736,31 +3736,31 @@
         <v>2.25</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.4125</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
         <v>-0.5</v>
       </c>
       <c r="AD35">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3768,7 +3768,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6188007</v>
+        <v>6188149</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3777,82 +3777,82 @@
         <v>45101.25</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L36">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N36">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O36">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="R36">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V36">
+        <v>1.825</v>
+      </c>
+      <c r="W36">
         <v>1.975</v>
       </c>
-      <c r="W36">
-        <v>1.825</v>
-      </c>
       <c r="X36">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB36">
         <v>-0.5</v>
       </c>
       <c r="AC36">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3860,7 +3860,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6188148</v>
+        <v>6188006</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3869,16 +3869,16 @@
         <v>45101.25</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3890,28 +3890,28 @@
         <v>53</v>
       </c>
       <c r="L37">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="M37">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N37">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O37">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="P37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q37">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S37">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
         <v>1.975</v>
@@ -3926,7 +3926,7 @@
         <v>1.925</v>
       </c>
       <c r="X37">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3935,16 +3935,16 @@
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD37">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3952,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6188006</v>
+        <v>6188007</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3961,10 +3961,10 @@
         <v>45101.25</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3982,58 +3982,58 @@
         <v>53</v>
       </c>
       <c r="L38">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N38">
+        <v>4.2</v>
+      </c>
+      <c r="O38">
+        <v>1.7</v>
+      </c>
+      <c r="P38">
+        <v>3.6</v>
+      </c>
+      <c r="Q38">
         <v>4.5</v>
       </c>
-      <c r="O38">
-        <v>1.8</v>
-      </c>
-      <c r="P38">
-        <v>3.5</v>
-      </c>
-      <c r="Q38">
-        <v>4</v>
-      </c>
       <c r="R38">
+        <v>-0.75</v>
+      </c>
+      <c r="S38">
+        <v>1.95</v>
+      </c>
+      <c r="T38">
+        <v>1.85</v>
+      </c>
+      <c r="U38">
+        <v>2.5</v>
+      </c>
+      <c r="V38">
+        <v>1.975</v>
+      </c>
+      <c r="W38">
+        <v>1.825</v>
+      </c>
+      <c r="X38">
+        <v>0.7</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.475</v>
+      </c>
+      <c r="AB38">
         <v>-0.5</v>
       </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>1.975</v>
-      </c>
-      <c r="U38">
-        <v>2.25</v>
-      </c>
-      <c r="V38">
-        <v>1.875</v>
-      </c>
-      <c r="W38">
-        <v>1.925</v>
-      </c>
-      <c r="X38">
-        <v>0.8</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.825</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD38">
         <v>-1</v>
@@ -4608,7 +4608,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>45108.25</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -5240,7 +5240,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6188158</v>
+        <v>6188159</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5249,19 +5249,19 @@
         <v>45115.20833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -5279,31 +5279,31 @@
         <v>3.2</v>
       </c>
       <c r="O52">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="P52">
         <v>3.25</v>
       </c>
       <c r="Q52">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="R52">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5312,19 +5312,19 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>2.8</v>
+        <v>1.375</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5332,7 +5332,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6188159</v>
+        <v>6188158</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5341,19 +5341,19 @@
         <v>45115.20833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -5371,31 +5371,31 @@
         <v>3.2</v>
       </c>
       <c r="O53">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="P53">
         <v>3.25</v>
       </c>
       <c r="Q53">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5404,19 +5404,19 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1.375</v>
+        <v>2.8</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5709,7 +5709,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
         <v>45</v>
@@ -5884,7 +5884,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6188016</v>
+        <v>6188015</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5893,55 +5893,55 @@
         <v>45116.25</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
         <v>53</v>
       </c>
       <c r="L59">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="M59">
+        <v>3.4</v>
+      </c>
+      <c r="N59">
+        <v>3.8</v>
+      </c>
+      <c r="O59">
+        <v>1.75</v>
+      </c>
+      <c r="P59">
         <v>3.5</v>
       </c>
-      <c r="N59">
-        <v>4.75</v>
-      </c>
-      <c r="O59">
-        <v>1.571</v>
-      </c>
-      <c r="P59">
-        <v>3.8</v>
-      </c>
       <c r="Q59">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="R59">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U59">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V59">
         <v>1.975</v>
@@ -5950,7 +5950,7 @@
         <v>1.825</v>
       </c>
       <c r="X59">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -5959,16 +5959,16 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -5976,7 +5976,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6188015</v>
+        <v>6188016</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -5985,55 +5985,55 @@
         <v>45116.25</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="s">
         <v>53</v>
       </c>
       <c r="L60">
+        <v>1.7</v>
+      </c>
+      <c r="M60">
+        <v>3.5</v>
+      </c>
+      <c r="N60">
+        <v>4.75</v>
+      </c>
+      <c r="O60">
+        <v>1.571</v>
+      </c>
+      <c r="P60">
+        <v>3.8</v>
+      </c>
+      <c r="Q60">
+        <v>5.25</v>
+      </c>
+      <c r="R60">
+        <v>-1</v>
+      </c>
+      <c r="S60">
+        <v>1.95</v>
+      </c>
+      <c r="T60">
         <v>1.85</v>
       </c>
-      <c r="M60">
-        <v>3.4</v>
-      </c>
-      <c r="N60">
-        <v>3.8</v>
-      </c>
-      <c r="O60">
-        <v>1.75</v>
-      </c>
-      <c r="P60">
-        <v>3.5</v>
-      </c>
-      <c r="Q60">
-        <v>4.333</v>
-      </c>
-      <c r="R60">
-        <v>-0.75</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>1.8</v>
-      </c>
       <c r="U60">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V60">
         <v>1.975</v>
@@ -6042,7 +6042,7 @@
         <v>1.825</v>
       </c>
       <c r="X60">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -6051,16 +6051,16 @@
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6080,7 +6080,7 @@
         <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -6353,7 +6353,7 @@
         <v>45122.25</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -6537,7 +6537,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
         <v>48</v>
@@ -7092,7 +7092,7 @@
         <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -7184,7 +7184,7 @@
         <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -7632,7 +7632,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6188022</v>
+        <v>6188175</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7641,19 +7641,19 @@
         <v>45129.29166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7662,31 +7662,31 @@
         <v>54</v>
       </c>
       <c r="L78">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N78">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O78">
         <v>2.2</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q78">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R78">
         <v>-0.25</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U78">
         <v>2.25</v>
@@ -7701,7 +7701,7 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7710,13 +7710,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD78">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7724,7 +7724,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6188175</v>
+        <v>6188022</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7733,19 +7733,19 @@
         <v>45129.29166666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -7754,31 +7754,31 @@
         <v>54</v>
       </c>
       <c r="L79">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="M79">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O79">
         <v>2.2</v>
       </c>
       <c r="P79">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R79">
         <v>-0.25</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U79">
         <v>2.25</v>
@@ -7793,7 +7793,7 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z79">
         <v>-1</v>
@@ -7802,13 +7802,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD79">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -8564,7 +8564,7 @@
         <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8653,7 +8653,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
         <v>36</v>
@@ -9205,7 +9205,7 @@
         <v>45143.25</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
         <v>46</v>
@@ -9944,7 +9944,7 @@
         <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -10220,7 +10220,7 @@
         <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10953,7 +10953,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -11048,7 +11048,7 @@
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11597,7 +11597,7 @@
         <v>45161.25</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
         <v>35</v>
@@ -11965,7 +11965,7 @@
         <v>45164.27083333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
         <v>34</v>
@@ -12428,7 +12428,7 @@
         <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -12885,7 +12885,7 @@
         <v>45171.25</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
         <v>44</v>
@@ -13253,7 +13253,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
         <v>37</v>
@@ -14084,7 +14084,7 @@
         <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -14360,7 +14360,7 @@
         <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14541,7 +14541,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
         <v>33</v>
@@ -15001,7 +15001,7 @@
         <v>45186.08333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
         <v>36</v>
@@ -15648,7 +15648,7 @@
         <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -15740,7 +15740,7 @@
         <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -16473,7 +16473,7 @@
         <v>45199.29166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
         <v>31</v>
@@ -16565,7 +16565,7 @@
         <v>45200.04166666666</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
         <v>48</v>
@@ -17384,7 +17384,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6188232</v>
+        <v>6188071</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17393,52 +17393,52 @@
         <v>45207.04166666666</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L184">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M184">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N184">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O184">
+        <v>3.4</v>
+      </c>
+      <c r="P184">
         <v>3.2</v>
       </c>
-      <c r="P184">
-        <v>2.9</v>
-      </c>
       <c r="Q184">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="R184">
         <v>0.25</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U184">
         <v>2.25</v>
@@ -17450,19 +17450,19 @@
         <v>1.975</v>
       </c>
       <c r="X184">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA184">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -17476,7 +17476,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6188071</v>
+        <v>6188232</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17485,52 +17485,52 @@
         <v>45207.04166666666</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L185">
+        <v>2.8</v>
+      </c>
+      <c r="M185">
+        <v>2.8</v>
+      </c>
+      <c r="N185">
+        <v>2.5</v>
+      </c>
+      <c r="O185">
         <v>3.2</v>
       </c>
-      <c r="M185">
-        <v>3.1</v>
-      </c>
-      <c r="N185">
-        <v>2.1</v>
-      </c>
-      <c r="O185">
-        <v>3.4</v>
-      </c>
       <c r="P185">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q185">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R185">
         <v>0.25</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U185">
         <v>2.25</v>
@@ -17542,19 +17542,19 @@
         <v>1.975</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17660,7 +17660,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6188072</v>
+        <v>6188235</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17669,61 +17669,61 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K187" t="s">
         <v>52</v>
       </c>
       <c r="L187">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N187">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="O187">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="P187">
         <v>3.2</v>
       </c>
       <c r="Q187">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R187">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W187">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17732,19 +17732,19 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17752,7 +17752,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6188073</v>
+        <v>6188233</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17761,82 +17761,82 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L188">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M188">
+        <v>3.1</v>
+      </c>
+      <c r="N188">
         <v>3</v>
       </c>
-      <c r="N188">
-        <v>2.375</v>
-      </c>
       <c r="O188">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P188">
         <v>3.1</v>
       </c>
       <c r="Q188">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R188">
         <v>-0.25</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T188">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U188">
         <v>2.25</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y188">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB188">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD188">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17844,7 +17844,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6188233</v>
+        <v>6188073</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -17853,82 +17853,82 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L189">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M189">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P189">
         <v>3.1</v>
       </c>
       <c r="Q189">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R189">
         <v>-0.25</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T189">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U189">
         <v>2.25</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X189">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD189">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="190" spans="1:30">
@@ -17936,7 +17936,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6188235</v>
+        <v>6188072</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17945,62 +17945,62 @@
         <v>45207.08333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K190" t="s">
         <v>52</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="M190">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N190">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="O190">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="P190">
         <v>3.2</v>
       </c>
       <c r="Q190">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R190">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
+        <v>1.9</v>
+      </c>
+      <c r="U190">
+        <v>2.5</v>
+      </c>
+      <c r="V190">
+        <v>1.975</v>
+      </c>
+      <c r="W190">
         <v>1.825</v>
       </c>
-      <c r="T190">
-        <v>1.975</v>
-      </c>
-      <c r="U190">
-        <v>2.25</v>
-      </c>
-      <c r="V190">
-        <v>1.875</v>
-      </c>
-      <c r="W190">
-        <v>1.925</v>
-      </c>
       <c r="X190">
         <v>-1</v>
       </c>
@@ -18008,19 +18008,19 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC190">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AC190">
-        <v>-1</v>
-      </c>
       <c r="AD190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18120,7 +18120,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6190067</v>
+        <v>6190066</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18129,82 +18129,82 @@
         <v>45213.04166666666</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="s">
         <v>54</v>
       </c>
       <c r="L192">
+        <v>1.909</v>
+      </c>
+      <c r="M192">
+        <v>3.25</v>
+      </c>
+      <c r="N192">
+        <v>3.5</v>
+      </c>
+      <c r="O192">
+        <v>2</v>
+      </c>
+      <c r="P192">
+        <v>3.4</v>
+      </c>
+      <c r="Q192">
+        <v>3.1</v>
+      </c>
+      <c r="R192">
+        <v>-0.5</v>
+      </c>
+      <c r="S192">
+        <v>2</v>
+      </c>
+      <c r="T192">
         <v>1.8</v>
       </c>
-      <c r="M192">
-        <v>3.2</v>
-      </c>
-      <c r="N192">
-        <v>4</v>
-      </c>
-      <c r="O192">
-        <v>2.05</v>
-      </c>
-      <c r="P192">
-        <v>3.1</v>
-      </c>
-      <c r="Q192">
-        <v>3.4</v>
-      </c>
-      <c r="R192">
-        <v>-0.25</v>
-      </c>
-      <c r="S192">
-        <v>1.775</v>
-      </c>
-      <c r="T192">
-        <v>2.025</v>
-      </c>
       <c r="U192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V192">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD192">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18212,7 +18212,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6190066</v>
+        <v>6190067</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18221,82 +18221,82 @@
         <v>45213.04166666666</v>
       </c>
       <c r="E193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193" t="s">
         <v>54</v>
       </c>
       <c r="L193">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M193">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O193">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P193">
+        <v>3.1</v>
+      </c>
+      <c r="Q193">
         <v>3.4</v>
       </c>
-      <c r="Q193">
-        <v>3.1</v>
-      </c>
       <c r="R193">
+        <v>-0.25</v>
+      </c>
+      <c r="S193">
+        <v>1.775</v>
+      </c>
+      <c r="T193">
+        <v>2.025</v>
+      </c>
+      <c r="U193">
+        <v>2.25</v>
+      </c>
+      <c r="V193">
+        <v>1.825</v>
+      </c>
+      <c r="W193">
+        <v>1.975</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>2.1</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
         <v>-0.5</v>
       </c>
-      <c r="S193">
-        <v>2</v>
-      </c>
-      <c r="T193">
-        <v>1.8</v>
-      </c>
-      <c r="U193">
-        <v>2.5</v>
-      </c>
-      <c r="V193">
-        <v>1.8</v>
-      </c>
-      <c r="W193">
-        <v>2</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>2.4</v>
-      </c>
-      <c r="Z193">
-        <v>-1</v>
-      </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
       <c r="AB193">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD193">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18773,7 +18773,7 @@
         <v>45214.08333333334</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
         <v>41</v>
@@ -18957,7 +18957,7 @@
         <v>45214.08333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
         <v>42</v>
@@ -19236,7 +19236,7 @@
         <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -19512,7 +19512,7 @@
         <v>37</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -20613,7 +20613,7 @@
         <v>45228.08333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F219" t="s">
         <v>49</v>
@@ -20797,7 +20797,7 @@
         <v>45228.08333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F221" t="s">
         <v>43</v>
@@ -20984,7 +20984,7 @@
         <v>49</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -21076,7 +21076,7 @@
         <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -22168,7 +22168,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6192703</v>
+        <v>6192702</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22177,19 +22177,19 @@
         <v>45242.04166666666</v>
       </c>
       <c r="E236" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236">
         <v>3</v>
       </c>
-      <c r="H236">
-        <v>4</v>
-      </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -22198,40 +22198,40 @@
         <v>52</v>
       </c>
       <c r="L236">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N236">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O236">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q236">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="R236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V236">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -22240,16 +22240,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC236">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD236">
         <v>-1</v>
@@ -22260,7 +22260,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6192702</v>
+        <v>6192703</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22269,19 +22269,19 @@
         <v>45242.04166666666</v>
       </c>
       <c r="E237" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F237" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J237">
         <v>1</v>
@@ -22290,41 +22290,41 @@
         <v>52</v>
       </c>
       <c r="L237">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="M237">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O237">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="P237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q237">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="R237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S237">
+        <v>1.825</v>
+      </c>
+      <c r="T237">
+        <v>1.975</v>
+      </c>
+      <c r="U237">
+        <v>2.25</v>
+      </c>
+      <c r="V237">
         <v>1.875</v>
       </c>
-      <c r="T237">
+      <c r="W237">
         <v>1.925</v>
       </c>
-      <c r="U237">
-        <v>2.5</v>
-      </c>
-      <c r="V237">
-        <v>1.9</v>
-      </c>
-      <c r="W237">
-        <v>1.9</v>
-      </c>
       <c r="X237">
         <v>-1</v>
       </c>
@@ -22332,16 +22332,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC237">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD237">
         <v>-1</v>
@@ -22444,7 +22444,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6192701</v>
+        <v>6192709</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22453,34 +22453,34 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L239">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M239">
+        <v>3.1</v>
+      </c>
+      <c r="N239">
         <v>3.4</v>
-      </c>
-      <c r="N239">
-        <v>4.5</v>
       </c>
       <c r="O239">
         <v>2</v>
@@ -22495,40 +22495,40 @@
         <v>-0.25</v>
       </c>
       <c r="S239">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U239">
         <v>2.25</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD239">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22536,7 +22536,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6192709</v>
+        <v>6192701</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22545,34 +22545,34 @@
         <v>45242.08333333334</v>
       </c>
       <c r="E240" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K240" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L240">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="M240">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O240">
         <v>2</v>
@@ -22587,40 +22587,40 @@
         <v>-0.25</v>
       </c>
       <c r="S240">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U240">
         <v>2.25</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB240">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD240">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -23088,7 +23088,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6193056</v>
+        <v>6193057</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -23097,64 +23097,64 @@
         <v>45249.04166666666</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F246" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K246" t="s">
         <v>53</v>
       </c>
       <c r="L246">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N246">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="O246">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="P246">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q246">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="R246">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S246">
+        <v>1.925</v>
+      </c>
+      <c r="T246">
         <v>1.875</v>
       </c>
-      <c r="T246">
+      <c r="U246">
+        <v>2.5</v>
+      </c>
+      <c r="V246">
+        <v>1.875</v>
+      </c>
+      <c r="W246">
         <v>1.925</v>
       </c>
-      <c r="U246">
-        <v>2.75</v>
-      </c>
-      <c r="V246">
-        <v>1.8</v>
-      </c>
-      <c r="W246">
-        <v>2</v>
-      </c>
       <c r="X246">
-        <v>0.8500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -23163,13 +23163,13 @@
         <v>-1</v>
       </c>
       <c r="AA246">
+        <v>0.925</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
+      </c>
+      <c r="AC246">
         <v>0.875</v>
-      </c>
-      <c r="AB246">
-        <v>-1</v>
-      </c>
-      <c r="AC246">
-        <v>0.8</v>
       </c>
       <c r="AD246">
         <v>-1</v>
@@ -23180,7 +23180,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6193057</v>
+        <v>6193056</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23189,64 +23189,64 @@
         <v>45249.04166666666</v>
       </c>
       <c r="E247" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K247" t="s">
         <v>53</v>
       </c>
       <c r="L247">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N247">
+        <v>4.2</v>
+      </c>
+      <c r="O247">
+        <v>1.85</v>
+      </c>
+      <c r="P247">
+        <v>3.6</v>
+      </c>
+      <c r="Q247">
+        <v>3.2</v>
+      </c>
+      <c r="R247">
+        <v>-0.5</v>
+      </c>
+      <c r="S247">
+        <v>1.875</v>
+      </c>
+      <c r="T247">
+        <v>1.925</v>
+      </c>
+      <c r="U247">
         <v>2.75</v>
       </c>
-      <c r="O247">
-        <v>2.55</v>
-      </c>
-      <c r="P247">
-        <v>3.2</v>
-      </c>
-      <c r="Q247">
-        <v>2.45</v>
-      </c>
-      <c r="R247">
-        <v>0</v>
-      </c>
-      <c r="S247">
-        <v>1.925</v>
-      </c>
-      <c r="T247">
-        <v>1.875</v>
-      </c>
-      <c r="U247">
-        <v>2.5</v>
-      </c>
       <c r="V247">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W247">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X247">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -23255,13 +23255,13 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD247">
         <v>-1</v>
@@ -23272,7 +23272,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6193052</v>
+        <v>6193048</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23281,16 +23281,16 @@
         <v>45249.08333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F248" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -23302,43 +23302,43 @@
         <v>53</v>
       </c>
       <c r="L248">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="M248">
         <v>2.9</v>
       </c>
       <c r="N248">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O248">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q248">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R248">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S248">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T248">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U248">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X248">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="Y248">
         <v>-1</v>
@@ -23347,16 +23347,16 @@
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB248">
         <v>-1</v>
       </c>
       <c r="AC248">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AD248">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23364,7 +23364,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6193048</v>
+        <v>6193052</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23373,16 +23373,16 @@
         <v>45249.08333333334</v>
       </c>
       <c r="E249" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -23394,43 +23394,43 @@
         <v>53</v>
       </c>
       <c r="L249">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="M249">
         <v>2.9</v>
       </c>
       <c r="N249">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O249">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P249">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q249">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R249">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S249">
+        <v>2</v>
+      </c>
+      <c r="T249">
+        <v>1.8</v>
+      </c>
+      <c r="U249">
+        <v>2.75</v>
+      </c>
+      <c r="V249">
+        <v>1.925</v>
+      </c>
+      <c r="W249">
         <v>1.775</v>
       </c>
-      <c r="T249">
-        <v>2.025</v>
-      </c>
-      <c r="U249">
-        <v>2.5</v>
-      </c>
-      <c r="V249">
-        <v>1.95</v>
-      </c>
-      <c r="W249">
-        <v>1.85</v>
-      </c>
       <c r="X249">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="Y249">
         <v>-1</v>
@@ -23439,16 +23439,16 @@
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB249">
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AD249">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23836,7 +23836,7 @@
         <v>48</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -24008,7 +24008,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6194449</v>
+        <v>6194450</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -24017,46 +24017,46 @@
         <v>45256.04166666666</v>
       </c>
       <c r="E256" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>0</v>
       </c>
       <c r="J256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K256" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M256">
         <v>3.1</v>
       </c>
       <c r="N256">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O256">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="P256">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q256">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="R256">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S256">
         <v>1.8</v>
@@ -24065,34 +24065,34 @@
         <v>2</v>
       </c>
       <c r="U256">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V256">
+        <v>1.95</v>
+      </c>
+      <c r="W256">
         <v>1.85</v>
       </c>
-      <c r="W256">
-        <v>1.95</v>
-      </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z256">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC256">
+        <v>-1</v>
+      </c>
+      <c r="AD256">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD256">
-        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -24100,7 +24100,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6194450</v>
+        <v>6194449</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24109,46 +24109,46 @@
         <v>45256.04166666666</v>
       </c>
       <c r="E257" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I257">
         <v>0</v>
       </c>
       <c r="J257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K257" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L257">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
         <v>3.1</v>
       </c>
       <c r="N257">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O257">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="P257">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q257">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="R257">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S257">
         <v>1.8</v>
@@ -24157,34 +24157,34 @@
         <v>2</v>
       </c>
       <c r="U257">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
         <v>1.95</v>
       </c>
-      <c r="W257">
-        <v>1.85</v>
-      </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD257">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24560,7 +24560,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6195255</v>
+        <v>6195259</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24569,10 +24569,10 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E262" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -24584,46 +24584,46 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K262" t="s">
         <v>52</v>
       </c>
       <c r="L262">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M262">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N262">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O262">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="P262">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q262">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="R262">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U262">
         <v>2.5</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W262">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -24632,19 +24632,19 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC262">
+        <v>-1</v>
+      </c>
+      <c r="AD262">
         <v>0.95</v>
-      </c>
-      <c r="AC262">
-        <v>-1</v>
-      </c>
-      <c r="AD262">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -24652,7 +24652,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6195256</v>
+        <v>6195257</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -24661,82 +24661,82 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E263" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F263" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G263">
         <v>2</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263">
         <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L263">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M263">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N263">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O263">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="P263">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q263">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="R263">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S263">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U263">
         <v>2.75</v>
       </c>
       <c r="V263">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W263">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y263">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AC263">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AD263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -24744,7 +24744,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6195257</v>
+        <v>6195260</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -24753,16 +24753,16 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E264" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F264" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -24771,61 +24771,61 @@
         <v>1</v>
       </c>
       <c r="K264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L264">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="M264">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N264">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="O264">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="P264">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q264">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="R264">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S264">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T264">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U264">
         <v>2.75</v>
       </c>
       <c r="V264">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W264">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X264">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AC264">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AD264">
         <v>-0.5</v>
@@ -24836,7 +24836,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6195259</v>
+        <v>6195255</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
@@ -24845,10 +24845,10 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F265" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -24860,46 +24860,46 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K265" t="s">
         <v>52</v>
       </c>
       <c r="L265">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M265">
+        <v>3.3</v>
+      </c>
+      <c r="N265">
+        <v>3.25</v>
+      </c>
+      <c r="O265">
+        <v>2.1</v>
+      </c>
+      <c r="P265">
         <v>3.4</v>
       </c>
-      <c r="N265">
-        <v>3.4</v>
-      </c>
-      <c r="O265">
-        <v>1.65</v>
-      </c>
-      <c r="P265">
-        <v>3.75</v>
-      </c>
       <c r="Q265">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="R265">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T265">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U265">
         <v>2.5</v>
       </c>
       <c r="V265">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24908,19 +24908,19 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC265">
         <v>-1</v>
       </c>
       <c r="AD265">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -24928,7 +24928,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6195260</v>
+        <v>6195256</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -24937,46 +24937,46 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E266" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266">
         <v>2</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266">
         <v>1</v>
       </c>
       <c r="K266" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M266">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N266">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O266">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="P266">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q266">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="R266">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S266">
         <v>1.925</v>
@@ -24988,19 +24988,19 @@
         <v>2.75</v>
       </c>
       <c r="V266">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W266">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z266">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
         <v>-1</v>
@@ -25009,10 +25009,10 @@
         <v>0.875</v>
       </c>
       <c r="AC266">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AD266">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -25112,7 +25112,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6195254</v>
+        <v>6195258</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25121,82 +25121,82 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268">
         <v>0</v>
       </c>
       <c r="K268" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L268">
+        <v>2.75</v>
+      </c>
+      <c r="M268">
+        <v>3.3</v>
+      </c>
+      <c r="N268">
+        <v>2.25</v>
+      </c>
+      <c r="O268">
+        <v>2.7</v>
+      </c>
+      <c r="P268">
+        <v>3.2</v>
+      </c>
+      <c r="Q268">
         <v>2.3</v>
       </c>
-      <c r="M268">
-        <v>3.25</v>
-      </c>
-      <c r="N268">
-        <v>2.7</v>
-      </c>
-      <c r="O268">
-        <v>2.1</v>
-      </c>
-      <c r="P268">
-        <v>3.5</v>
-      </c>
-      <c r="Q268">
-        <v>3.1</v>
-      </c>
       <c r="R268">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S268">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T268">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U268">
         <v>2.75</v>
       </c>
       <c r="V268">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W268">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD268">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25204,7 +25204,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6195258</v>
+        <v>6195254</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25213,82 +25213,82 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E269" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F269" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
         <v>0</v>
       </c>
       <c r="K269" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L269">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="M269">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N269">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O269">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="P269">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q269">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R269">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S269">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T269">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U269">
         <v>2.75</v>
       </c>
       <c r="V269">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W269">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z269">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD269">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25305,7 +25305,7 @@
         <v>45262.08333333334</v>
       </c>
       <c r="E270" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F270" t="s">
         <v>44</v>
@@ -25584,7 +25584,7 @@
         <v>50</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G273">
         <v>4</v>
@@ -25940,7 +25940,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7635882</v>
+        <v>7635875</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -25949,82 +25949,82 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E277" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F277" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G277">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K277" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L277">
+        <v>3.2</v>
+      </c>
+      <c r="M277">
+        <v>3.4</v>
+      </c>
+      <c r="N277">
+        <v>1.95</v>
+      </c>
+      <c r="O277">
+        <v>3.3</v>
+      </c>
+      <c r="P277">
         <v>3.5</v>
       </c>
-      <c r="M277">
-        <v>3</v>
-      </c>
-      <c r="N277">
-        <v>2</v>
-      </c>
-      <c r="O277">
-        <v>3.8</v>
-      </c>
-      <c r="P277">
-        <v>3.1</v>
-      </c>
       <c r="Q277">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="R277">
         <v>0.5</v>
       </c>
       <c r="S277">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T277">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U277">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V277">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W277">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z277">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD277">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="278" spans="1:30">
@@ -26124,7 +26124,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7635875</v>
+        <v>7635882</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -26133,82 +26133,82 @@
         <v>45347.08333333334</v>
       </c>
       <c r="E279" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F279" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G279">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K279" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L279">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M279">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N279">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O279">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P279">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q279">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="R279">
         <v>0.5</v>
       </c>
       <c r="S279">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T279">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U279">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W279">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD279">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -26400,7 +26400,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7752022</v>
+        <v>7751890</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26409,82 +26409,82 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E282" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F282" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282" t="s">
         <v>54</v>
       </c>
       <c r="L282">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="M282">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N282">
+        <v>2.4</v>
+      </c>
+      <c r="O282">
+        <v>2.45</v>
+      </c>
+      <c r="P282">
+        <v>3.1</v>
+      </c>
+      <c r="Q282">
+        <v>2.7</v>
+      </c>
+      <c r="R282">
+        <v>0</v>
+      </c>
+      <c r="S282">
+        <v>1.8</v>
+      </c>
+      <c r="T282">
+        <v>2</v>
+      </c>
+      <c r="U282">
+        <v>2.25</v>
+      </c>
+      <c r="V282">
+        <v>2</v>
+      </c>
+      <c r="W282">
+        <v>1.8</v>
+      </c>
+      <c r="X282">
+        <v>-1</v>
+      </c>
+      <c r="Y282">
         <v>2.1</v>
       </c>
-      <c r="O282">
-        <v>3.4</v>
-      </c>
-      <c r="P282">
-        <v>2.9</v>
-      </c>
-      <c r="Q282">
-        <v>2.1</v>
-      </c>
-      <c r="R282">
-        <v>0.25</v>
-      </c>
-      <c r="S282">
-        <v>1.975</v>
-      </c>
-      <c r="T282">
-        <v>1.825</v>
-      </c>
-      <c r="U282">
-        <v>2</v>
-      </c>
-      <c r="V282">
-        <v>1.725</v>
-      </c>
-      <c r="W282">
-        <v>1.975</v>
-      </c>
-      <c r="X282">
-        <v>-1</v>
-      </c>
-      <c r="Y282">
-        <v>1.9</v>
-      </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB282">
+        <v>0</v>
+      </c>
+      <c r="AC282">
         <v>-0.5</v>
       </c>
-      <c r="AC282">
-        <v>-1</v>
-      </c>
       <c r="AD282">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -26492,7 +26492,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7752021</v>
+        <v>7752022</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26501,82 +26501,82 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F283" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G283">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283">
         <v>0</v>
       </c>
       <c r="K283" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L283">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="M283">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N283">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O283">
+        <v>3.4</v>
+      </c>
+      <c r="P283">
+        <v>2.9</v>
+      </c>
+      <c r="Q283">
         <v>2.1</v>
       </c>
-      <c r="P283">
-        <v>3.25</v>
-      </c>
-      <c r="Q283">
-        <v>3</v>
-      </c>
       <c r="R283">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S283">
+        <v>1.975</v>
+      </c>
+      <c r="T283">
+        <v>1.825</v>
+      </c>
+      <c r="U283">
+        <v>2</v>
+      </c>
+      <c r="V283">
+        <v>1.725</v>
+      </c>
+      <c r="W283">
+        <v>1.975</v>
+      </c>
+      <c r="X283">
+        <v>-1</v>
+      </c>
+      <c r="Y283">
         <v>1.9</v>
       </c>
-      <c r="T283">
-        <v>1.9</v>
-      </c>
-      <c r="U283">
-        <v>2.5</v>
-      </c>
-      <c r="V283">
-        <v>1.975</v>
-      </c>
-      <c r="W283">
-        <v>1.825</v>
-      </c>
-      <c r="X283">
-        <v>1.1</v>
-      </c>
-      <c r="Y283">
-        <v>-1</v>
-      </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC283">
+        <v>-1</v>
+      </c>
+      <c r="AD283">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD283">
-        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -26584,7 +26584,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7752020</v>
+        <v>7752021</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -26593,13 +26593,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E284" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F284" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -26614,43 +26614,43 @@
         <v>53</v>
       </c>
       <c r="L284">
+        <v>2.3</v>
+      </c>
+      <c r="M284">
+        <v>3.25</v>
+      </c>
+      <c r="N284">
+        <v>2.7</v>
+      </c>
+      <c r="O284">
+        <v>2.1</v>
+      </c>
+      <c r="P284">
+        <v>3.25</v>
+      </c>
+      <c r="Q284">
+        <v>3</v>
+      </c>
+      <c r="R284">
+        <v>-0.25</v>
+      </c>
+      <c r="S284">
+        <v>1.9</v>
+      </c>
+      <c r="T284">
+        <v>1.9</v>
+      </c>
+      <c r="U284">
         <v>2.5</v>
       </c>
-      <c r="M284">
-        <v>3.2</v>
-      </c>
-      <c r="N284">
-        <v>2.5</v>
-      </c>
-      <c r="O284">
-        <v>2.45</v>
-      </c>
-      <c r="P284">
-        <v>3.1</v>
-      </c>
-      <c r="Q284">
-        <v>2.625</v>
-      </c>
-      <c r="R284">
-        <v>0</v>
-      </c>
-      <c r="S284">
-        <v>1.85</v>
-      </c>
-      <c r="T284">
-        <v>1.95</v>
-      </c>
-      <c r="U284">
-        <v>2</v>
-      </c>
       <c r="V284">
+        <v>1.975</v>
+      </c>
+      <c r="W284">
         <v>1.825</v>
       </c>
-      <c r="W284">
-        <v>1.975</v>
-      </c>
       <c r="X284">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
@@ -26659,16 +26659,16 @@
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD284">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:30">
@@ -26676,7 +26676,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7752019</v>
+        <v>7752020</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -26685,10 +26685,10 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E285" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F285" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -26706,43 +26706,43 @@
         <v>53</v>
       </c>
       <c r="L285">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="M285">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N285">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O285">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="P285">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q285">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="R285">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S285">
+        <v>1.85</v>
+      </c>
+      <c r="T285">
+        <v>1.95</v>
+      </c>
+      <c r="U285">
+        <v>2</v>
+      </c>
+      <c r="V285">
+        <v>1.825</v>
+      </c>
+      <c r="W285">
         <v>1.975</v>
       </c>
-      <c r="T285">
-        <v>1.825</v>
-      </c>
-      <c r="U285">
-        <v>2.25</v>
-      </c>
-      <c r="V285">
-        <v>1.8</v>
-      </c>
-      <c r="W285">
-        <v>2</v>
-      </c>
       <c r="X285">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="Y285">
         <v>-1</v>
@@ -26751,16 +26751,16 @@
         <v>-1</v>
       </c>
       <c r="AA285">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB285">
+        <v>-1</v>
+      </c>
+      <c r="AC285">
+        <v>-1</v>
+      </c>
+      <c r="AD285">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB285">
-        <v>-1</v>
-      </c>
-      <c r="AC285">
-        <v>-1</v>
-      </c>
-      <c r="AD285">
-        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:30">
@@ -26768,7 +26768,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7751891</v>
+        <v>7752019</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26777,82 +26777,82 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E286" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F286" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G286">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286">
         <v>1</v>
       </c>
       <c r="J286">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K286" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L286">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="M286">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N286">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O286">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="P286">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q286">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="R286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S286">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T286">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U286">
         <v>2.25</v>
       </c>
       <c r="V286">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W286">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB286">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD286">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -26860,7 +26860,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7751890</v>
+        <v>7751891</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26869,82 +26869,82 @@
         <v>45353.08333333334</v>
       </c>
       <c r="E287" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F287" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G287">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287">
         <v>1</v>
       </c>
       <c r="J287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K287" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L287">
+        <v>2.75</v>
+      </c>
+      <c r="M287">
+        <v>3.2</v>
+      </c>
+      <c r="N287">
+        <v>2.3</v>
+      </c>
+      <c r="O287">
         <v>2.7</v>
       </c>
-      <c r="M287">
-        <v>3.1</v>
-      </c>
-      <c r="N287">
-        <v>2.4</v>
-      </c>
-      <c r="O287">
-        <v>2.45</v>
-      </c>
       <c r="P287">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q287">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="R287">
         <v>0</v>
       </c>
       <c r="S287">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U287">
         <v>2.25</v>
       </c>
       <c r="V287">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC287">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD287">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:30">
@@ -27044,7 +27044,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7751894</v>
+        <v>7751892</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -27053,82 +27053,82 @@
         <v>45354.08333333334</v>
       </c>
       <c r="E289" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F289" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289">
         <v>0</v>
       </c>
       <c r="J289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K289" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L289">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M289">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N289">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O289">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="P289">
         <v>3.1</v>
       </c>
       <c r="Q289">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="R289">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T289">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="U289">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V289">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W289">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA289">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AC289">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD289">
-        <v>0.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -27136,7 +27136,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7751893</v>
+        <v>7751894</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -27145,82 +27145,82 @@
         <v>45354.08333333334</v>
       </c>
       <c r="E290" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F290" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G290">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K290" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L290">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M290">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N290">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O290">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P290">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q290">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S290">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T290">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="U290">
         <v>2.25</v>
       </c>
       <c r="V290">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W290">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z290">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB290">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC290">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD290">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="291" spans="1:30">
@@ -27228,7 +27228,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7751892</v>
+        <v>7751893</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -27237,46 +27237,46 @@
         <v>45354.08333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F291" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I291">
         <v>0</v>
       </c>
       <c r="J291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K291" t="s">
         <v>52</v>
       </c>
       <c r="L291">
+        <v>1.666</v>
+      </c>
+      <c r="M291">
+        <v>3.6</v>
+      </c>
+      <c r="N291">
+        <v>4.2</v>
+      </c>
+      <c r="O291">
         <v>2.3</v>
       </c>
-      <c r="M291">
-        <v>3.25</v>
-      </c>
-      <c r="N291">
+      <c r="P291">
+        <v>3.2</v>
+      </c>
+      <c r="Q291">
         <v>2.7</v>
       </c>
-      <c r="O291">
-        <v>2.875</v>
-      </c>
-      <c r="P291">
-        <v>3.1</v>
-      </c>
-      <c r="Q291">
-        <v>2.375</v>
-      </c>
       <c r="R291">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S291">
         <v>1.75</v>
@@ -27285,7 +27285,7 @@
         <v>2.05</v>
       </c>
       <c r="U291">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V291">
         <v>1.775</v>
@@ -27300,7 +27300,7 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>1.375</v>
+        <v>1.7</v>
       </c>
       <c r="AA291">
         <v>-1</v>
@@ -27309,10 +27309,10 @@
         <v>1.05</v>
       </c>
       <c r="AC291">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD291">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:30">
@@ -27320,7 +27320,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7752025</v>
+        <v>7751895</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -27329,10 +27329,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E292" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F292" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -27341,49 +27341,49 @@
         <v>1</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K292" t="s">
         <v>54</v>
       </c>
       <c r="L292">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="M292">
         <v>3</v>
       </c>
       <c r="N292">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O292">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P292">
         <v>3</v>
       </c>
       <c r="Q292">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="R292">
         <v>-0.25</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T292">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U292">
         <v>2</v>
       </c>
       <c r="V292">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W292">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X292">
         <v>-1</v>
@@ -27398,7 +27398,7 @@
         <v>-0.5</v>
       </c>
       <c r="AB292">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC292">
         <v>0</v>
@@ -27412,7 +27412,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7751895</v>
+        <v>7752024</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27421,10 +27421,10 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F293" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -27436,31 +27436,31 @@
         <v>0</v>
       </c>
       <c r="J293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K293" t="s">
         <v>54</v>
       </c>
       <c r="L293">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="M293">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N293">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O293">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P293">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q293">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="R293">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S293">
         <v>1.8</v>
@@ -27469,34 +27469,34 @@
         <v>2</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W293">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
+        <v>-1</v>
+      </c>
+      <c r="AB293">
+        <v>1</v>
+      </c>
+      <c r="AC293">
         <v>-0.5</v>
       </c>
-      <c r="AB293">
+      <c r="AD293">
         <v>0.5</v>
-      </c>
-      <c r="AC293">
-        <v>0</v>
-      </c>
-      <c r="AD293">
-        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27504,7 +27504,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7751896</v>
+        <v>7752025</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27513,82 +27513,82 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H294">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K294" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L294">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="M294">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N294">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O294">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="P294">
         <v>3</v>
       </c>
       <c r="Q294">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="R294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S294">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T294">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U294">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V294">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W294">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z294">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB294">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC294">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD294">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27596,7 +27596,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7752024</v>
+        <v>7751896</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27605,82 +27605,82 @@
         <v>45360.08333333334</v>
       </c>
       <c r="E295" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I295">
         <v>0</v>
       </c>
       <c r="J295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L295">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="M295">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N295">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="O295">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="P295">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q295">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="R295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S295">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U295">
         <v>2.25</v>
       </c>
       <c r="V295">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W295">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC295">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD295">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:30">
@@ -28525,10 +28525,10 @@
         <v>45368.04166666666</v>
       </c>
       <c r="E305" t="s">
+        <v>39</v>
+      </c>
+      <c r="F305" t="s">
         <v>38</v>
-      </c>
-      <c r="F305" t="s">
-        <v>39</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -29264,7 +29264,7 @@
         <v>33</v>
       </c>
       <c r="F313" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>45371.08333333334</v>
       </c>
       <c r="E316" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F316" t="s">
         <v>51</v>
@@ -30089,7 +30089,7 @@
         <v>45375.04166666666</v>
       </c>
       <c r="E322" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F322" t="s">
         <v>45</v>
@@ -30460,7 +30460,7 @@
         <v>30</v>
       </c>
       <c r="F326" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -31012,7 +31012,7 @@
         <v>35</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G332">
         <v>3</v>
@@ -31104,7 +31104,7 @@
         <v>37</v>
       </c>
       <c r="F333" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7752050</v>
+        <v>7751916</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31285,13 +31285,13 @@
         <v>45382.08333333334</v>
       </c>
       <c r="E335" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F335" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H335">
         <v>1</v>
@@ -31300,67 +31300,67 @@
         <v>0</v>
       </c>
       <c r="J335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L335">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="M335">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N335">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O335">
+        <v>3.75</v>
+      </c>
+      <c r="P335">
+        <v>3.4</v>
+      </c>
+      <c r="Q335">
         <v>1.85</v>
       </c>
-      <c r="P335">
-        <v>3.2</v>
-      </c>
-      <c r="Q335">
-        <v>4</v>
-      </c>
       <c r="R335">
+        <v>0.5</v>
+      </c>
+      <c r="S335">
+        <v>1.925</v>
+      </c>
+      <c r="T335">
+        <v>1.875</v>
+      </c>
+      <c r="U335">
+        <v>2.25</v>
+      </c>
+      <c r="V335">
+        <v>2.025</v>
+      </c>
+      <c r="W335">
+        <v>1.775</v>
+      </c>
+      <c r="X335">
+        <v>-1</v>
+      </c>
+      <c r="Y335">
+        <v>2.4</v>
+      </c>
+      <c r="Z335">
+        <v>-1</v>
+      </c>
+      <c r="AA335">
+        <v>0.925</v>
+      </c>
+      <c r="AB335">
+        <v>-1</v>
+      </c>
+      <c r="AC335">
         <v>-0.5</v>
       </c>
-      <c r="S335">
-        <v>1.9</v>
-      </c>
-      <c r="T335">
-        <v>1.9</v>
-      </c>
-      <c r="U335">
-        <v>2</v>
-      </c>
-      <c r="V335">
-        <v>1.775</v>
-      </c>
-      <c r="W335">
-        <v>2.025</v>
-      </c>
-      <c r="X335">
-        <v>-1</v>
-      </c>
-      <c r="Y335">
-        <v>-1</v>
-      </c>
-      <c r="Z335">
-        <v>3</v>
-      </c>
-      <c r="AA335">
-        <v>-1</v>
-      </c>
-      <c r="AB335">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC335">
-        <v>-1</v>
-      </c>
       <c r="AD335">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="336" spans="1:30">
@@ -31368,7 +31368,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7751916</v>
+        <v>7752050</v>
       </c>
       <c r="C336" t="s">
         <v>29</v>
@@ -31377,13 +31377,13 @@
         <v>45382.08333333334</v>
       </c>
       <c r="E336" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F336" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -31392,67 +31392,67 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K336" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L336">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="M336">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N336">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="O336">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="P336">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q336">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="R336">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S336">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T336">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U336">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V336">
+        <v>1.775</v>
+      </c>
+      <c r="W336">
         <v>2.025</v>
       </c>
-      <c r="W336">
-        <v>1.775</v>
-      </c>
       <c r="X336">
         <v>-1</v>
       </c>
       <c r="Y336">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA336">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD336">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="337" spans="1:30">
@@ -31644,7 +31644,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7751917</v>
+        <v>7752052</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -31653,52 +31653,52 @@
         <v>45388.04166666666</v>
       </c>
       <c r="E339" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F339" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339" t="s">
+        <v>53</v>
+      </c>
+      <c r="L339">
+        <v>2.4</v>
+      </c>
+      <c r="M339">
+        <v>3.1</v>
+      </c>
+      <c r="N339">
+        <v>2.7</v>
+      </c>
+      <c r="O339">
+        <v>2.55</v>
+      </c>
+      <c r="P339">
         <v>3</v>
       </c>
-      <c r="H339">
-        <v>3</v>
-      </c>
-      <c r="I339">
-        <v>0</v>
-      </c>
-      <c r="J339">
-        <v>1</v>
-      </c>
-      <c r="K339" t="s">
-        <v>54</v>
-      </c>
-      <c r="L339">
+      <c r="Q339">
+        <v>2.55</v>
+      </c>
+      <c r="R339">
+        <v>0</v>
+      </c>
+      <c r="S339">
         <v>1.9</v>
       </c>
-      <c r="M339">
-        <v>3.3</v>
-      </c>
-      <c r="N339">
-        <v>3.6</v>
-      </c>
-      <c r="O339">
-        <v>2</v>
-      </c>
-      <c r="P339">
-        <v>3.1</v>
-      </c>
-      <c r="Q339">
-        <v>3.5</v>
-      </c>
-      <c r="R339">
-        <v>-0.25</v>
-      </c>
-      <c r="S339">
-        <v>1.775</v>
-      </c>
       <c r="T339">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U339">
         <v>2.25</v>
@@ -31710,25 +31710,25 @@
         <v>1.825</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y339">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
         <v>-1</v>
       </c>
       <c r="AA339">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB339">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD339">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -31736,7 +31736,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7752052</v>
+        <v>7751917</v>
       </c>
       <c r="C340" t="s">
         <v>29</v>
@@ -31745,52 +31745,52 @@
         <v>45388.04166666666</v>
       </c>
       <c r="E340" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F340" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I340">
         <v>0</v>
       </c>
       <c r="J340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K340" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L340">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="M340">
+        <v>3.3</v>
+      </c>
+      <c r="N340">
+        <v>3.6</v>
+      </c>
+      <c r="O340">
+        <v>2</v>
+      </c>
+      <c r="P340">
         <v>3.1</v>
       </c>
-      <c r="N340">
-        <v>2.7</v>
-      </c>
-      <c r="O340">
-        <v>2.55</v>
-      </c>
-      <c r="P340">
-        <v>3</v>
-      </c>
       <c r="Q340">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="R340">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S340">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T340">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U340">
         <v>2.25</v>
@@ -31802,25 +31802,25 @@
         <v>1.825</v>
       </c>
       <c r="X340">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD340">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:30">
@@ -31828,7 +31828,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7751919</v>
+        <v>7751918</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
@@ -31837,10 +31837,10 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E341" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F341" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G341">
         <v>1</v>
@@ -31858,43 +31858,43 @@
         <v>53</v>
       </c>
       <c r="L341">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="M341">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N341">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="O341">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P341">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q341">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="R341">
         <v>-0.25</v>
       </c>
       <c r="S341">
+        <v>1.825</v>
+      </c>
+      <c r="T341">
         <v>1.975</v>
       </c>
-      <c r="T341">
-        <v>1.825</v>
-      </c>
       <c r="U341">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V341">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W341">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X341">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Y341">
         <v>-1</v>
@@ -31903,7 +31903,7 @@
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB341">
         <v>-1</v>
@@ -31912,7 +31912,7 @@
         <v>-1</v>
       </c>
       <c r="AD341">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="342" spans="1:30">
@@ -31920,7 +31920,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7751920</v>
+        <v>7751919</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -31929,64 +31929,64 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E342" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
       <c r="J342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K342" t="s">
         <v>53</v>
       </c>
       <c r="L342">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M342">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N342">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O342">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="P342">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q342">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="R342">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S342">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T342">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U342">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V342">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W342">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X342">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="Y342">
         <v>-1</v>
@@ -31995,16 +31995,16 @@
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB342">
         <v>-1</v>
       </c>
       <c r="AC342">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD342">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -32012,7 +32012,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7752053</v>
+        <v>7751920</v>
       </c>
       <c r="C343" t="s">
         <v>29</v>
@@ -32021,13 +32021,13 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E343" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F343" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343">
         <v>1</v>
@@ -32036,67 +32036,67 @@
         <v>0</v>
       </c>
       <c r="J343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K343" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L343">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M343">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N343">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O343">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P343">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q343">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R343">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S343">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T343">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U343">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V343">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W343">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="X343">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y343">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.3875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB343">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC343">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD343">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:30">
@@ -32104,7 +32104,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7752054</v>
+        <v>7752053</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32113,82 +32113,82 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E344" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F344" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G344">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="I344">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K344" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L344">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="M344">
         <v>3</v>
       </c>
       <c r="N344">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O344">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P344">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q344">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R344">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S344">
+        <v>1.775</v>
+      </c>
+      <c r="T344">
         <v>2.025</v>
       </c>
-      <c r="T344">
+      <c r="U344">
+        <v>2</v>
+      </c>
+      <c r="V344">
         <v>1.775</v>
       </c>
-      <c r="U344">
-        <v>2.25</v>
-      </c>
-      <c r="V344">
-        <v>1.825</v>
-      </c>
       <c r="W344">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X344">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z344">
         <v>-1</v>
       </c>
       <c r="AA344">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AB344">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC344">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD344">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32196,7 +32196,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7751918</v>
+        <v>7752054</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32205,64 +32205,64 @@
         <v>45388.08333333334</v>
       </c>
       <c r="E345" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F345" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G345">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K345" t="s">
         <v>53</v>
       </c>
       <c r="L345">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="M345">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N345">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O345">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P345">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q345">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="R345">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S345">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T345">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U345">
         <v>2.25</v>
       </c>
       <c r="V345">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W345">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X345">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="Y345">
         <v>-1</v>
@@ -32271,16 +32271,16 @@
         <v>-1</v>
       </c>
       <c r="AA345">
+        <v>1.025</v>
+      </c>
+      <c r="AB345">
+        <v>-1</v>
+      </c>
+      <c r="AC345">
         <v>0.825</v>
       </c>
-      <c r="AB345">
-        <v>-1</v>
-      </c>
-      <c r="AC345">
-        <v>-1</v>
-      </c>
       <c r="AD345">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -32380,7 +32380,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7752057</v>
+        <v>7752056</v>
       </c>
       <c r="C347" t="s">
         <v>29</v>
@@ -32389,82 +32389,82 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E347" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F347" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K347" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L347">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M347">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N347">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O347">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P347">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q347">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="R347">
         <v>-0.25</v>
       </c>
       <c r="S347">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z347">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC347">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD347">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="348" spans="1:30">
@@ -32472,7 +32472,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7752056</v>
+        <v>7752057</v>
       </c>
       <c r="C348" t="s">
         <v>29</v>
@@ -32481,82 +32481,82 @@
         <v>45389.08333333334</v>
       </c>
       <c r="E348" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F348" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K348" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L348">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M348">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N348">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O348">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P348">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q348">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="R348">
         <v>-0.25</v>
       </c>
       <c r="S348">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T348">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U348">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V348">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W348">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA348">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC348">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD348">
-        <v>0.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:30">
@@ -32656,7 +32656,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7752060</v>
+        <v>7751922</v>
       </c>
       <c r="C350" t="s">
         <v>29</v>
@@ -32665,40 +32665,40 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E350" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F350" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K350" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L350">
         <v>2.15</v>
       </c>
       <c r="M350">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N350">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O350">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="P350">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q350">
         <v>3.2</v>
@@ -32707,40 +32707,40 @@
         <v>-0.25</v>
       </c>
       <c r="S350">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T350">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U350">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V350">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W350">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X350">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y350">
         <v>-1</v>
       </c>
       <c r="Z350">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB350">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD350">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:30">
@@ -32748,7 +32748,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7751924</v>
+        <v>7752059</v>
       </c>
       <c r="C351" t="s">
         <v>29</v>
@@ -32757,22 +32757,22 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E351" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F351" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K351" t="s">
         <v>52</v>
@@ -32793,25 +32793,25 @@
         <v>3.4</v>
       </c>
       <c r="Q351">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="R351">
         <v>0.75</v>
       </c>
       <c r="S351">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T351">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U351">
         <v>2.25</v>
       </c>
       <c r="V351">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W351">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X351">
         <v>-1</v>
@@ -32820,19 +32820,19 @@
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.7270000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AA351">
         <v>-0.5</v>
       </c>
       <c r="AB351">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AC351">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD351">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:30">
@@ -32840,7 +32840,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7752058</v>
+        <v>7751923</v>
       </c>
       <c r="C352" t="s">
         <v>29</v>
@@ -32849,82 +32849,82 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E352" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F352" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G352">
         <v>2</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K352" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L352">
+        <v>2.25</v>
+      </c>
+      <c r="M352">
+        <v>3</v>
+      </c>
+      <c r="N352">
+        <v>3</v>
+      </c>
+      <c r="O352">
+        <v>2.2</v>
+      </c>
+      <c r="P352">
         <v>2.9</v>
       </c>
-      <c r="M352">
+      <c r="Q352">
         <v>3.2</v>
       </c>
-      <c r="N352">
-        <v>2.2</v>
-      </c>
-      <c r="O352">
-        <v>2.625</v>
-      </c>
-      <c r="P352">
-        <v>3.2</v>
-      </c>
-      <c r="Q352">
-        <v>2.4</v>
-      </c>
       <c r="R352">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S352">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T352">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U352">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V352">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W352">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y352">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB352">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD352">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -32944,7 +32944,7 @@
         <v>49</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -33024,7 +33024,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7751923</v>
+        <v>7752058</v>
       </c>
       <c r="C354" t="s">
         <v>29</v>
@@ -33033,82 +33033,82 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E354" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F354" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G354">
         <v>2</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J354">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K354" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L354">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="M354">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N354">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O354">
+        <v>2.625</v>
+      </c>
+      <c r="P354">
+        <v>3.2</v>
+      </c>
+      <c r="Q354">
+        <v>2.4</v>
+      </c>
+      <c r="R354">
+        <v>0</v>
+      </c>
+      <c r="S354">
+        <v>2</v>
+      </c>
+      <c r="T354">
+        <v>1.8</v>
+      </c>
+      <c r="U354">
+        <v>2.5</v>
+      </c>
+      <c r="V354">
+        <v>2</v>
+      </c>
+      <c r="W354">
+        <v>1.8</v>
+      </c>
+      <c r="X354">
+        <v>-1</v>
+      </c>
+      <c r="Y354">
         <v>2.2</v>
       </c>
-      <c r="P354">
-        <v>2.9</v>
-      </c>
-      <c r="Q354">
-        <v>3.2</v>
-      </c>
-      <c r="R354">
-        <v>-0.25</v>
-      </c>
-      <c r="S354">
-        <v>1.95</v>
-      </c>
-      <c r="T354">
-        <v>1.85</v>
-      </c>
-      <c r="U354">
-        <v>2</v>
-      </c>
-      <c r="V354">
-        <v>1.775</v>
-      </c>
-      <c r="W354">
-        <v>2.025</v>
-      </c>
-      <c r="X354">
-        <v>1.2</v>
-      </c>
-      <c r="Y354">
-        <v>-1</v>
-      </c>
       <c r="Z354">
         <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB354">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD354">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:30">
@@ -33116,7 +33116,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7752059</v>
+        <v>7751924</v>
       </c>
       <c r="C355" t="s">
         <v>29</v>
@@ -33125,22 +33125,22 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E355" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F355" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K355" t="s">
         <v>52</v>
@@ -33161,25 +33161,25 @@
         <v>3.4</v>
       </c>
       <c r="Q355">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="R355">
         <v>0.75</v>
       </c>
       <c r="S355">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U355">
         <v>2.25</v>
       </c>
       <c r="V355">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W355">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X355">
         <v>-1</v>
@@ -33188,19 +33188,19 @@
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA355">
         <v>-0.5</v>
       </c>
       <c r="AB355">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="AC355">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD355">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:30">
@@ -33208,7 +33208,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7751922</v>
+        <v>7752060</v>
       </c>
       <c r="C356" t="s">
         <v>29</v>
@@ -33217,40 +33217,40 @@
         <v>45392.29166666666</v>
       </c>
       <c r="E356" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F356" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K356" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L356">
         <v>2.15</v>
       </c>
       <c r="M356">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N356">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O356">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="P356">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q356">
         <v>3.2</v>
@@ -33259,40 +33259,40 @@
         <v>-0.25</v>
       </c>
       <c r="S356">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T356">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U356">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V356">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W356">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X356">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA356">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD356">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:30">
@@ -33585,7 +33585,7 @@
         <v>45396.04166666666</v>
       </c>
       <c r="E360" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F360" t="s">
         <v>46</v>
@@ -33677,7 +33677,7 @@
         <v>45396.08333333334</v>
       </c>
       <c r="E361" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F361" t="s">
         <v>37</v>
@@ -34597,7 +34597,7 @@
         <v>45403.04166666666</v>
       </c>
       <c r="E371" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F371" t="s">
         <v>32</v>
@@ -35244,7 +35244,7 @@
         <v>31</v>
       </c>
       <c r="F378" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G378">
         <v>3</v>
@@ -35428,7 +35428,7 @@
         <v>43</v>
       </c>
       <c r="F380" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G380">
         <v>1</v>
@@ -35692,7 +35692,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7752077</v>
+        <v>7751936</v>
       </c>
       <c r="C383" t="s">
         <v>29</v>
@@ -35701,82 +35701,82 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E383" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F383" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H383">
         <v>1</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K383" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L383">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M383">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N383">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O383">
+        <v>1.7</v>
+      </c>
+      <c r="P383">
+        <v>3.4</v>
+      </c>
+      <c r="Q383">
+        <v>4.5</v>
+      </c>
+      <c r="R383">
+        <v>-0.75</v>
+      </c>
+      <c r="S383">
+        <v>1.925</v>
+      </c>
+      <c r="T383">
+        <v>1.875</v>
+      </c>
+      <c r="U383">
         <v>2.25</v>
       </c>
-      <c r="P383">
-        <v>3.1</v>
-      </c>
-      <c r="Q383">
-        <v>2.9</v>
-      </c>
-      <c r="R383">
-        <v>-0.25</v>
-      </c>
-      <c r="S383">
-        <v>2</v>
-      </c>
-      <c r="T383">
-        <v>1.8</v>
-      </c>
-      <c r="U383">
-        <v>2.5</v>
-      </c>
       <c r="V383">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W383">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X383">
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z383">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA383">
         <v>-1</v>
       </c>
       <c r="AB383">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD383">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="384" spans="1:30">
@@ -35784,7 +35784,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7751936</v>
+        <v>7752077</v>
       </c>
       <c r="C384" t="s">
         <v>29</v>
@@ -35793,82 +35793,82 @@
         <v>45415.08333333334</v>
       </c>
       <c r="E384" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F384" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H384">
         <v>1</v>
       </c>
       <c r="I384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K384" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L384">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="M384">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N384">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O384">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="P384">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q384">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="R384">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S384">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T384">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U384">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W384">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA384">
         <v>-1</v>
       </c>
       <c r="AB384">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC384">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD384">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="385" spans="1:30">
@@ -36256,7 +36256,7 @@
         <v>31</v>
       </c>
       <c r="F389" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -36529,7 +36529,7 @@
         <v>45418.04166666666</v>
       </c>
       <c r="E392" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F392" t="s">
         <v>34</v>
@@ -36624,7 +36624,7 @@
         <v>46</v>
       </c>
       <c r="F393" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G393">
         <v>0</v>
@@ -37164,7 +37164,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7752083</v>
+        <v>7752084</v>
       </c>
       <c r="C399" t="s">
         <v>29</v>
@@ -37173,82 +37173,82 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E399" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F399" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G399">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H399">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J399">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K399" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L399">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M399">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N399">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="O399">
+        <v>2.75</v>
+      </c>
+      <c r="P399">
+        <v>2.8</v>
+      </c>
+      <c r="Q399">
+        <v>2.5</v>
+      </c>
+      <c r="R399">
+        <v>0</v>
+      </c>
+      <c r="S399">
+        <v>2.025</v>
+      </c>
+      <c r="T399">
+        <v>1.775</v>
+      </c>
+      <c r="U399">
+        <v>2</v>
+      </c>
+      <c r="V399">
+        <v>1.95</v>
+      </c>
+      <c r="W399">
         <v>1.85</v>
       </c>
-      <c r="P399">
-        <v>3.3</v>
-      </c>
-      <c r="Q399">
-        <v>3.5</v>
-      </c>
-      <c r="R399">
-        <v>-0.5</v>
-      </c>
-      <c r="S399">
-        <v>1.925</v>
-      </c>
-      <c r="T399">
-        <v>1.875</v>
-      </c>
-      <c r="U399">
-        <v>2.5</v>
-      </c>
-      <c r="V399">
-        <v>1.825</v>
-      </c>
-      <c r="W399">
-        <v>1.975</v>
-      </c>
       <c r="X399">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y399">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB399">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC399">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD399">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="400" spans="1:30">
@@ -37256,7 +37256,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7752084</v>
+        <v>7752083</v>
       </c>
       <c r="C400" t="s">
         <v>29</v>
@@ -37265,82 +37265,82 @@
         <v>45418.08333333334</v>
       </c>
       <c r="E400" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F400" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J400">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K400" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L400">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M400">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N400">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O400">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="P400">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q400">
+        <v>3.5</v>
+      </c>
+      <c r="R400">
+        <v>-0.5</v>
+      </c>
+      <c r="S400">
+        <v>1.925</v>
+      </c>
+      <c r="T400">
+        <v>1.875</v>
+      </c>
+      <c r="U400">
         <v>2.5</v>
       </c>
-      <c r="R400">
-        <v>0</v>
-      </c>
-      <c r="S400">
-        <v>2.025</v>
-      </c>
-      <c r="T400">
-        <v>1.775</v>
-      </c>
-      <c r="U400">
-        <v>2</v>
-      </c>
       <c r="V400">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W400">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X400">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y400">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z400">
         <v>-1</v>
       </c>
       <c r="AA400">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB400">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC400">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD400">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401" spans="1:30">
@@ -37633,7 +37633,7 @@
         <v>45430.08333333334</v>
       </c>
       <c r="E404" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F404" t="s">
         <v>36</v>
@@ -38280,7 +38280,7 @@
         <v>42</v>
       </c>
       <c r="F411" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G411">
         <v>0</v>
